--- a/QuantLibXL/Data2/XLS/USD/USD_YCSTDBootstrapping_Mx.xlsx
+++ b/QuantLibXL/Data2/XLS/USD/USD_YCSTDBootstrapping_Mx.xlsx
@@ -1842,16 +1842,16 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 11:30:51</v>
+        <v>Updated at 10:01:31</v>
         <stp/>
-        <stp>{BEB5BA61-DF91-49ED-96FF-4715F895B4B2}</stp>
-        <tr r="J3" s="16"/>
+        <stp>{8CFD53EA-9FF9-4A1E-B8BF-70AA45E394CB}</stp>
+        <tr r="J3" s="17"/>
       </tp>
       <tp t="s">
-        <v>Updated at 11:38:14</v>
+        <v>Updated at 10:00:46</v>
         <stp/>
-        <stp>{C480A836-953C-454D-BA73-C51DD018722B}</stp>
-        <tr r="J3" s="17"/>
+        <stp>{E8EF7861-2855-4BF8-B21A-453DF54D00FF}</stp>
+        <tr r="J3" s="16"/>
       </tp>
     </main>
   </volType>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="I3" s="13">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42257</v>
+        <v>42318</v>
       </c>
       <c r="J3" s="81"/>
     </row>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="I4" s="15">
         <f>_xll.qlCalendarAdvance(Calendar,Evaluationdate,"2D","F",,Trigger)</f>
-        <v>42261</v>
+        <v>42320</v>
       </c>
       <c r="J4" s="81"/>
     </row>
@@ -2269,7 +2269,9 @@
       <c r="C5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="21">
+        <v>42318.417187500003</v>
+      </c>
       <c r="E5" s="81"/>
       <c r="G5" s="83"/>
       <c r="H5" s="14" t="s">
@@ -2399,8 +2401,8 @@
         <v>10</v>
       </c>
       <c r="D14" s="41" t="str">
-        <f>_xll.qlPiecewiseYieldCurve(D16,D17,Calendar,_xll.ohPack(USDSTD!W3:W71),,,,D18,D19,D20,Permanent,,ObjectOverwrite)</f>
-        <v>_USDSTD#0008</v>
+        <f>_xll.qlPiecewiseYieldCurve(D16,D17,LocalCalendar,_xll.ohPack(USDSTD!W3:W71),,,,D18,D19,D20,Permanent,,ObjectOverwrite)</f>
+        <v>_USDSTD#0002</v>
       </c>
       <c r="E14" s="42"/>
     </row>
@@ -2473,7 +2475,7 @@
       <c r="B22" s="23"/>
       <c r="C22" s="32">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_STD)</f>
-        <v>42257</v>
+        <v>42318</v>
       </c>
       <c r="D22" s="33">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C22,,Trigger)</f>
@@ -2485,11 +2487,11 @@
       <c r="B23" s="23"/>
       <c r="C23" s="34">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_STD,Trigger)</f>
-        <v>64185</v>
+        <v>64236</v>
       </c>
       <c r="D23" s="35">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C23,,Trigger)</f>
-        <v>0.19813291842450667</v>
+        <v>0.20048916139107287</v>
       </c>
       <c r="E23" s="42"/>
     </row>
@@ -2717,7 +2719,7 @@
       </c>
       <c r="AC2" s="156">
         <f t="array" ref="AC2:AC71">_xll.qlPiecewiseYieldCurveData(YieldCurve_STD,Trigger)</f>
-        <v>2.8388778488116924E-3</v>
+        <v>2.9402540924823879E-3</v>
       </c>
       <c r="AE2" s="280" t="s">
         <v>82</v>
@@ -2744,12 +2746,12 @@
       </c>
       <c r="H3" s="120" t="str">
         <f>Mx_Deposits!D4</f>
-        <v>USDOND_Mx_Quote#0002</v>
+        <v>USDOND_Mx_Quote#0000</v>
       </c>
       <c r="I3" s="123"/>
       <c r="J3" s="113" t="str">
         <f>_xll.qlDepositRateHelper(,H3,G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c3#0002</v>
+        <v>obj_003b1#0000</v>
       </c>
       <c r="K3" s="49"/>
       <c r="L3" s="66" t="str">
@@ -2758,7 +2760,7 @@
       </c>
       <c r="M3" s="131" t="str">
         <f t="shared" ref="M3:M9" si="1">IF(ISBLANK(J3),"--",J3)</f>
-        <v>obj_003c3#0002</v>
+        <v>obj_003b1#0000</v>
       </c>
       <c r="N3" s="144" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M3,Trigger),"--")</f>
@@ -2779,11 +2781,11 @@
       </c>
       <c r="S3" s="134">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M3,Trigger),"--")</f>
-        <v>42257</v>
+        <v>42318</v>
       </c>
       <c r="T3" s="134">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M3,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42320</v>
       </c>
       <c r="V3" s="3" t="str">
         <f t="shared" ref="V3:V34" si="2">IFERROR(INDEX($L$3:$L$80,MATCH(X3,$N$3:$N$80,0),1),"")</f>
@@ -2791,7 +2793,7 @@
       </c>
       <c r="W3" s="3" t="str">
         <f t="array" ref="W3:W71">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AF$3,$AF$4,$AF$5,$AF$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_003c3</v>
+        <v>obj_003b1</v>
       </c>
       <c r="X3" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W3,Trigger),"")</f>
@@ -2807,14 +2809,14 @@
       </c>
       <c r="AA3" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W3,Trigger),"")</f>
-        <v>42257</v>
+        <v>42318</v>
       </c>
       <c r="AB3" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W3,Trigger),"")</f>
-        <v>42258</v>
+        <v>42320</v>
       </c>
       <c r="AC3" s="68">
-        <v>2.8388778488116924E-3</v>
+        <v>2.9402540924823879E-3</v>
       </c>
       <c r="AE3" s="106" t="s">
         <v>83</v>
@@ -2845,16 +2847,16 @@
       </c>
       <c r="G4" s="55" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(C4="ON","1D",C4),2,Currency,LocalCalendar,E4,TRUE,F4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037b#0004</v>
+        <v>obj_00342#0000</v>
       </c>
       <c r="H4" s="154" t="str">
         <f>Mx_Deposits!D5</f>
-        <v>USDTND_Mx_Quote#0002</v>
+        <v>USDTND_Mx_Quote#0000</v>
       </c>
       <c r="I4" s="130"/>
       <c r="J4" s="57" t="str">
         <f>_xll.qlFraRateHelper(,H4,D4,G4,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039d#0004</v>
+        <v>obj_0038d#0000</v>
       </c>
       <c r="K4" s="48"/>
       <c r="L4" s="9" t="str">
@@ -2863,7 +2865,7 @@
       </c>
       <c r="M4" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>obj_0039d#0004</v>
+        <v>obj_0038d#0000</v>
       </c>
       <c r="N4" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M4,Trigger),"--")</f>
@@ -2884,18 +2886,18 @@
       </c>
       <c r="S4" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M4,Trigger),"--")</f>
-        <v>42262</v>
+        <v>42324</v>
       </c>
       <c r="T4" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M4,Trigger),"--")</f>
-        <v>42263</v>
+        <v>42325</v>
       </c>
       <c r="V4" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W4" s="3" t="str">
-        <v>obj_0039d</v>
+        <v>obj_0038d</v>
       </c>
       <c r="X4" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W4,Trigger),"")</f>
@@ -2911,14 +2913,14 @@
       </c>
       <c r="AA4" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W4,Trigger),"")</f>
-        <v>42262</v>
+        <v>42324</v>
       </c>
       <c r="AB4" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W4,Trigger),"")</f>
-        <v>42263</v>
+        <v>42325</v>
       </c>
       <c r="AC4" s="68">
-        <v>2.8388778488136973E-3</v>
+        <v>2.9402594754588045E-3</v>
       </c>
       <c r="AE4" s="106" t="s">
         <v>84</v>
@@ -2949,16 +2951,16 @@
       </c>
       <c r="G5" s="6" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(C5="ON","1D",C5),2,Currency,LocalCalendar,E5,TRUE,F5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00383#0003</v>
+        <v>obj_0033d#0000</v>
       </c>
       <c r="H5" s="122" t="str">
         <f>Mx_Deposits!D6</f>
-        <v>USDSND_Mx_Quote#0002</v>
+        <v>USDSND_Mx_Quote#0000</v>
       </c>
       <c r="I5" s="125"/>
       <c r="J5" s="2" t="str">
         <f>_xll.qlFraRateHelper(,H5,D5,G5,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039e#0003</v>
+        <v>obj_0038e#0000</v>
       </c>
       <c r="K5" s="48"/>
       <c r="L5" s="9" t="str">
@@ -2967,7 +2969,7 @@
       </c>
       <c r="M5" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>obj_0039e#0003</v>
+        <v>obj_0038e#0000</v>
       </c>
       <c r="N5" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M5,Trigger),"--")</f>
@@ -2988,18 +2990,18 @@
       </c>
       <c r="S5" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M5,Trigger),"--")</f>
-        <v>42263</v>
+        <v>42325</v>
       </c>
       <c r="T5" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M5,Trigger),"--")</f>
-        <v>42264</v>
+        <v>42326</v>
       </c>
       <c r="V5" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W5" s="3" t="str">
-        <v>obj_0039e</v>
+        <v>obj_0038e</v>
       </c>
       <c r="X5" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W5,Trigger),"")</f>
@@ -3015,14 +3017,14 @@
       </c>
       <c r="AA5" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W5,Trigger),"")</f>
-        <v>42263</v>
+        <v>42325</v>
       </c>
       <c r="AB5" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W5,Trigger),"")</f>
-        <v>42264</v>
+        <v>42326</v>
       </c>
       <c r="AC5" s="68">
-        <v>2.8388778488216914E-3</v>
+        <v>2.9529337901623796E-3</v>
       </c>
       <c r="AD5" s="74"/>
       <c r="AE5" s="106" t="s">
@@ -3052,16 +3054,16 @@
       </c>
       <c r="G6" s="245" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(C6="ON","1D",C6),2,Currency,LocalCalendar,E6,TRUE,F6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003e2#0001</v>
+        <v>obj_0034a#0000</v>
       </c>
       <c r="H6" s="246" t="str">
         <f>Mx_Deposits!D7</f>
-        <v>USDSWD_Mx_Quote#0002</v>
+        <v>USDSWD_Mx_Quote#0000</v>
       </c>
       <c r="I6" s="244"/>
       <c r="J6" s="247" t="str">
         <f>_xll.qlDepositRateHelper(,H6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003bf#0003</v>
+        <v>obj_003a9#0000</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="9" t="str">
@@ -3070,7 +3072,7 @@
       </c>
       <c r="M6" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>obj_003bf#0003</v>
+        <v>obj_003a9#0000</v>
       </c>
       <c r="N6" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M6,Trigger),"--")</f>
@@ -3091,18 +3093,18 @@
       </c>
       <c r="S6" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M6,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T6" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M6,Trigger),"--")</f>
-        <v>42268</v>
+        <v>42328</v>
       </c>
       <c r="V6" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W6" s="3" t="str">
-        <v>obj_003bf</v>
+        <v>obj_003a9</v>
       </c>
       <c r="X6" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W6,Trigger),"")</f>
@@ -3118,14 +3120,14 @@
       </c>
       <c r="AA6" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W6,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB6" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W6,Trigger),"")</f>
-        <v>42268</v>
+        <v>42328</v>
       </c>
       <c r="AC6" s="68">
-        <v>2.033012461538869E-3</v>
+        <v>1.9863876228127467E-3</v>
       </c>
       <c r="AE6" s="106" t="s">
         <v>86</v>
@@ -3143,7 +3145,7 @@
         <v>128</v>
       </c>
       <c r="C7" s="61" t="str">
-        <f t="shared" ref="C6:C20" si="3">B7</f>
+        <f t="shared" ref="C7:C20" si="3">B7</f>
         <v>2W</v>
       </c>
       <c r="D7" s="124"/>
@@ -3155,16 +3157,16 @@
       </c>
       <c r="G7" s="60" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(C7="ON","1D",C7),2,Currency,LocalCalendar,E7,TRUE,F7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c0#0003</v>
+        <v>obj_00346#0000</v>
       </c>
       <c r="H7" s="121" t="str">
         <f>Mx_Deposits!D8</f>
-        <v>USD2WD_Mx_Quote#0002</v>
+        <v>USD2WD_Mx_Quote#0000</v>
       </c>
       <c r="I7" s="124"/>
       <c r="J7" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c1#0003</v>
+        <v>obj_003b0#0000</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="9" t="str">
@@ -3173,7 +3175,7 @@
       </c>
       <c r="M7" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>obj_003c1#0003</v>
+        <v>obj_003b0#0000</v>
       </c>
       <c r="N7" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M7,Trigger),"--")</f>
@@ -3194,18 +3196,18 @@
       </c>
       <c r="S7" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M7,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T7" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M7,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42335</v>
       </c>
       <c r="V7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W7" s="3" t="str">
-        <v>obj_003c1</v>
+        <v>obj_003b0</v>
       </c>
       <c r="X7" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W7,Trigger),"")</f>
@@ -3221,14 +3223,14 @@
       </c>
       <c r="AA7" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W7,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB7" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W7,Trigger),"")</f>
-        <v>42275</v>
+        <v>42335</v>
       </c>
       <c r="AC7" s="68">
-        <v>1.9712667191293803E-3</v>
+        <v>1.9188543695917162E-3</v>
       </c>
       <c r="AH7" s="157"/>
     </row>
@@ -3252,16 +3254,16 @@
       </c>
       <c r="G8" s="60" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(C8="ON","1D",C8),2,Currency,LocalCalendar,E8,TRUE,F8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b7#0003</v>
+        <v>obj_00344#0000</v>
       </c>
       <c r="H8" s="121" t="str">
         <f>Mx_Deposits!D9</f>
-        <v>USD3WD_Mx_Quote#0002</v>
+        <v>USD3WD_Mx_Quote#0000</v>
       </c>
       <c r="I8" s="124"/>
       <c r="J8" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c2#0003</v>
+        <v>obj_003b2#0000</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="9" t="str">
@@ -3270,7 +3272,7 @@
       </c>
       <c r="M8" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>obj_003c2#0003</v>
+        <v>obj_003b2#0000</v>
       </c>
       <c r="N8" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M8,Trigger),"--")</f>
@@ -3291,18 +3293,18 @@
       </c>
       <c r="S8" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M8,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T8" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M8,Trigger),"--")</f>
-        <v>42282</v>
+        <v>42342</v>
       </c>
       <c r="V8" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W8" s="3" t="str">
-        <v>obj_003c2</v>
+        <v>obj_003b2</v>
       </c>
       <c r="X8" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W8,Trigger),"")</f>
@@ -3318,14 +3320,14 @@
       </c>
       <c r="AA8" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W8,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB8" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W8,Trigger),"")</f>
-        <v>42282</v>
+        <v>42342</v>
       </c>
       <c r="AC8" s="68">
-        <v>2.0285710013431546E-3</v>
+        <v>1.9621054168125754E-3</v>
       </c>
       <c r="AH8" s="157"/>
     </row>
@@ -3349,16 +3351,16 @@
       </c>
       <c r="G9" s="252" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(C9="ON","1D",C9),2,Currency,LocalCalendar,E9,TRUE,F9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003e0#0001</v>
+        <v>obj_0033e#0000</v>
       </c>
       <c r="H9" s="253" t="str">
         <f>Mx_Deposits!D10</f>
-        <v>USD1MD_Mx_Quote#0002</v>
+        <v>USD1MD_Mx_Quote#0000</v>
       </c>
       <c r="I9" s="251"/>
       <c r="J9" s="254" t="str">
         <f>_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039c#0003</v>
+        <v>obj_0038f#0000</v>
       </c>
       <c r="K9" s="48"/>
       <c r="L9" s="9" t="str">
@@ -3367,7 +3369,7 @@
       </c>
       <c r="M9" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>obj_0039c#0003</v>
+        <v>obj_0038f#0000</v>
       </c>
       <c r="N9" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M9,Trigger),"--")</f>
@@ -3388,18 +3390,18 @@
       </c>
       <c r="S9" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M9,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T9" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M9,Trigger),"--")</f>
-        <v>42291</v>
+        <v>42352</v>
       </c>
       <c r="V9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W9" s="3" t="str">
-        <v>obj_0039c</v>
+        <v>obj_0038f</v>
       </c>
       <c r="X9" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W9,Trigger),"")</f>
@@ -3415,14 +3417,14 @@
       </c>
       <c r="AA9" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W9,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB9" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W9,Trigger),"")</f>
-        <v>42291</v>
+        <v>42352</v>
       </c>
       <c r="AC9" s="68">
-        <v>2.1588305217629974E-3</v>
+        <v>2.0804031963444561E-3</v>
       </c>
       <c r="AH9" s="157"/>
     </row>
@@ -3446,16 +3448,16 @@
       </c>
       <c r="G10" s="60" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(C10="ON","1D",C10),2,Currency,LocalCalendar,E10,TRUE,F10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003df#0001</v>
+        <v>obj_0033a#0000</v>
       </c>
       <c r="H10" s="121" t="str">
         <f>Mx_Deposits!D11</f>
-        <v>USD2MD_Mx_Quote#0002</v>
+        <v>USD2MD_Mx_Quote#0000</v>
       </c>
       <c r="I10" s="124"/>
       <c r="J10" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H10,G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039f#0003</v>
+        <v>obj_00390#0000</v>
       </c>
       <c r="K10" s="48"/>
       <c r="L10" s="9" t="str">
@@ -3464,7 +3466,7 @@
       </c>
       <c r="M10" s="93" t="str">
         <f t="shared" ref="M10:M19" si="5">IF(ISBLANK(J10),"--",J10)</f>
-        <v>obj_0039f#0003</v>
+        <v>obj_00390#0000</v>
       </c>
       <c r="N10" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M10,Trigger),"--")</f>
@@ -3485,18 +3487,18 @@
       </c>
       <c r="S10" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M10,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T10" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M10,Trigger),"--")</f>
-        <v>42324</v>
+        <v>42382</v>
       </c>
       <c r="V10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W10" s="3" t="str">
-        <v>obj_0039f</v>
+        <v>obj_00390</v>
       </c>
       <c r="X10" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W10,Trigger),"")</f>
@@ -3512,14 +3514,14 @@
       </c>
       <c r="AA10" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W10,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB10" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W10,Trigger),"")</f>
-        <v>42324</v>
+        <v>42382</v>
       </c>
       <c r="AC10" s="68">
-        <v>2.7291272940658797E-3</v>
+        <v>2.77055545301009E-3</v>
       </c>
       <c r="AH10" s="157"/>
     </row>
@@ -3543,16 +3545,16 @@
       </c>
       <c r="G11" s="259" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(C11="ON","1D",C11),2,Currency,LocalCalendar,E11,TRUE,F11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003de#0001</v>
+        <v>obj_00347#0000</v>
       </c>
       <c r="H11" s="260" t="str">
         <f>Mx_Deposits!D12</f>
-        <v>USD3MD_Mx_Quote#0002</v>
+        <v>USD3MD_Mx_Quote#0000</v>
       </c>
       <c r="I11" s="258"/>
       <c r="J11" s="261" t="str">
         <f>_xll.qlDepositRateHelper(,H11,G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039b#0003</v>
+        <v>obj_0038c#0000</v>
       </c>
       <c r="K11" s="48"/>
       <c r="L11" s="9" t="str">
@@ -3561,7 +3563,7 @@
       </c>
       <c r="M11" s="93" t="str">
         <f t="shared" si="5"/>
-        <v>obj_0039b#0003</v>
+        <v>obj_0038c#0000</v>
       </c>
       <c r="N11" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M11,Trigger),"--")</f>
@@ -3582,18 +3584,18 @@
       </c>
       <c r="S11" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M11,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T11" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M11,Trigger),"--")</f>
-        <v>42352</v>
+        <v>42416</v>
       </c>
       <c r="V11" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W11" s="3" t="str">
-        <v>obj_0039b</v>
+        <v>obj_0038c</v>
       </c>
       <c r="X11" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W11,Trigger),"")</f>
@@ -3609,14 +3611,14 @@
       </c>
       <c r="AA11" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W11,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB11" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W11,Trigger),"")</f>
-        <v>42352</v>
+        <v>42416</v>
       </c>
       <c r="AC11" s="68">
-        <v>3.3522634189946453E-3</v>
+        <v>3.5833888338281696E-3</v>
       </c>
       <c r="AE11" s="69" t="s">
         <v>159</v>
@@ -3646,16 +3648,16 @@
       </c>
       <c r="G12" s="60" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(C12="ON","1D",C12),2,Currency,LocalCalendar,E12,TRUE,F12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00381#0003</v>
+        <v>obj_00343#0000</v>
       </c>
       <c r="H12" s="121" t="str">
         <f>Mx_Deposits!D13</f>
-        <v>USD4MD_Mx_Quote#0002</v>
+        <v>USD4MD_Mx_Quote#0000</v>
       </c>
       <c r="I12" s="124"/>
       <c r="J12" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H12,G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00393#0003</v>
+        <v>obj_00385#0000</v>
       </c>
       <c r="K12" s="48" t="s">
         <v>46</v>
@@ -3666,7 +3668,7 @@
       </c>
       <c r="M12" s="93" t="str">
         <f t="shared" si="5"/>
-        <v>obj_00393#0003</v>
+        <v>obj_00385#0000</v>
       </c>
       <c r="N12" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M12,Trigger),"--")</f>
@@ -3687,18 +3689,18 @@
       </c>
       <c r="S12" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M12,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T12" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M12,Trigger),"--")</f>
-        <v>42383</v>
+        <v>42443</v>
       </c>
       <c r="V12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W12" s="3" t="str">
-        <v>obj_00393</v>
+        <v>obj_00385</v>
       </c>
       <c r="X12" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W12,Trigger),"")</f>
@@ -3714,14 +3716,14 @@
       </c>
       <c r="AA12" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W12,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB12" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W12,Trigger),"")</f>
-        <v>42383</v>
+        <v>42443</v>
       </c>
       <c r="AC12" s="68">
-        <v>4.0454065196326838E-3</v>
+        <v>4.3215355304465387E-3</v>
       </c>
       <c r="AE12" s="103" t="str">
         <f>_xll.qlIMMNextCode($E$24-1,TRUE,Trigger)</f>
@@ -3752,16 +3754,16 @@
       </c>
       <c r="G13" s="60" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(C13="ON","1D",C13),2,Currency,LocalCalendar,E13,TRUE,F13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00364#0003</v>
+        <v>obj_0033b#0000</v>
       </c>
       <c r="H13" s="121" t="str">
         <f>Mx_Deposits!D14</f>
-        <v>USD5MD_Mx_Quote#0002</v>
+        <v>USD5MD_Mx_Quote#0000</v>
       </c>
       <c r="I13" s="124"/>
       <c r="J13" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H13,G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00398#0003</v>
+        <v>obj_0038b#0000</v>
       </c>
       <c r="K13" s="48"/>
       <c r="L13" s="9" t="str">
@@ -3770,7 +3772,7 @@
       </c>
       <c r="M13" s="93" t="str">
         <f t="shared" si="5"/>
-        <v>obj_00398#0003</v>
+        <v>obj_0038b#0000</v>
       </c>
       <c r="N13" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M13,Trigger),"--")</f>
@@ -3791,18 +3793,18 @@
       </c>
       <c r="S13" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M13,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T13" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M13,Trigger),"--")</f>
-        <v>42416</v>
+        <v>42473</v>
       </c>
       <c r="V13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W13" s="3" t="str">
-        <v>obj_00398</v>
+        <v>obj_0038b</v>
       </c>
       <c r="X13" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W13,Trigger),"")</f>
@@ -3818,14 +3820,14 @@
       </c>
       <c r="AA13" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W13,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB13" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W13,Trigger),"")</f>
-        <v>42416</v>
+        <v>42473</v>
       </c>
       <c r="AC13" s="68">
-        <v>4.7898382254897443E-3</v>
+        <v>5.1464990945993315E-3</v>
       </c>
       <c r="AE13" s="103" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlIMMdate(AE12,,Trigger),TRUE,Trigger)</f>
@@ -3856,16 +3858,16 @@
       </c>
       <c r="G14" s="266" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(C14="ON","1D",C14),2,Currency,LocalCalendar,E14,TRUE,F14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003e1#0001</v>
+        <v>obj_00348#0000</v>
       </c>
       <c r="H14" s="267" t="str">
         <f>Mx_Deposits!D15</f>
-        <v>USD6MD_Mx_Quote#0002</v>
+        <v>USD6MD_Mx_Quote#0000</v>
       </c>
       <c r="I14" s="265"/>
       <c r="J14" s="268" t="str">
         <f>_xll.qlDepositRateHelper(,H14,G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00396#0003</v>
+        <v>obj_00388#0000</v>
       </c>
       <c r="K14" s="48"/>
       <c r="L14" s="9" t="str">
@@ -3874,7 +3876,7 @@
       </c>
       <c r="M14" s="93" t="str">
         <f t="shared" si="5"/>
-        <v>obj_00396#0003</v>
+        <v>obj_00388#0000</v>
       </c>
       <c r="N14" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M14,Trigger),"--")</f>
@@ -3895,18 +3897,18 @@
       </c>
       <c r="S14" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M14,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T14" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M14,Trigger),"--")</f>
-        <v>42443</v>
+        <v>42503</v>
       </c>
       <c r="V14" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W14" s="3" t="str">
-        <v>obj_00396</v>
+        <v>obj_00388</v>
       </c>
       <c r="X14" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W14,Trigger),"")</f>
@@ -3922,14 +3924,14 @@
       </c>
       <c r="AA14" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W14,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB14" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W14,Trigger),"")</f>
-        <v>42443</v>
+        <v>42503</v>
       </c>
       <c r="AC14" s="68">
-        <v>5.4011159626906492E-3</v>
+        <v>5.9735838632642554E-3</v>
       </c>
       <c r="AE14" s="103" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlIMMdate(AE13,,Trigger),TRUE,Trigger)</f>
@@ -3960,16 +3962,16 @@
       </c>
       <c r="G15" s="252" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(C15="ON","1D",C15),2,Currency,LocalCalendar,E15,TRUE,F15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00371#0003</v>
+        <v>obj_0033f#0000</v>
       </c>
       <c r="H15" s="121" t="str">
         <f>Mx_Deposits!D16</f>
-        <v>USD7MD_Mx_Quote#0002</v>
+        <v>USD7MD_Mx_Quote#0000</v>
       </c>
       <c r="I15" s="124"/>
       <c r="J15" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H15,G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00392#0003</v>
+        <v>obj_0038a#0000</v>
       </c>
       <c r="K15" s="48"/>
       <c r="L15" s="9" t="str">
@@ -3978,7 +3980,7 @@
       </c>
       <c r="M15" s="93" t="str">
         <f t="shared" si="5"/>
-        <v>obj_00392#0003</v>
+        <v>obj_0038a#0000</v>
       </c>
       <c r="N15" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M15,Trigger),"--")</f>
@@ -3999,18 +4001,18 @@
       </c>
       <c r="S15" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M15,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T15" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M15,Trigger),"--")</f>
-        <v>42474</v>
+        <v>42534</v>
       </c>
       <c r="V15" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W15" s="3" t="str">
-        <v>obj_00392</v>
+        <v>obj_0038a</v>
       </c>
       <c r="X15" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W15,Trigger),"")</f>
@@ -4026,14 +4028,14 @@
       </c>
       <c r="AA15" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W15,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB15" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W15,Trigger),"")</f>
-        <v>42474</v>
+        <v>42534</v>
       </c>
       <c r="AC15" s="68">
-        <v>5.9352372699968308E-3</v>
+        <v>6.5448494017353353E-3</v>
       </c>
       <c r="AE15" s="103" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlIMMdate(AE14,,Trigger),TRUE,Trigger)</f>
@@ -4064,16 +4066,16 @@
       </c>
       <c r="G16" s="60" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(C16="ON","1D",C16),2,Currency,LocalCalendar,E16,TRUE,F16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00362#0003</v>
+        <v>obj_00341#0000</v>
       </c>
       <c r="H16" s="121" t="str">
         <f>Mx_Deposits!D17</f>
-        <v>USD8MD_Mx_Quote#0002</v>
+        <v>USD8MD_Mx_Quote#0000</v>
       </c>
       <c r="I16" s="124"/>
       <c r="J16" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H16,G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00399#0003</v>
+        <v>obj_00384#0000</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="9" t="str">
@@ -4082,7 +4084,7 @@
       </c>
       <c r="M16" s="93" t="str">
         <f t="shared" si="5"/>
-        <v>obj_00399#0003</v>
+        <v>obj_00384#0000</v>
       </c>
       <c r="N16" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M16,Trigger),"--")</f>
@@ -4103,26 +4105,26 @@
       </c>
       <c r="S16" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M16,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T16" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M16,Trigger),"--")</f>
-        <v>42506</v>
+        <v>42564</v>
       </c>
       <c r="V16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Dp</v>
+        <v>Stub</v>
       </c>
       <c r="W16" s="3" t="str">
-        <v>obj_00399</v>
+        <v>obj_003b4</v>
       </c>
       <c r="X16" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W16,Trigger),"")</f>
-        <v>USD8MD_Mx_Quote</v>
+        <v>USD_STUB_Quote</v>
       </c>
       <c r="Y16" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W16,Trigger),"")</f>
-        <v>6.4704157599999998E-3</v>
+        <v>6.98489946E-3</v>
       </c>
       <c r="Z16" s="103" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W16)),_xll.qlSwapRateHelperSpread($W16))</f>
@@ -4130,14 +4132,14 @@
       </c>
       <c r="AA16" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W16,Trigger),"")</f>
-        <v>42261</v>
+        <v>42320</v>
       </c>
       <c r="AB16" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W16,Trigger),"")</f>
-        <v>42506</v>
+        <v>42536</v>
       </c>
       <c r="AC16" s="68">
-        <v>6.4863306309705555E-3</v>
+        <v>6.5985627034107035E-3</v>
       </c>
       <c r="AE16" s="103" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlIMMdate(AE15,,Trigger),TRUE,Trigger)</f>
@@ -4168,16 +4170,16 @@
       </c>
       <c r="G17" s="60" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(C17="ON","1D",C17),2,Currency,LocalCalendar,E17,TRUE,F17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00385#0003</v>
+        <v>obj_0033c#0000</v>
       </c>
       <c r="H17" s="121" t="str">
         <f>Mx_Deposits!D18</f>
-        <v>USD9MD_Mx_Quote#0002</v>
+        <v>USD9MD_Mx_Quote#0000</v>
       </c>
       <c r="I17" s="124"/>
       <c r="J17" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H17,G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039a#0003</v>
+        <v>obj_00387#0000</v>
       </c>
       <c r="K17" s="48"/>
       <c r="L17" s="9" t="str">
@@ -4186,7 +4188,7 @@
       </c>
       <c r="M17" s="93" t="str">
         <f t="shared" si="5"/>
-        <v>obj_0039a#0003</v>
+        <v>obj_00387#0000</v>
       </c>
       <c r="N17" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M17,Trigger),"--")</f>
@@ -4207,41 +4209,41 @@
       </c>
       <c r="S17" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M17,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T17" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M17,Trigger),"--")</f>
-        <v>42535</v>
+        <v>42597</v>
       </c>
       <c r="V17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Dp</v>
+        <v>FUT</v>
       </c>
       <c r="W17" s="3" t="str">
-        <v>obj_0039a</v>
+        <v>obj_003ba</v>
       </c>
       <c r="X17" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W17,Trigger),"")</f>
-        <v>USD9MD_Mx_Quote</v>
+        <v>USDFUT3MM6_Quote</v>
       </c>
       <c r="Y17" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W17,Trigger),"")</f>
-        <v>6.96775E-3</v>
-      </c>
-      <c r="Z17" s="103" t="str">
+        <v>7.5759999999999925E-3</v>
+      </c>
+      <c r="Z17" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W17)),_xll.qlSwapRateHelperSpread($W17))</f>
-        <v/>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="AA17" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W17,Trigger),"")</f>
-        <v>42261</v>
+        <v>42536</v>
       </c>
       <c r="AB17" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W17,Trigger),"")</f>
-        <v>42535</v>
+        <v>42628</v>
       </c>
       <c r="AC17" s="68">
-        <v>6.9853257793513644E-3</v>
+        <v>6.9176642101519163E-3</v>
       </c>
       <c r="AE17" s="104" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlIMMdate(AE16,,Trigger),TRUE,Trigger)</f>
@@ -4272,16 +4274,16 @@
       </c>
       <c r="G18" s="60" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(C18="ON","1D",C18),2,Currency,LocalCalendar,E18,TRUE,F18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00351#0003</v>
+        <v>obj_00349#0000</v>
       </c>
       <c r="H18" s="121" t="str">
         <f>Mx_Deposits!D19</f>
-        <v>USD10MD_Mx_Quote#0002</v>
+        <v>USD10MD_Mx_Quote#0000</v>
       </c>
       <c r="I18" s="124"/>
       <c r="J18" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H18,G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00397#0003</v>
+        <v>obj_00389#0000</v>
       </c>
       <c r="K18" s="48"/>
       <c r="L18" s="9" t="str">
@@ -4290,7 +4292,7 @@
       </c>
       <c r="M18" s="93" t="str">
         <f t="shared" si="5"/>
-        <v>obj_00397#0003</v>
+        <v>obj_00389#0000</v>
       </c>
       <c r="N18" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M18,Trigger),"--")</f>
@@ -4311,41 +4313,41 @@
       </c>
       <c r="S18" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M18,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T18" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M18,Trigger),"--")</f>
-        <v>42565</v>
+        <v>42626</v>
       </c>
       <c r="V18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Stub</v>
+        <v>FUT</v>
       </c>
       <c r="W18" s="3" t="str">
-        <v>obj_003c5</v>
+        <v>obj_003b5</v>
       </c>
       <c r="X18" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W18,Trigger),"")</f>
-        <v>USD_STUB_Quote</v>
+        <v>USDFUT3MU6_Quote</v>
       </c>
       <c r="Y18" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W18,Trigger),"")</f>
-        <v>6.98489946E-3</v>
-      </c>
-      <c r="Z18" s="103" t="str">
+        <v>9.296000000000023E-3</v>
+      </c>
+      <c r="Z18" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W18)),_xll.qlSwapRateHelperSpread($W18))</f>
-        <v/>
+        <v>7.9000000000000009E-5</v>
       </c>
       <c r="AA18" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W18,Trigger),"")</f>
-        <v>42261</v>
+        <v>42634</v>
       </c>
       <c r="AB18" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W18,Trigger),"")</f>
-        <v>42536</v>
+        <v>42725</v>
       </c>
       <c r="AC18" s="68">
-        <v>7.0025233416574958E-3</v>
+        <v>7.5039835403775236E-3</v>
       </c>
       <c r="AH18" s="157"/>
     </row>
@@ -4369,16 +4371,16 @@
       </c>
       <c r="G19" s="259" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(C19="ON","1D",C19),2,Currency,LocalCalendar,E19,TRUE,F19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00355#0003</v>
+        <v>obj_00345#0000</v>
       </c>
       <c r="H19" s="121" t="str">
         <f>Mx_Deposits!D20</f>
-        <v>USD11MD_Mx_Quote#0002</v>
+        <v>USD11MD_Mx_Quote#0000</v>
       </c>
       <c r="I19" s="124"/>
       <c r="J19" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H19,G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00394#0003</v>
+        <v>obj_00383#0000</v>
       </c>
       <c r="K19" s="48"/>
       <c r="L19" s="9" t="str">
@@ -4387,7 +4389,7 @@
       </c>
       <c r="M19" s="93" t="str">
         <f t="shared" si="5"/>
-        <v>obj_00394#0003</v>
+        <v>obj_00383#0000</v>
       </c>
       <c r="N19" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M19,Trigger),"--")</f>
@@ -4408,41 +4410,41 @@
       </c>
       <c r="S19" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M19,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T19" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M19,Trigger),"--")</f>
-        <v>42597</v>
+        <v>42656</v>
       </c>
       <c r="V19" s="3" t="str">
         <f t="shared" si="2"/>
         <v>FUT</v>
       </c>
       <c r="W19" s="3" t="str">
-        <v>obj_003c7</v>
+        <v>obj_003b6</v>
       </c>
       <c r="X19" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W19,Trigger),"")</f>
-        <v>USDFUT3MM6_Quote</v>
+        <v>USDFUT3MZ6_Quote</v>
       </c>
       <c r="Y19" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W19,Trigger),"")</f>
-        <v>7.6760000000000925E-3</v>
+        <v>1.101199999999994E-2</v>
       </c>
       <c r="Z19" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W19)),_xll.qlSwapRateHelperSpread($W19))</f>
-        <v>4.8999999999999998E-5</v>
+        <v>1.13E-4</v>
       </c>
       <c r="AA19" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W19,Trigger),"")</f>
-        <v>42536</v>
+        <v>42725</v>
       </c>
       <c r="AB19" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W19,Trigger),"")</f>
-        <v>42628</v>
+        <v>42815</v>
       </c>
       <c r="AC19" s="68">
-        <v>7.1940778510902878E-3</v>
+        <v>8.1641562677546974E-3</v>
       </c>
       <c r="AH19" s="157"/>
     </row>
@@ -4466,16 +4468,16 @@
       </c>
       <c r="G20" s="6" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IF(C20="ON","1D",C20),2,Currency,LocalCalendar,E20,TRUE,F20,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003dd#0001</v>
+        <v>obj_00340#0000</v>
       </c>
       <c r="H20" s="273" t="str">
         <f>Mx_Deposits!D21</f>
-        <v>USD1YD_Mx_Quote#0002</v>
+        <v>USD1YD_Mx_Quote#0000</v>
       </c>
       <c r="I20" s="272"/>
       <c r="J20" s="274" t="str">
         <f>_xll.qlDepositRateHelper(,H20,G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00395#0003</v>
+        <v>obj_00386#0000</v>
       </c>
       <c r="K20" s="48"/>
       <c r="L20" s="9" t="str">
@@ -4484,7 +4486,7 @@
       </c>
       <c r="M20" s="93" t="str">
         <f>IF(ISBLANK(J20),"--",J20)</f>
-        <v>obj_00395#0003</v>
+        <v>obj_00386#0000</v>
       </c>
       <c r="N20" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M20,Trigger),"--")</f>
@@ -4505,41 +4507,41 @@
       </c>
       <c r="S20" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M20,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T20" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M20,Trigger),"--")</f>
-        <v>42627</v>
+        <v>42688</v>
       </c>
       <c r="V20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>FUT</v>
       </c>
       <c r="W20" s="3" t="str">
-        <v>obj_003c8</v>
+        <v>obj_003b7</v>
       </c>
       <c r="X20" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W20,Trigger),"")</f>
-        <v>USDFUT3MU6_Quote</v>
+        <v>USDFUT3MH7_Quote</v>
       </c>
       <c r="Y20" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W20,Trigger),"")</f>
-        <v>9.395999999999901E-3</v>
+        <v>1.2574000000000097E-2</v>
       </c>
       <c r="Z20" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W20)),_xll.qlSwapRateHelperSpread($W20))</f>
-        <v>7.9000000000000009E-5</v>
+        <v>1.5100000000000001E-4</v>
       </c>
       <c r="AA20" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W20,Trigger),"")</f>
-        <v>42634</v>
+        <v>42809</v>
       </c>
       <c r="AB20" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W20,Trigger),"")</f>
-        <v>42725</v>
+        <v>42901</v>
       </c>
       <c r="AC20" s="68">
-        <v>7.6690763806767769E-3</v>
+        <v>8.8473163750320792E-3</v>
       </c>
       <c r="AH20" s="157"/>
     </row>
@@ -4550,7 +4552,7 @@
       <c r="B21" s="110"/>
       <c r="C21" s="112" t="str">
         <f>(_xll.qlCalendarBusinessDaysBetween(Calendar,Settlementdate,E24,Trigger)-1)&amp;"D"</f>
-        <v>190D</v>
+        <v>147D</v>
       </c>
       <c r="D21" s="112" t="b">
         <v>0</v>
@@ -4564,12 +4566,12 @@
       <c r="G21" s="123"/>
       <c r="H21" s="120" t="str">
         <f>Mx_Deposits!D22</f>
-        <v>USD_STUB_Quote#0002</v>
+        <v>USD_STUB_Quote#0000</v>
       </c>
       <c r="I21" s="123"/>
       <c r="J21" s="113" t="str">
         <f>_xll.qlDepositRateHelper2(,H21,C21,2,Calendar,E21,D21,F21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c5#0004</v>
+        <v>obj_003b4#0000</v>
       </c>
       <c r="K21" s="48"/>
       <c r="L21" s="10" t="str">
@@ -4578,7 +4580,7 @@
       </c>
       <c r="M21" s="94" t="str">
         <f t="shared" ref="M21" si="7">IF(ISBLANK(J21),"--",J21)</f>
-        <v>obj_003c5#0004</v>
+        <v>obj_003b4#0000</v>
       </c>
       <c r="N21" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M21,Trigger),"--")</f>
@@ -4599,7 +4601,7 @@
       </c>
       <c r="S21" s="101">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M21,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42320</v>
       </c>
       <c r="T21" s="101">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M21,Trigger),"--")</f>
@@ -4610,30 +4612,30 @@
         <v>FUT</v>
       </c>
       <c r="W21" s="3" t="str">
-        <v>obj_003c9</v>
+        <v>obj_003b8</v>
       </c>
       <c r="X21" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W21,Trigger),"")</f>
-        <v>USDFUT3MZ6_Quote</v>
+        <v>USDFUT3MM7_Quote</v>
       </c>
       <c r="Y21" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W21,Trigger),"")</f>
-        <v>1.1211999999999918E-2</v>
+        <v>1.4175000000000026E-2</v>
       </c>
       <c r="Z21" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W21)),_xll.qlSwapRateHelperSpread($W21))</f>
-        <v>1.13E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="AA21" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W21,Trigger),"")</f>
-        <v>42725</v>
+        <v>42907</v>
       </c>
       <c r="AB21" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W21,Trigger),"")</f>
-        <v>42815</v>
+        <v>42999</v>
       </c>
       <c r="AC21" s="68">
-        <v>8.2630672980861866E-3</v>
+        <v>9.6316858737010586E-3</v>
       </c>
       <c r="AH21" s="157"/>
     </row>
@@ -4649,15 +4651,15 @@
       </c>
       <c r="M22" s="131" t="str">
         <f>IF(ISBLANK(J27),"--",J27)</f>
-        <v>obj_003cd#0005</v>
+        <v>obj_003be#0000</v>
       </c>
       <c r="N22" s="144" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M22,Trigger),"--")</f>
-        <v>USDFUT3MU5_Quote</v>
+        <v>USDFUT3MX5_Quote</v>
       </c>
       <c r="O22" s="276">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M22,Trigger),"--")</f>
-        <v>99.661249999999995</v>
+        <v>99.631249999999994</v>
       </c>
       <c r="P22" s="132" t="b">
         <f>IF($T$21&gt;S22,FALSE,TRUE)</f>
@@ -4671,41 +4673,41 @@
       </c>
       <c r="S22" s="134">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M22,Trigger),"--")</f>
-        <v>42263</v>
+        <v>42326</v>
       </c>
       <c r="T22" s="134">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M22,Trigger),"--")</f>
-        <v>42354</v>
+        <v>42418</v>
       </c>
       <c r="V22" s="3" t="str">
         <f t="shared" si="2"/>
         <v>FUT</v>
       </c>
       <c r="W22" s="3" t="str">
-        <v>obj_003ca</v>
+        <v>obj_003bb</v>
       </c>
       <c r="X22" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W22,Trigger),"")</f>
-        <v>USDFUT3MH7_Quote</v>
+        <v>USDFUT3MU7_Quote</v>
       </c>
       <c r="Y22" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W22,Trigger),"")</f>
-        <v>1.2673999999999975E-2</v>
+        <v>1.5674999999999967E-2</v>
       </c>
       <c r="Z22" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W22)),_xll.qlSwapRateHelperSpread($W22))</f>
-        <v>1.5100000000000001E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="AA22" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W22,Trigger),"")</f>
-        <v>42809</v>
+        <v>42998</v>
       </c>
       <c r="AB22" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W22,Trigger),"")</f>
-        <v>42901</v>
+        <v>43089</v>
       </c>
       <c r="AC22" s="68">
-        <v>8.8814385679964122E-3</v>
+        <v>1.0359899648958669E-2</v>
       </c>
       <c r="AH22" s="157"/>
     </row>
@@ -4729,15 +4731,15 @@
       </c>
       <c r="M23" s="93" t="str">
         <f t="shared" ref="M23:M43" si="9">IF(ISBLANK(J28),"--",J28)</f>
-        <v>obj_003cc#0005</v>
+        <v>obj_003bd#0000</v>
       </c>
       <c r="N23" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M23,Trigger),"--")</f>
-        <v>USDFUT3MV5_Quote</v>
+        <v>USDFUT3MZ5_Quote</v>
       </c>
       <c r="O23" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M23,Trigger),"--")</f>
-        <v>99.602499999999992</v>
+        <v>99.5625</v>
       </c>
       <c r="P23" s="96" t="b">
         <f t="shared" ref="P23:P43" si="10">IF($T$21&gt;S23,FALSE,TRUE)</f>
@@ -4751,41 +4753,41 @@
       </c>
       <c r="S23" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M23,Trigger),"--")</f>
-        <v>42298</v>
+        <v>42354</v>
       </c>
       <c r="T23" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M23,Trigger),"--")</f>
-        <v>42390</v>
+        <v>42445</v>
       </c>
       <c r="V23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>FUT</v>
+        <v>Sw</v>
       </c>
       <c r="W23" s="3" t="str">
-        <v>obj_003d1</v>
+        <v>obj_0039f</v>
       </c>
       <c r="X23" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W23,Trigger),"")</f>
-        <v>USDFUT3MM7_Quote</v>
+        <v>USD_CURVE_3M_3Y_Quote</v>
       </c>
       <c r="Y23" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W23,Trigger),"")</f>
-        <v>1.4125000000000032E-2</v>
+        <v>1.1379999999999999E-2</v>
       </c>
       <c r="Z23" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W23)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W23)),_xll.qlSwapRateHelperSpread($W23))</f>
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W23,Trigger),"")</f>
-        <v>42907</v>
+        <v>42321</v>
       </c>
       <c r="AB23" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W23,Trigger),"")</f>
-        <v>42999</v>
+        <v>43417</v>
       </c>
       <c r="AC23" s="68">
-        <v>9.5907536955777296E-3</v>
+        <v>1.2452552956466648E-2</v>
       </c>
       <c r="AH23" s="157"/>
     </row>
@@ -4812,15 +4814,15 @@
       </c>
       <c r="M24" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003cb#0005</v>
+        <v>obj_003bc#0000</v>
       </c>
       <c r="N24" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M24,Trigger),"--")</f>
-        <v>USDFUT3MX5_Quote</v>
+        <v>USDFUT3MF6_Quote</v>
       </c>
       <c r="O24" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M24,Trigger),"--")</f>
-        <v>99.564999999999998</v>
+        <v>99.492500000000007</v>
       </c>
       <c r="P24" s="96" t="b">
         <f t="shared" si="10"/>
@@ -4834,41 +4836,41 @@
       </c>
       <c r="S24" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M24,Trigger),"--")</f>
-        <v>42326</v>
+        <v>42389</v>
       </c>
       <c r="T24" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M24,Trigger),"--")</f>
-        <v>42418</v>
+        <v>42480</v>
       </c>
       <c r="V24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>FUT</v>
+        <v>Sw</v>
       </c>
       <c r="W24" s="3" t="str">
-        <v>obj_003ce</v>
+        <v>obj_003a7</v>
       </c>
       <c r="X24" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W24,Trigger),"")</f>
-        <v>USDFUT3MU7_Quote</v>
+        <v>USD_CURVE_3M_4Y_Quote</v>
       </c>
       <c r="Y24" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W24,Trigger),"")</f>
-        <v>1.5474999999999878E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="Z24" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W24)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W24)),_xll.qlSwapRateHelperSpread($W24))</f>
-        <v>2.5000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W24,Trigger),"")</f>
-        <v>42998</v>
+        <v>42321</v>
       </c>
       <c r="AB24" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W24,Trigger),"")</f>
-        <v>43089</v>
+        <v>43782</v>
       </c>
       <c r="AC24" s="68">
-        <v>1.0248057190830681E-2</v>
+        <v>1.4794292043725222E-2</v>
       </c>
       <c r="AH24" s="157"/>
     </row>
@@ -4889,15 +4891,15 @@
       </c>
       <c r="M25" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d0#0005</v>
+        <v>obj_003b9#0000</v>
       </c>
       <c r="N25" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M25,Trigger),"--")</f>
-        <v>USDFUT3MZ5_Quote</v>
+        <v>USDFUT3MG6_Quote</v>
       </c>
       <c r="O25" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M25,Trigger),"--")</f>
-        <v>99.527500000000003</v>
+        <v>99.4375</v>
       </c>
       <c r="P25" s="96" t="b">
         <f t="shared" si="10"/>
@@ -4911,26 +4913,26 @@
       </c>
       <c r="S25" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M25,Trigger),"--")</f>
-        <v>42354</v>
+        <v>42417</v>
       </c>
       <c r="T25" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M25,Trigger),"--")</f>
-        <v>42445</v>
+        <v>42507</v>
       </c>
       <c r="V25" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W25" s="3" t="str">
-        <v>obj_003b6</v>
+        <v>obj_003a4</v>
       </c>
       <c r="X25" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W25,Trigger),"")</f>
-        <v>USD_CURVE_3M_3Y_Quote</v>
+        <v>USD_CURVE_3M_5Y_Quote</v>
       </c>
       <c r="Y25" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W25,Trigger),"")</f>
-        <v>1.1379999999999999E-2</v>
+        <v>1.585E-2</v>
       </c>
       <c r="Z25" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W25)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W25)),_xll.qlSwapRateHelperSpread($W25))</f>
@@ -4938,14 +4940,14 @@
       </c>
       <c r="AA25" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W25,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB25" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W25,Trigger),"")</f>
-        <v>43357</v>
+        <v>44148</v>
       </c>
       <c r="AC25" s="68">
-        <v>1.1471622382138403E-2</v>
+        <v>1.6688612982440496E-2</v>
       </c>
       <c r="AH25" s="157"/>
     </row>
@@ -4981,15 +4983,15 @@
       </c>
       <c r="M26" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003cf#0005</v>
+        <v>obj_003c0#0000</v>
       </c>
       <c r="N26" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M26,Trigger),"--")</f>
-        <v>USDFUT3MF6_Quote</v>
+        <v>USDFUT3MH6_Quote</v>
       </c>
       <c r="O26" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M26,Trigger),"--")</f>
-        <v>99.467500000000001</v>
+        <v>99.392499999999998</v>
       </c>
       <c r="P26" s="96" t="b">
         <f t="shared" si="10"/>
@@ -5003,26 +5005,26 @@
       </c>
       <c r="S26" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M26,Trigger),"--")</f>
-        <v>42389</v>
+        <v>42445</v>
       </c>
       <c r="T26" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M26,Trigger),"--")</f>
-        <v>42480</v>
+        <v>42537</v>
       </c>
       <c r="V26" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W26" s="3" t="str">
-        <v>obj_003a4</v>
+        <v>obj_00396</v>
       </c>
       <c r="X26" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W26,Trigger),"")</f>
-        <v>USD_CURVE_3M_4Y_Quote</v>
+        <v>USD_CURVE_3M_6Y_Quote</v>
       </c>
       <c r="Y26" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W26,Trigger),"")</f>
-        <v>1.38E-2</v>
+        <v>1.763E-2</v>
       </c>
       <c r="Z26" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W26)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W26)),_xll.qlSwapRateHelperSpread($W26))</f>
@@ -5030,14 +5032,14 @@
       </c>
       <c r="AA26" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W26,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB26" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W26,Trigger),"")</f>
-        <v>43724</v>
+        <v>44515</v>
       </c>
       <c r="AC26" s="68">
-        <v>1.3944133301100047E-2</v>
+        <v>1.8298914072754281E-2</v>
       </c>
       <c r="AH26" s="157"/>
     </row>
@@ -5050,7 +5052,7 @@
       </c>
       <c r="C27" s="56" t="str">
         <f>_xll.qlIMMNextCode(Evaluationdate-1,B27,Trigger)</f>
-        <v>U5</v>
+        <v>X5</v>
       </c>
       <c r="D27" s="130"/>
       <c r="E27" s="130"/>
@@ -5061,7 +5063,7 @@
       </c>
       <c r="H27" s="117" t="str">
         <f t="shared" ref="H27:H48" si="12">Currency&amp;"FUT"&amp;$G$1&amp;$C27&amp;QuoteSuffix</f>
-        <v>USDFUT3MU5_Quote</v>
+        <v>USDFUT3MX5_Quote</v>
       </c>
       <c r="I27" s="117">
         <f t="shared" ref="I27:I48" si="13">IFERROR(INDEX($AF$12:$AF$17,MATCH(C27,$AE$12:$AE$17,0))/100,0)</f>
@@ -5069,7 +5071,7 @@
       </c>
       <c r="J27" s="57" t="str">
         <f>_xll.qlFuturesRateHelper(,H27,$H$25,C27,G27,I27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003cd#0005</v>
+        <v>obj_003be#0000</v>
       </c>
       <c r="K27" s="48"/>
       <c r="L27" s="9" t="str">
@@ -5078,19 +5080,19 @@
       </c>
       <c r="M27" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003c6#0005</v>
+        <v>obj_003ba#0000</v>
       </c>
       <c r="N27" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M27,Trigger),"--")</f>
-        <v>USDFUT3MH6_Quote</v>
+        <v>USDFUT3MM6_Quote</v>
       </c>
       <c r="O27" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M27,Trigger),"--")</f>
-        <v>99.387500000000003</v>
+        <v>99.237499999999997</v>
       </c>
       <c r="P27" s="96" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="93">
         <v>30</v>
@@ -5100,26 +5102,26 @@
       </c>
       <c r="S27" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M27,Trigger),"--")</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="T27" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M27,Trigger),"--")</f>
-        <v>42537</v>
+        <v>42628</v>
       </c>
       <c r="V27" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W27" s="3" t="str">
-        <v>obj_003a3</v>
+        <v>obj_0039c</v>
       </c>
       <c r="X27" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W27,Trigger),"")</f>
-        <v>USD_CURVE_3M_5Y_Quote</v>
+        <v>USD_CURVE_3M_7Y_Quote</v>
       </c>
       <c r="Y27" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W27,Trigger),"")</f>
-        <v>1.585E-2</v>
+        <v>1.9119999999999998E-2</v>
       </c>
       <c r="Z27" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W27)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W27)),_xll.qlSwapRateHelperSpread($W27))</f>
@@ -5127,14 +5129,14 @@
       </c>
       <c r="AA27" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W27,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB27" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W27,Trigger),"")</f>
-        <v>44088</v>
+        <v>44879</v>
       </c>
       <c r="AC27" s="68">
-        <v>1.6054823193173386E-2</v>
+        <v>1.9660744041296283E-2</v>
       </c>
       <c r="AH27" s="157"/>
     </row>
@@ -5147,7 +5149,7 @@
       </c>
       <c r="C28" s="61" t="str">
         <f>_xll.qlIMMNextCode(C27,B28,Trigger)</f>
-        <v>V5</v>
+        <v>Z5</v>
       </c>
       <c r="D28" s="124"/>
       <c r="E28" s="124"/>
@@ -5158,7 +5160,7 @@
       </c>
       <c r="H28" s="118" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MV5_Quote</v>
+        <v>USDFUT3MZ5_Quote</v>
       </c>
       <c r="I28" s="118">
         <f t="shared" si="13"/>
@@ -5166,7 +5168,7 @@
       </c>
       <c r="J28" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H28,$H$25,C28,G28,I28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003cc#0005</v>
+        <v>obj_003bd#0000</v>
       </c>
       <c r="K28" s="48"/>
       <c r="L28" s="9" t="str">
@@ -5175,15 +5177,15 @@
       </c>
       <c r="M28" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003c7#0005</v>
+        <v>obj_003b5#0000</v>
       </c>
       <c r="N28" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M28,Trigger),"--")</f>
-        <v>USDFUT3MM6_Quote</v>
+        <v>USDFUT3MU6_Quote</v>
       </c>
       <c r="O28" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M28,Trigger),"--")</f>
-        <v>99.227499999999992</v>
+        <v>99.0625</v>
       </c>
       <c r="P28" s="96" t="b">
         <f t="shared" si="10"/>
@@ -5197,26 +5199,26 @@
       </c>
       <c r="S28" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M28,Trigger),"--")</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="T28" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M28,Trigger),"--")</f>
-        <v>42628</v>
+        <v>42725</v>
       </c>
       <c r="V28" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W28" s="3" t="str">
-        <v>obj_003ad</v>
+        <v>obj_00397</v>
       </c>
       <c r="X28" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W28,Trigger),"")</f>
-        <v>USD_CURVE_3M_6Y_Quote</v>
+        <v>USD_CURVE_3M_8Y_Quote</v>
       </c>
       <c r="Y28" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W28,Trigger),"")</f>
-        <v>1.763E-2</v>
+        <v>2.035E-2</v>
       </c>
       <c r="Z28" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W28)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W28)),_xll.qlSwapRateHelperSpread($W28))</f>
@@ -5224,14 +5226,14 @@
       </c>
       <c r="AA28" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W28,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB28" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W28,Trigger),"")</f>
-        <v>44453</v>
+        <v>45243</v>
       </c>
       <c r="AC28" s="68">
-        <v>1.7903395737317983E-2</v>
+        <v>2.0788220800198629E-2</v>
       </c>
       <c r="AH28" s="157"/>
     </row>
@@ -5244,7 +5246,7 @@
       </c>
       <c r="C29" s="61" t="str">
         <f>_xll.qlIMMNextCode(C28,B29,Trigger)</f>
-        <v>X5</v>
+        <v>F6</v>
       </c>
       <c r="D29" s="124"/>
       <c r="E29" s="124"/>
@@ -5255,7 +5257,7 @@
       </c>
       <c r="H29" s="118" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MX5_Quote</v>
+        <v>USDFUT3MF6_Quote</v>
       </c>
       <c r="I29" s="118">
         <f t="shared" si="13"/>
@@ -5263,7 +5265,7 @@
       </c>
       <c r="J29" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H29,$H$25,C29,G29,I29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003cb#0005</v>
+        <v>obj_003bc#0000</v>
       </c>
       <c r="K29" s="48"/>
       <c r="L29" s="9" t="str">
@@ -5272,15 +5274,15 @@
       </c>
       <c r="M29" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003c8#0005</v>
+        <v>obj_003b6#0000</v>
       </c>
       <c r="N29" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M29,Trigger),"--")</f>
-        <v>USDFUT3MU6_Quote</v>
+        <v>USDFUT3MZ6_Quote</v>
       </c>
       <c r="O29" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M29,Trigger),"--")</f>
-        <v>99.052500000000009</v>
+        <v>98.887500000000003</v>
       </c>
       <c r="P29" s="96" t="b">
         <f t="shared" si="10"/>
@@ -5294,26 +5296,26 @@
       </c>
       <c r="S29" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M29,Trigger),"--")</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="T29" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M29,Trigger),"--")</f>
-        <v>42725</v>
+        <v>42815</v>
       </c>
       <c r="V29" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W29" s="3" t="str">
-        <v>obj_003a2</v>
+        <v>obj_00399</v>
       </c>
       <c r="X29" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W29,Trigger),"")</f>
-        <v>USD_CURVE_3M_7Y_Quote</v>
+        <v>USD_CURVE_3M_9Y_Quote</v>
       </c>
       <c r="Y29" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W29,Trigger),"")</f>
-        <v>1.9119999999999998E-2</v>
+        <v>2.1349999999999997E-2</v>
       </c>
       <c r="Z29" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W29)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W29)),_xll.qlSwapRateHelperSpread($W29))</f>
@@ -5321,14 +5323,14 @@
       </c>
       <c r="AA29" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W29,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB29" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W29,Trigger),"")</f>
-        <v>44818</v>
+        <v>45609</v>
       </c>
       <c r="AC29" s="68">
-        <v>1.9464312674873918E-2</v>
+        <v>2.1718850188577197E-2</v>
       </c>
       <c r="AH29" s="157"/>
     </row>
@@ -5341,7 +5343,7 @@
       </c>
       <c r="C30" s="61" t="str">
         <f>_xll.qlIMMNextCode(C29,B30,Trigger)</f>
-        <v>Z5</v>
+        <v>G6</v>
       </c>
       <c r="D30" s="124"/>
       <c r="E30" s="124"/>
@@ -5352,7 +5354,7 @@
       </c>
       <c r="H30" s="118" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MZ5_Quote</v>
+        <v>USDFUT3MG6_Quote</v>
       </c>
       <c r="I30" s="118">
         <f t="shared" si="13"/>
@@ -5360,7 +5362,7 @@
       </c>
       <c r="J30" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H30,$H$25,C30,G30,I30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d0#0005</v>
+        <v>obj_003b9#0000</v>
       </c>
       <c r="K30" s="48"/>
       <c r="L30" s="9" t="str">
@@ -5369,15 +5371,15 @@
       </c>
       <c r="M30" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003c9#0005</v>
+        <v>obj_003b7#0000</v>
       </c>
       <c r="N30" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M30,Trigger),"--")</f>
-        <v>USDFUT3MZ6_Quote</v>
+        <v>USDFUT3MH7_Quote</v>
       </c>
       <c r="O30" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M30,Trigger),"--")</f>
-        <v>98.867500000000007</v>
+        <v>98.727499999999992</v>
       </c>
       <c r="P30" s="96" t="b">
         <f t="shared" si="10"/>
@@ -5391,26 +5393,26 @@
       </c>
       <c r="S30" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M30,Trigger),"--")</f>
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="T30" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M30,Trigger),"--")</f>
-        <v>42815</v>
+        <v>42901</v>
       </c>
       <c r="V30" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W30" s="3" t="str">
-        <v>obj_003a1</v>
+        <v>obj_00391</v>
       </c>
       <c r="X30" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W30,Trigger),"")</f>
-        <v>USD_CURVE_3M_8Y_Quote</v>
+        <v>USD_CURVE_3M_10Y_Quote</v>
       </c>
       <c r="Y30" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W30,Trigger),"")</f>
-        <v>2.035E-2</v>
+        <v>2.2179999999999998E-2</v>
       </c>
       <c r="Z30" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W30)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W30)),_xll.qlSwapRateHelperSpread($W30))</f>
@@ -5418,14 +5420,14 @@
       </c>
       <c r="AA30" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W30,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB30" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W30,Trigger),"")</f>
-        <v>45183</v>
+        <v>45974</v>
       </c>
       <c r="AC30" s="68">
-        <v>2.0763450652685079E-2</v>
+        <v>2.2520641666888754E-2</v>
       </c>
       <c r="AH30" s="157"/>
     </row>
@@ -5438,7 +5440,7 @@
       </c>
       <c r="C31" s="8" t="str">
         <f>_xll.qlIMMNextCode(C30,B31,Trigger)</f>
-        <v>F6</v>
+        <v>H6</v>
       </c>
       <c r="D31" s="125"/>
       <c r="E31" s="125"/>
@@ -5449,7 +5451,7 @@
       </c>
       <c r="H31" s="119" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MF6_Quote</v>
+        <v>USDFUT3MH6_Quote</v>
       </c>
       <c r="I31" s="119">
         <f t="shared" si="13"/>
@@ -5457,7 +5459,7 @@
       </c>
       <c r="J31" s="2" t="str">
         <f>_xll.qlFuturesRateHelper(,H31,$H$25,C31,G31,I31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003cf#0005</v>
+        <v>obj_003c0#0000</v>
       </c>
       <c r="K31" s="48"/>
       <c r="L31" s="9" t="str">
@@ -5466,15 +5468,15 @@
       </c>
       <c r="M31" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003ca#0005</v>
+        <v>obj_003b8#0000</v>
       </c>
       <c r="N31" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M31,Trigger),"--")</f>
-        <v>USDFUT3MH7_Quote</v>
+        <v>USDFUT3MM7_Quote</v>
       </c>
       <c r="O31" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M31,Trigger),"--")</f>
-        <v>98.717500000000001</v>
+        <v>98.5625</v>
       </c>
       <c r="P31" s="96" t="b">
         <f t="shared" si="10"/>
@@ -5488,26 +5490,26 @@
       </c>
       <c r="S31" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M31,Trigger),"--")</f>
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="T31" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M31,Trigger),"--")</f>
-        <v>42901</v>
+        <v>42999</v>
       </c>
       <c r="V31" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W31" s="3" t="str">
-        <v>obj_003ae</v>
+        <v>obj_003af</v>
       </c>
       <c r="X31" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W31,Trigger),"")</f>
-        <v>USD_CURVE_3M_9Y_Quote</v>
+        <v>USD_CURVE_3M_11Y_Quote</v>
       </c>
       <c r="Y31" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W31,Trigger),"")</f>
-        <v>2.1349999999999997E-2</v>
+        <v>2.2889748619999997E-2</v>
       </c>
       <c r="Z31" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W31)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W31)),_xll.qlSwapRateHelperSpread($W31))</f>
@@ -5515,14 +5517,14 @@
       </c>
       <c r="AA31" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W31,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB31" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W31,Trigger),"")</f>
-        <v>45551</v>
+        <v>46339</v>
       </c>
       <c r="AC31" s="68">
-        <v>2.1826430198868277E-2</v>
+        <v>2.3241950981427686E-2</v>
       </c>
       <c r="AH31" s="157"/>
     </row>
@@ -5535,7 +5537,7 @@
       </c>
       <c r="C32" s="61" t="str">
         <f>_xll.qlIMMNextCode(C31,B32,Trigger)</f>
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="D32" s="124"/>
       <c r="E32" s="124"/>
@@ -5546,15 +5548,15 @@
       </c>
       <c r="H32" s="118" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MH6_Quote</v>
+        <v>USDFUT3MM6_Quote</v>
       </c>
       <c r="I32" s="118">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="J32" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H32,$H$25,C32,G32,I32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c6#0005</v>
+        <v>obj_003ba#0000</v>
       </c>
       <c r="K32" s="48"/>
       <c r="L32" s="9" t="str">
@@ -5563,15 +5565,15 @@
       </c>
       <c r="M32" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d1#0005</v>
+        <v>obj_003bb#0000</v>
       </c>
       <c r="N32" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M32,Trigger),"--")</f>
-        <v>USDFUT3MM7_Quote</v>
+        <v>USDFUT3MU7_Quote</v>
       </c>
       <c r="O32" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M32,Trigger),"--")</f>
-        <v>98.567499999999995</v>
+        <v>98.407499999999999</v>
       </c>
       <c r="P32" s="96" t="b">
         <f t="shared" si="10"/>
@@ -5585,26 +5587,26 @@
       </c>
       <c r="S32" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M32,Trigger),"--")</f>
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="T32" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M32,Trigger),"--")</f>
-        <v>42999</v>
+        <v>43089</v>
       </c>
       <c r="V32" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W32" s="3" t="str">
-        <v>obj_003a6</v>
+        <v>obj_0039e</v>
       </c>
       <c r="X32" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W32,Trigger),"")</f>
-        <v>USD_CURVE_3M_10Y_Quote</v>
+        <v>USD_CURVE_3M_12Y_Quote</v>
       </c>
       <c r="Y32" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W32,Trigger),"")</f>
-        <v>2.2179999999999998E-2</v>
+        <v>2.349E-2</v>
       </c>
       <c r="Z32" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W32)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W32)),_xll.qlSwapRateHelperSpread($W32))</f>
@@ -5612,14 +5614,14 @@
       </c>
       <c r="AA32" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W32,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB32" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W32,Trigger),"")</f>
-        <v>45915</v>
+        <v>46706</v>
       </c>
       <c r="AC32" s="68">
-        <v>2.2715524648344941E-2</v>
+        <v>2.3870569248659445E-2</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5631,7 +5633,7 @@
       </c>
       <c r="C33" s="61" t="str">
         <f>_xll.qlIMMNextCode(C32,B33,Trigger)</f>
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="D33" s="124"/>
       <c r="E33" s="124"/>
@@ -5642,15 +5644,15 @@
       </c>
       <c r="H33" s="118" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MM6_Quote</v>
+        <v>USDFUT3MU6_Quote</v>
       </c>
       <c r="I33" s="118">
         <f t="shared" si="13"/>
-        <v>4.8999999999999998E-5</v>
+        <v>7.9000000000000009E-5</v>
       </c>
       <c r="J33" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H33,$H$25,C33,G33,I33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c7#0005</v>
+        <v>obj_003b5#0000</v>
       </c>
       <c r="K33" s="48"/>
       <c r="L33" s="9" t="str">
@@ -5659,15 +5661,15 @@
       </c>
       <c r="M33" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003ce#0005</v>
+        <v>obj_003bf#0000</v>
       </c>
       <c r="N33" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M33,Trigger),"--")</f>
-        <v>USDFUT3MU7_Quote</v>
+        <v>USDFUT3MZ7_Quote</v>
       </c>
       <c r="O33" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M33,Trigger),"--")</f>
-        <v>98.427500000000009</v>
+        <v>98.259999999999991</v>
       </c>
       <c r="P33" s="96" t="b">
         <f t="shared" si="10"/>
@@ -5681,26 +5683,26 @@
       </c>
       <c r="S33" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M33,Trigger),"--")</f>
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="T33" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M33,Trigger),"--")</f>
-        <v>43089</v>
+        <v>43179</v>
       </c>
       <c r="V33" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W33" s="3" t="str">
-        <v>obj_003ba</v>
+        <v>obj_00392</v>
       </c>
       <c r="X33" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W33,Trigger),"")</f>
-        <v>USD_CURVE_3M_11Y_Quote</v>
+        <v>USD_CURVE_3M_13Y_Quote</v>
       </c>
       <c r="Y33" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W33,Trigger),"")</f>
-        <v>2.2889750189999999E-2</v>
+        <v>2.3988634840000002E-2</v>
       </c>
       <c r="Z33" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W33)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W33)),_xll.qlSwapRateHelperSpread($W33))</f>
@@ -5708,14 +5710,14 @@
       </c>
       <c r="AA33" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W33,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB33" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W33,Trigger),"")</f>
-        <v>46279</v>
+        <v>47070</v>
       </c>
       <c r="AC33" s="68">
-        <v>2.3481470177550621E-2</v>
+        <v>2.4399764315326557E-2</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5727,7 +5729,7 @@
       </c>
       <c r="C34" s="61" t="str">
         <f>_xll.qlIMMNextCode(C33,B34,Trigger)</f>
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="D34" s="124"/>
       <c r="E34" s="124"/>
@@ -5738,15 +5740,15 @@
       </c>
       <c r="H34" s="118" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MU6_Quote</v>
+        <v>USDFUT3MZ6_Quote</v>
       </c>
       <c r="I34" s="118">
         <f t="shared" si="13"/>
-        <v>7.9000000000000009E-5</v>
+        <v>1.13E-4</v>
       </c>
       <c r="J34" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H34,$H$25,C34,G34,I34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c8#0005</v>
+        <v>obj_003b6#0000</v>
       </c>
       <c r="K34" s="48"/>
       <c r="L34" s="9" t="str">
@@ -5755,15 +5757,15 @@
       </c>
       <c r="M34" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d2#0005</v>
+        <v>obj_003c1#0000</v>
       </c>
       <c r="N34" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M34,Trigger),"--")</f>
-        <v>USDFUT3MZ7_Quote</v>
+        <v>USDFUT3MH8_Quote</v>
       </c>
       <c r="O34" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M34,Trigger),"--")</f>
-        <v>98.292500000000004</v>
+        <v>98.142499999999998</v>
       </c>
       <c r="P34" s="96" t="b">
         <f t="shared" si="10"/>
@@ -5777,26 +5779,26 @@
       </c>
       <c r="S34" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M34,Trigger),"--")</f>
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="T34" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M34,Trigger),"--")</f>
-        <v>43179</v>
+        <v>43272</v>
       </c>
       <c r="V34" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W34" s="3" t="str">
-        <v>obj_003af</v>
+        <v>obj_003ab</v>
       </c>
       <c r="X34" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W34,Trigger),"")</f>
-        <v>USD_CURVE_3M_12Y_Quote</v>
+        <v>USD_CURVE_3M_14Y_Quote</v>
       </c>
       <c r="Y34" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W34,Trigger),"")</f>
-        <v>2.349E-2</v>
+        <v>2.4404405640000001E-2</v>
       </c>
       <c r="Z34" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W34)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W34)),_xll.qlSwapRateHelperSpread($W34))</f>
@@ -5804,14 +5806,14 @@
       </c>
       <c r="AA34" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W34,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB34" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W34,Trigger),"")</f>
-        <v>46644</v>
+        <v>47435</v>
       </c>
       <c r="AC34" s="68">
-        <v>2.4132814141436584E-2</v>
+        <v>2.4843214925922358E-2</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5823,7 +5825,7 @@
       </c>
       <c r="C35" s="61" t="str">
         <f>_xll.qlIMMNextCode(C34,B35,Trigger)</f>
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="D35" s="124"/>
       <c r="E35" s="124"/>
@@ -5834,15 +5836,15 @@
       </c>
       <c r="H35" s="118" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MZ6_Quote</v>
+        <v>USDFUT3MH7_Quote</v>
       </c>
       <c r="I35" s="118">
         <f t="shared" si="13"/>
-        <v>1.13E-4</v>
+        <v>1.5100000000000001E-4</v>
       </c>
       <c r="J35" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H35,$H$25,C35,G35,I35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c9#0005</v>
+        <v>obj_003b7#0000</v>
       </c>
       <c r="K35" s="48"/>
       <c r="L35" s="9" t="str">
@@ -5851,15 +5853,15 @@
       </c>
       <c r="M35" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d3#0005</v>
+        <v>obj_003c2#0000</v>
       </c>
       <c r="N35" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M35,Trigger),"--")</f>
-        <v>USDFUT3MH8_Quote</v>
+        <v>USDFUT3MM8_Quote</v>
       </c>
       <c r="O35" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M35,Trigger),"--")</f>
-        <v>98.177500000000009</v>
+        <v>98.03</v>
       </c>
       <c r="P35" s="96" t="b">
         <f t="shared" si="10"/>
@@ -5873,11 +5875,11 @@
       </c>
       <c r="S35" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M35,Trigger),"--")</f>
-        <v>43180</v>
+        <v>43271</v>
       </c>
       <c r="T35" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M35,Trigger),"--")</f>
-        <v>43272</v>
+        <v>43363</v>
       </c>
       <c r="V35" s="3" t="str">
         <f t="shared" ref="V35:V71" si="14">IFERROR(INDEX($L$3:$L$80,MATCH(X35,$N$3:$N$80,0),1),"")</f>
@@ -5888,11 +5890,11 @@
       </c>
       <c r="X35" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W35,Trigger),"")</f>
-        <v>USD_CURVE_3M_13Y_Quote</v>
+        <v>USD_CURVE_3M_15Y_Quote</v>
       </c>
       <c r="Y35" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W35,Trigger),"")</f>
-        <v>2.398862823E-2</v>
+        <v>2.4760000000000001E-2</v>
       </c>
       <c r="Z35" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W35)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W35)),_xll.qlSwapRateHelperSpread($W35))</f>
@@ -5900,14 +5902,14 @@
       </c>
       <c r="AA35" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W35,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB35" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W35,Trigger),"")</f>
-        <v>47010</v>
+        <v>47800</v>
       </c>
       <c r="AC35" s="68">
-        <v>2.4675333328254279E-2</v>
+        <v>2.5231049457749514E-2</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5919,7 +5921,7 @@
       </c>
       <c r="C36" s="61" t="str">
         <f>_xll.qlIMMNextCode(C35,B36,Trigger)</f>
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="D36" s="124"/>
       <c r="E36" s="124"/>
@@ -5930,15 +5932,15 @@
       </c>
       <c r="H36" s="118" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MH7_Quote</v>
+        <v>USDFUT3MM7_Quote</v>
       </c>
       <c r="I36" s="118">
         <f t="shared" si="13"/>
-        <v>1.5100000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J36" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H36,$H$25,C36,G36,I36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ca#0005</v>
+        <v>obj_003b8#0000</v>
       </c>
       <c r="K36" s="48"/>
       <c r="L36" s="9" t="str">
@@ -5947,15 +5949,15 @@
       </c>
       <c r="M36" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d4#0005</v>
+        <v>obj_003c3#0000</v>
       </c>
       <c r="N36" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M36,Trigger),"--")</f>
-        <v>USDFUT3MM8_Quote</v>
+        <v>USDFUT3MU8_Quote</v>
       </c>
       <c r="O36" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M36,Trigger),"--")</f>
-        <v>98.0625</v>
+        <v>97.932500000000005</v>
       </c>
       <c r="P36" s="96" t="b">
         <f t="shared" si="10"/>
@@ -5969,26 +5971,26 @@
       </c>
       <c r="S36" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M36,Trigger),"--")</f>
-        <v>43271</v>
+        <v>43362</v>
       </c>
       <c r="T36" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M36,Trigger),"--")</f>
-        <v>43363</v>
+        <v>43453</v>
       </c>
       <c r="V36" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W36" s="3" t="str">
-        <v>obj_003aa</v>
+        <v>obj_003a8</v>
       </c>
       <c r="X36" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W36,Trigger),"")</f>
-        <v>USD_CURVE_3M_14Y_Quote</v>
+        <v>USD_CURVE_3M_16Y_Quote</v>
       </c>
       <c r="Y36" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W36,Trigger),"")</f>
-        <v>2.4404396179999999E-2</v>
+        <v>2.5064102479999999E-2</v>
       </c>
       <c r="Z36" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W36)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W36)),_xll.qlSwapRateHelperSpread($W36))</f>
@@ -5996,14 +5998,14 @@
       </c>
       <c r="AA36" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W36,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB36" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W36,Trigger),"")</f>
-        <v>47375</v>
+        <v>48165</v>
       </c>
       <c r="AC36" s="68">
-        <v>2.5128597391486329E-2</v>
+        <v>2.557719857850136E-2</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6015,7 +6017,7 @@
       </c>
       <c r="C37" s="61" t="str">
         <f>_xll.qlIMMNextCode(C36,B37,Trigger)</f>
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="D37" s="124"/>
       <c r="E37" s="124"/>
@@ -6026,15 +6028,15 @@
       </c>
       <c r="H37" s="118" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MM7_Quote</v>
+        <v>USDFUT3MU7_Quote</v>
       </c>
       <c r="I37" s="118">
         <f t="shared" si="13"/>
-        <v>2.0000000000000001E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="J37" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H37,$H$25,C37,G37,I37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d1#0005</v>
+        <v>obj_003bb#0000</v>
       </c>
       <c r="K37" s="48"/>
       <c r="L37" s="9" t="str">
@@ -6043,15 +6045,15 @@
       </c>
       <c r="M37" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d5#0005</v>
+        <v>obj_003c4#0000</v>
       </c>
       <c r="N37" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M37,Trigger),"--")</f>
-        <v>USDFUT3MU8_Quote</v>
+        <v>USDFUT3MZ8_Quote</v>
       </c>
       <c r="O37" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M37,Trigger),"--")</f>
-        <v>97.957499999999996</v>
+        <v>97.837500000000006</v>
       </c>
       <c r="P37" s="96" t="b">
         <f t="shared" si="10"/>
@@ -6065,26 +6067,26 @@
       </c>
       <c r="S37" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M37,Trigger),"--")</f>
-        <v>43362</v>
+        <v>43453</v>
       </c>
       <c r="T37" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M37,Trigger),"--")</f>
-        <v>43453</v>
+        <v>43543</v>
       </c>
       <c r="V37" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W37" s="3" t="str">
-        <v>obj_003ab</v>
+        <v>obj_003a6</v>
       </c>
       <c r="X37" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W37,Trigger),"")</f>
-        <v>USD_CURVE_3M_15Y_Quote</v>
+        <v>USD_CURVE_3M_17Y_Quote</v>
       </c>
       <c r="Y37" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W37,Trigger),"")</f>
-        <v>2.4760000000000001E-2</v>
+        <v>2.532810101E-2</v>
       </c>
       <c r="Z37" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W37)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W37)),_xll.qlSwapRateHelperSpread($W37))</f>
@@ -6092,14 +6094,14 @@
       </c>
       <c r="AA37" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W37,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB37" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W37,Trigger),"")</f>
-        <v>47742</v>
+        <v>48533</v>
       </c>
       <c r="AC37" s="68">
-        <v>2.5516905238108706E-2</v>
+        <v>2.5885448105050984E-2</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6111,7 +6113,7 @@
       </c>
       <c r="C38" s="61" t="str">
         <f>_xll.qlIMMNextCode(C37,B38,Trigger)</f>
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="D38" s="124"/>
       <c r="E38" s="124"/>
@@ -6122,15 +6124,15 @@
       </c>
       <c r="H38" s="118" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MU7_Quote</v>
+        <v>USDFUT3MZ7_Quote</v>
       </c>
       <c r="I38" s="118">
         <f t="shared" si="13"/>
-        <v>2.5000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="J38" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H38,$H$25,C38,G38,I38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ce#0005</v>
+        <v>obj_003bf#0000</v>
       </c>
       <c r="K38" s="48"/>
       <c r="L38" s="9" t="str">
@@ -6139,15 +6141,15 @@
       </c>
       <c r="M38" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d6#0005</v>
+        <v>obj_003c5#0000</v>
       </c>
       <c r="N38" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M38,Trigger),"--")</f>
-        <v>USDFUT3MZ8_Quote</v>
+        <v>USDFUT3MH9_Quote</v>
       </c>
       <c r="O38" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M38,Trigger),"--")</f>
-        <v>97.852499999999992</v>
+        <v>97.759999999999991</v>
       </c>
       <c r="P38" s="96" t="b">
         <f t="shared" si="10"/>
@@ -6161,26 +6163,26 @@
       </c>
       <c r="S38" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M38,Trigger),"--")</f>
-        <v>43453</v>
+        <v>43544</v>
       </c>
       <c r="T38" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M38,Trigger),"--")</f>
-        <v>43543</v>
+        <v>43636</v>
       </c>
       <c r="V38" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W38" s="3" t="str">
-        <v>obj_003b2</v>
+        <v>obj_00394</v>
       </c>
       <c r="X38" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W38,Trigger),"")</f>
-        <v>USD_CURVE_3M_16Y_Quote</v>
+        <v>USD_CURVE_3M_18Y_Quote</v>
       </c>
       <c r="Y38" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W38,Trigger),"")</f>
-        <v>2.50641261E-2</v>
+        <v>2.555616145E-2</v>
       </c>
       <c r="Z38" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W38)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W38)),_xll.qlSwapRateHelperSpread($W38))</f>
@@ -6188,14 +6190,14 @@
       </c>
       <c r="AA38" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W38,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB38" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W38,Trigger),"")</f>
-        <v>48106</v>
+        <v>48897</v>
       </c>
       <c r="AC38" s="68">
-        <v>2.5849900837420926E-2</v>
+        <v>2.6157285107499782E-2</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6207,7 +6209,7 @@
       </c>
       <c r="C39" s="61" t="str">
         <f>_xll.qlIMMNextCode(C38,B39,Trigger)</f>
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="D39" s="124"/>
       <c r="E39" s="124"/>
@@ -6218,7 +6220,7 @@
       </c>
       <c r="H39" s="118" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MZ7_Quote</v>
+        <v>USDFUT3MH8_Quote</v>
       </c>
       <c r="I39" s="118">
         <f t="shared" si="13"/>
@@ -6226,7 +6228,7 @@
       </c>
       <c r="J39" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H39,$H$25,C39,G39,I39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d2#0005</v>
+        <v>obj_003c1#0000</v>
       </c>
       <c r="K39" s="48"/>
       <c r="L39" s="9" t="str">
@@ -6235,15 +6237,15 @@
       </c>
       <c r="M39" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d7#0005</v>
+        <v>obj_003c6#0000</v>
       </c>
       <c r="N39" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M39,Trigger),"--")</f>
-        <v>USDFUT3MH9_Quote</v>
+        <v>USDFUT3MM9_Quote</v>
       </c>
       <c r="O39" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M39,Trigger),"--")</f>
-        <v>97.762500000000003</v>
+        <v>97.682500000000005</v>
       </c>
       <c r="P39" s="96" t="b">
         <f t="shared" si="10"/>
@@ -6257,26 +6259,26 @@
       </c>
       <c r="S39" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M39,Trigger),"--")</f>
-        <v>43544</v>
+        <v>43635</v>
       </c>
       <c r="T39" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M39,Trigger),"--")</f>
-        <v>43636</v>
+        <v>43727</v>
       </c>
       <c r="V39" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W39" s="3" t="str">
-        <v>obj_003be</v>
+        <v>obj_0039d</v>
       </c>
       <c r="X39" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W39,Trigger),"")</f>
-        <v>USD_CURVE_3M_17Y_Quote</v>
+        <v>USD_CURVE_3M_19Y_Quote</v>
       </c>
       <c r="Y39" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W39,Trigger),"")</f>
-        <v>2.5328148800000002E-2</v>
+        <v>2.5752360709999998E-2</v>
       </c>
       <c r="Z39" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W39)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W39)),_xll.qlSwapRateHelperSpread($W39))</f>
@@ -6284,14 +6286,14 @@
       </c>
       <c r="AA39" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W39,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB39" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W39,Trigger),"")</f>
-        <v>48471</v>
+        <v>49261</v>
       </c>
       <c r="AC39" s="68">
-        <v>2.6139254220300636E-2</v>
+        <v>2.6389048229371308E-2</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6303,7 +6305,7 @@
       </c>
       <c r="C40" s="61" t="str">
         <f>_xll.qlIMMNextCode(C39,B40,Trigger)</f>
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="D40" s="124"/>
       <c r="E40" s="124"/>
@@ -6314,7 +6316,7 @@
       </c>
       <c r="H40" s="118" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MH8_Quote</v>
+        <v>USDFUT3MM8_Quote</v>
       </c>
       <c r="I40" s="118">
         <f t="shared" si="13"/>
@@ -6322,7 +6324,7 @@
       </c>
       <c r="J40" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H40,$H$25,C40,G40,I40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d3#0005</v>
+        <v>obj_003c2#0000</v>
       </c>
       <c r="K40" s="48"/>
       <c r="L40" s="9" t="str">
@@ -6331,15 +6333,15 @@
       </c>
       <c r="M40" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d8#0005</v>
+        <v>obj_003c7#0000</v>
       </c>
       <c r="N40" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M40,Trigger),"--")</f>
-        <v>USDFUT3MM9_Quote</v>
+        <v>USDFUT3MU9_Quote</v>
       </c>
       <c r="O40" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M40,Trigger),"--")</f>
-        <v>97.672499999999999</v>
+        <v>97.61</v>
       </c>
       <c r="P40" s="96" t="b">
         <f t="shared" si="10"/>
@@ -6353,26 +6355,26 @@
       </c>
       <c r="S40" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M40,Trigger),"--")</f>
-        <v>43635</v>
+        <v>43726</v>
       </c>
       <c r="T40" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M40,Trigger),"--")</f>
-        <v>43727</v>
+        <v>43817</v>
       </c>
       <c r="V40" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W40" s="3" t="str">
-        <v>obj_003bb</v>
+        <v>obj_00393</v>
       </c>
       <c r="X40" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W40,Trigger),"")</f>
-        <v>USD_CURVE_3M_18Y_Quote</v>
+        <v>USD_CURVE_3M_20Y_Quote</v>
       </c>
       <c r="Y40" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W40,Trigger),"")</f>
-        <v>2.5556219979999999E-2</v>
+        <v>2.5920000000000002E-2</v>
       </c>
       <c r="Z40" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W40)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W40)),_xll.qlSwapRateHelperSpread($W40))</f>
@@ -6380,14 +6382,14 @@
       </c>
       <c r="AA40" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W40,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB40" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W40,Trigger),"")</f>
-        <v>48836</v>
+        <v>49626</v>
       </c>
       <c r="AC40" s="68">
-        <v>2.6388991784716868E-2</v>
+        <v>2.6583856600665728E-2</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6399,7 +6401,7 @@
       </c>
       <c r="C41" s="61" t="str">
         <f>_xll.qlIMMNextCode(C40,B41,Trigger)</f>
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="D41" s="124"/>
       <c r="E41" s="124"/>
@@ -6410,7 +6412,7 @@
       </c>
       <c r="H41" s="118" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MM8_Quote</v>
+        <v>USDFUT3MU8_Quote</v>
       </c>
       <c r="I41" s="118">
         <f t="shared" si="13"/>
@@ -6418,7 +6420,7 @@
       </c>
       <c r="J41" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H41,$H$25,C41,G41,I41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d4#0005</v>
+        <v>obj_003c3#0000</v>
       </c>
       <c r="L41" s="9" t="str">
         <f t="shared" si="8"/>
@@ -6426,15 +6428,15 @@
       </c>
       <c r="M41" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d9#0005</v>
+        <v>obj_003c8#0000</v>
       </c>
       <c r="N41" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M41,Trigger),"--")</f>
-        <v>USDFUT3MU9_Quote</v>
+        <v>USDFUT3MZ9_Quote</v>
       </c>
       <c r="O41" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M41,Trigger),"--")</f>
-        <v>97.582499999999996</v>
+        <v>97.537499999999994</v>
       </c>
       <c r="P41" s="140" t="b">
         <f t="shared" si="10"/>
@@ -6448,26 +6450,26 @@
       </c>
       <c r="S41" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M41,Trigger),"--")</f>
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="T41" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M41,Trigger),"--")</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="V41" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W41" s="3" t="str">
-        <v>obj_003a8</v>
+        <v>obj_003a2</v>
       </c>
       <c r="X41" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W41,Trigger),"")</f>
-        <v>USD_CURVE_3M_19Y_Quote</v>
+        <v>USD_CURVE_3M_21Y_Quote</v>
       </c>
       <c r="Y41" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W41,Trigger),"")</f>
-        <v>2.5752405989999998E-2</v>
+        <v>2.6063160009999996E-2</v>
       </c>
       <c r="Z41" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W41)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W41)),_xll.qlSwapRateHelperSpread($W41))</f>
@@ -6475,14 +6477,14 @@
       </c>
       <c r="AA41" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W41,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB41" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W41,Trigger),"")</f>
-        <v>49201</v>
+        <v>49992</v>
       </c>
       <c r="AC41" s="68">
-        <v>2.6603039419534225E-2</v>
+        <v>2.6744503704118065E-2</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6494,7 +6496,7 @@
       </c>
       <c r="C42" s="61" t="str">
         <f>_xll.qlIMMNextCode(C41,B42,Trigger)</f>
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="D42" s="124"/>
       <c r="E42" s="124"/>
@@ -6505,7 +6507,7 @@
       </c>
       <c r="H42" s="118" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MU8_Quote</v>
+        <v>USDFUT3MZ8_Quote</v>
       </c>
       <c r="I42" s="118">
         <f t="shared" si="13"/>
@@ -6513,7 +6515,7 @@
       </c>
       <c r="J42" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H42,$H$25,C42,G42,I42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d5#0005</v>
+        <v>obj_003c4#0000</v>
       </c>
       <c r="L42" s="9" t="str">
         <f t="shared" si="8"/>
@@ -6521,15 +6523,15 @@
       </c>
       <c r="M42" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003da#0005</v>
+        <v>obj_003c9#0000</v>
       </c>
       <c r="N42" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M42,Trigger),"--")</f>
-        <v>USDFUT3MZ9_Quote</v>
+        <v>USDFUT3MH0_Quote</v>
       </c>
       <c r="O42" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M42,Trigger),"--")</f>
-        <v>97.495000000000005</v>
+        <v>97.472499999999997</v>
       </c>
       <c r="P42" s="140" t="b">
         <f t="shared" si="10"/>
@@ -6543,26 +6545,26 @@
       </c>
       <c r="S42" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M42,Trigger),"--")</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="T42" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M42,Trigger),"--")</f>
-        <v>43908</v>
+        <v>44000</v>
       </c>
       <c r="V42" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W42" s="3" t="str">
-        <v>obj_003b4</v>
+        <v>obj_0039a</v>
       </c>
       <c r="X42" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W42,Trigger),"")</f>
-        <v>USD_CURVE_3M_20Y_Quote</v>
+        <v>USD_CURVE_3M_22Y_Quote</v>
       </c>
       <c r="Y42" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W42,Trigger),"")</f>
-        <v>2.5920000000000002E-2</v>
+        <v>2.6184711790000002E-2</v>
       </c>
       <c r="Z42" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W42)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W42)),_xll.qlSwapRateHelperSpread($W42))</f>
@@ -6570,14 +6572,14 @@
       </c>
       <c r="AA42" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W42,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB42" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W42,Trigger),"")</f>
-        <v>49566</v>
+        <v>50357</v>
       </c>
       <c r="AC42" s="68">
-        <v>2.6784518981045103E-2</v>
+        <v>2.6876219689328761E-2</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6589,7 +6591,7 @@
       </c>
       <c r="C43" s="61" t="str">
         <f>_xll.qlIMMNextCode(C42,B43,Trigger)</f>
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="D43" s="124"/>
       <c r="E43" s="124"/>
@@ -6600,7 +6602,7 @@
       </c>
       <c r="H43" s="118" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MZ8_Quote</v>
+        <v>USDFUT3MH9_Quote</v>
       </c>
       <c r="I43" s="118">
         <f t="shared" si="13"/>
@@ -6608,7 +6610,7 @@
       </c>
       <c r="J43" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H43,$H$25,C43,G43,I43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d6#0005</v>
+        <v>obj_003c5#0000</v>
       </c>
       <c r="L43" s="10" t="str">
         <f t="shared" si="8"/>
@@ -6616,15 +6618,15 @@
       </c>
       <c r="M43" s="94" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003db#0005</v>
+        <v>obj_003ca#0000</v>
       </c>
       <c r="N43" s="152" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M43,Trigger),"--")</f>
-        <v>USDFUT3MH0_Quote</v>
+        <v>USDFUT3MM0_Quote</v>
       </c>
       <c r="O43" s="150">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M43,Trigger),"--")</f>
-        <v>97.412499999999994</v>
+        <v>97.407499999999999</v>
       </c>
       <c r="P43" s="143" t="b">
         <f t="shared" si="10"/>
@@ -6638,26 +6640,26 @@
       </c>
       <c r="S43" s="151">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M43,Trigger),"--")</f>
-        <v>43908</v>
+        <v>43999</v>
       </c>
       <c r="T43" s="151">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M43,Trigger),"--")</f>
-        <v>44000</v>
+        <v>44091</v>
       </c>
       <c r="V43" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W43" s="3" t="str">
-        <v>obj_003b8</v>
+        <v>obj_00398</v>
       </c>
       <c r="X43" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W43,Trigger),"")</f>
-        <v>USD_CURVE_3M_21Y_Quote</v>
+        <v>USD_CURVE_3M_23Y_Quote</v>
       </c>
       <c r="Y43" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W43,Trigger),"")</f>
-        <v>2.606308475E-2</v>
+        <v>2.6290824040000001E-2</v>
       </c>
       <c r="Z43" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W43)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W43)),_xll.qlSwapRateHelperSpread($W43))</f>
@@ -6665,14 +6667,14 @@
       </c>
       <c r="AA43" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W43,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB43" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W43,Trigger),"")</f>
-        <v>49933</v>
+        <v>50724</v>
       </c>
       <c r="AC43" s="68">
-        <v>2.6937497736133229E-2</v>
+        <v>2.6986177611070972E-2</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6684,7 +6686,7 @@
       </c>
       <c r="C44" s="61" t="str">
         <f>_xll.qlIMMNextCode(C43,B44,Trigger)</f>
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="D44" s="124"/>
       <c r="E44" s="124"/>
@@ -6695,7 +6697,7 @@
       </c>
       <c r="H44" s="118" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MH9_Quote</v>
+        <v>USDFUT3MM9_Quote</v>
       </c>
       <c r="I44" s="118">
         <f t="shared" si="13"/>
@@ -6703,7 +6705,7 @@
       </c>
       <c r="J44" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H44,$H$25,C44,G44,I44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d7#0005</v>
+        <v>obj_003c6#0000</v>
       </c>
       <c r="L44" s="66" t="str">
         <f>A51</f>
@@ -6743,15 +6745,15 @@
         <v>Sw</v>
       </c>
       <c r="W44" s="3" t="str">
-        <v>obj_003b5</v>
+        <v>obj_003a3</v>
       </c>
       <c r="X44" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W44,Trigger),"")</f>
-        <v>USD_CURVE_3M_22Y_Quote</v>
+        <v>USD_CURVE_3M_24Y_Quote</v>
       </c>
       <c r="Y44" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W44,Trigger),"")</f>
-        <v>2.6184567200000002E-2</v>
+        <v>2.6384814519999997E-2</v>
       </c>
       <c r="Z44" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W44)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W44)),_xll.qlSwapRateHelperSpread($W44))</f>
@@ -6759,14 +6761,14 @@
       </c>
       <c r="AA44" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W44,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB44" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W44,Trigger),"")</f>
-        <v>50297</v>
+        <v>51088</v>
       </c>
       <c r="AC44" s="68">
-        <v>2.7065775645830528E-2</v>
+        <v>2.708167656638294E-2</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6778,7 +6780,7 @@
       </c>
       <c r="C45" s="61" t="str">
         <f>_xll.qlIMMNextCode(C44,B45,Trigger)</f>
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="D45" s="124"/>
       <c r="E45" s="124"/>
@@ -6789,7 +6791,7 @@
       </c>
       <c r="H45" s="118" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MM9_Quote</v>
+        <v>USDFUT3MU9_Quote</v>
       </c>
       <c r="I45" s="118">
         <f t="shared" si="13"/>
@@ -6797,7 +6799,7 @@
       </c>
       <c r="J45" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H45,$H$25,C45,G45,I45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d8#0005</v>
+        <v>obj_003c7#0000</v>
       </c>
       <c r="L45" s="9" t="str">
         <f t="shared" ref="L45:L63" si="15">A52</f>
@@ -6837,15 +6839,15 @@
         <v>Sw</v>
       </c>
       <c r="W45" s="3" t="str">
-        <v>obj_003a7</v>
+        <v>obj_003aa</v>
       </c>
       <c r="X45" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W45,Trigger),"")</f>
-        <v>USD_CURVE_3M_23Y_Quote</v>
+        <v>USD_CURVE_3M_25Y_Quote</v>
       </c>
       <c r="Y45" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W45,Trigger),"")</f>
-        <v>2.6290650679999999E-2</v>
+        <v>2.6470000000000004E-2</v>
       </c>
       <c r="Z45" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W45)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W45)),_xll.qlSwapRateHelperSpread($W45))</f>
@@ -6853,14 +6855,14 @@
       </c>
       <c r="AA45" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W45,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB45" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W45,Trigger),"")</f>
-        <v>50662</v>
+        <v>51453</v>
       </c>
       <c r="AC45" s="68">
-        <v>2.7176461681886536E-2</v>
+        <v>2.7165081162607942E-2</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6872,7 +6874,7 @@
       </c>
       <c r="C46" s="61" t="str">
         <f>_xll.qlIMMNextCode(C45,B46,Trigger)</f>
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="D46" s="124"/>
       <c r="E46" s="124"/>
@@ -6883,7 +6885,7 @@
       </c>
       <c r="H46" s="118" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MU9_Quote</v>
+        <v>USDFUT3MZ9_Quote</v>
       </c>
       <c r="I46" s="118">
         <f t="shared" si="13"/>
@@ -6891,7 +6893,7 @@
       </c>
       <c r="J46" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H46,$H$25,C46,G46,I46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d9#0005</v>
+        <v>obj_003c8#0000</v>
       </c>
       <c r="L46" s="9" t="str">
         <f t="shared" si="15"/>
@@ -6931,15 +6933,15 @@
         <v>Sw</v>
       </c>
       <c r="W46" s="3" t="str">
-        <v>obj_003bd</v>
+        <v>obj_003a5</v>
       </c>
       <c r="X46" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W46,Trigger),"")</f>
-        <v>USD_CURVE_3M_24Y_Quote</v>
+        <v>USD_CURVE_3M_26Y_Quote</v>
       </c>
       <c r="Y46" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W46,Trigger),"")</f>
-        <v>2.638468159E-2</v>
+        <v>2.654844437E-2</v>
       </c>
       <c r="Z46" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W46)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W46)),_xll.qlSwapRateHelperSpread($W46))</f>
@@ -6947,14 +6949,14 @@
       </c>
       <c r="AA46" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W46,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB46" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W46,Trigger),"")</f>
-        <v>51027</v>
+        <v>51818</v>
       </c>
       <c r="AC46" s="68">
-        <v>2.727378756210791E-2</v>
+        <v>2.7241618580719596E-2</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6966,7 +6968,7 @@
       </c>
       <c r="C47" s="61" t="str">
         <f>_xll.qlIMMNextCode(C46,B47,Trigger)</f>
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="D47" s="124"/>
       <c r="E47" s="124"/>
@@ -6977,7 +6979,7 @@
       </c>
       <c r="H47" s="118" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MZ9_Quote</v>
+        <v>USDFUT3MH0_Quote</v>
       </c>
       <c r="I47" s="118">
         <f t="shared" si="13"/>
@@ -6985,7 +6987,7 @@
       </c>
       <c r="J47" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H47,$H$25,C47,G47,I47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003da#0005</v>
+        <v>obj_003c9#0000</v>
       </c>
       <c r="L47" s="9" t="str">
         <f t="shared" si="15"/>
@@ -7025,15 +7027,15 @@
         <v>Sw</v>
       </c>
       <c r="W47" s="3" t="str">
-        <v>obj_003b3</v>
+        <v>obj_003a0</v>
       </c>
       <c r="X47" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W47,Trigger),"")</f>
-        <v>USD_CURVE_3M_25Y_Quote</v>
+        <v>USD_CURVE_3M_27Y_Quote</v>
       </c>
       <c r="Y47" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W47,Trigger),"")</f>
-        <v>2.6470000000000004E-2</v>
+        <v>2.6619387420000001E-2</v>
       </c>
       <c r="Z47" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W47)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W47)),_xll.qlSwapRateHelperSpread($W47))</f>
@@ -7041,14 +7043,14 @@
       </c>
       <c r="AA47" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W47,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB47" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W47,Trigger),"")</f>
-        <v>51393</v>
+        <v>52183</v>
       </c>
       <c r="AC47" s="68">
-        <v>2.7361872083471506E-2</v>
+        <v>2.7311422505954332E-2</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7060,7 +7062,7 @@
       </c>
       <c r="C48" s="8" t="str">
         <f>_xll.qlIMMNextCode(C47,B48,Trigger)</f>
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="D48" s="125"/>
       <c r="E48" s="125"/>
@@ -7071,7 +7073,7 @@
       </c>
       <c r="H48" s="119" t="str">
         <f t="shared" si="12"/>
-        <v>USDFUT3MH0_Quote</v>
+        <v>USDFUT3MM0_Quote</v>
       </c>
       <c r="I48" s="119">
         <f t="shared" si="13"/>
@@ -7079,7 +7081,7 @@
       </c>
       <c r="J48" s="2" t="str">
         <f>_xll.qlFuturesRateHelper(,H48,$H$25,C48,G48,I48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003db#0005</v>
+        <v>obj_003ca#0000</v>
       </c>
       <c r="L48" s="9" t="str">
         <f t="shared" si="15"/>
@@ -7119,15 +7121,15 @@
         <v>Sw</v>
       </c>
       <c r="W48" s="3" t="str">
-        <v>obj_003b1</v>
+        <v>obj_003ae</v>
       </c>
       <c r="X48" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W48,Trigger),"")</f>
-        <v>USD_CURVE_3M_26Y_Quote</v>
+        <v>USD_CURVE_3M_28Y_Quote</v>
       </c>
       <c r="Y48" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W48,Trigger),"")</f>
-        <v>2.654866421E-2</v>
+        <v>2.6683333860000002E-2</v>
       </c>
       <c r="Z48" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W48)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W48)),_xll.qlSwapRateHelperSpread($W48))</f>
@@ -7135,14 +7137,14 @@
       </c>
       <c r="AA48" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W48,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB48" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W48,Trigger),"")</f>
-        <v>51760</v>
+        <v>52548</v>
       </c>
       <c r="AC48" s="68">
-        <v>2.7443308479947019E-2</v>
+        <v>2.7374352932457737E-2</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7158,7 +7160,7 @@
       </c>
       <c r="M49" s="139" t="str">
         <f t="shared" si="16"/>
-        <v>obj_003b6#0002</v>
+        <v>obj_0039f#0000</v>
       </c>
       <c r="N49" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M49,Trigger),"--")</f>
@@ -7179,26 +7181,26 @@
       </c>
       <c r="S49" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M49,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T49" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M49,Trigger),"--")</f>
-        <v>43357</v>
+        <v>43417</v>
       </c>
       <c r="V49" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W49" s="3" t="str">
-        <v>obj_003a9</v>
+        <v>obj_0039b</v>
       </c>
       <c r="X49" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W49,Trigger),"")</f>
-        <v>USD_CURVE_3M_27Y_Quote</v>
+        <v>USD_CURVE_3M_29Y_Quote</v>
       </c>
       <c r="Y49" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W49,Trigger),"")</f>
-        <v>2.6619811870000003E-2</v>
+        <v>2.6740438389999999E-2</v>
       </c>
       <c r="Z49" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W49)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W49)),_xll.qlSwapRateHelperSpread($W49))</f>
@@ -7206,14 +7208,14 @@
       </c>
       <c r="AA49" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W49,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB49" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W49,Trigger),"")</f>
-        <v>52124</v>
+        <v>52915</v>
       </c>
       <c r="AC49" s="68">
-        <v>2.751695766702E-2</v>
+        <v>2.7430839493365798E-2</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7253,7 +7255,7 @@
       </c>
       <c r="M50" s="139" t="str">
         <f t="shared" si="16"/>
-        <v>obj_003a4#0002</v>
+        <v>obj_003a7#0000</v>
       </c>
       <c r="N50" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M50,Trigger),"--")</f>
@@ -7274,26 +7276,26 @@
       </c>
       <c r="S50" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M50,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T50" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M50,Trigger),"--")</f>
-        <v>43724</v>
+        <v>43782</v>
       </c>
       <c r="V50" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W50" s="3" t="str">
-        <v>obj_003a5</v>
+        <v>obj_003ad</v>
       </c>
       <c r="X50" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W50,Trigger),"")</f>
-        <v>USD_CURVE_3M_28Y_Quote</v>
+        <v>USD_CURVE_3M_30Y_Quote</v>
       </c>
       <c r="Y50" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W50,Trigger),"")</f>
-        <v>2.6683845669999998E-2</v>
+        <v>2.6790000000000001E-2</v>
       </c>
       <c r="Z50" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W50)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W50)),_xll.qlSwapRateHelperSpread($W50))</f>
@@ -7301,14 +7303,14 @@
       </c>
       <c r="AA50" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W50,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB50" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W50,Trigger),"")</f>
-        <v>52488</v>
+        <v>53279</v>
       </c>
       <c r="AC50" s="68">
-        <v>2.758261431552755E-2</v>
+        <v>2.7479511040481852E-2</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7348,7 +7350,7 @@
       </c>
       <c r="M51" s="139" t="str">
         <f t="shared" si="16"/>
-        <v>obj_003a3#0002</v>
+        <v>obj_003a4#0000</v>
       </c>
       <c r="N51" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M51,Trigger),"--")</f>
@@ -7369,26 +7371,26 @@
       </c>
       <c r="S51" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M51,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T51" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M51,Trigger),"--")</f>
-        <v>44088</v>
+        <v>44148</v>
       </c>
       <c r="V51" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W51" s="3" t="str">
-        <v>obj_003bc</v>
+        <v>obj_00395</v>
       </c>
       <c r="X51" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W51,Trigger),"")</f>
-        <v>USD_CURVE_3M_29Y_Quote</v>
+        <v>USD_CURVE_3M_40Y_Quote</v>
       </c>
       <c r="Y51" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W51,Trigger),"")</f>
-        <v>2.6740832809999997E-2</v>
+        <v>2.6959999999999998E-2</v>
       </c>
       <c r="Z51" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W51)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W51)),_xll.qlSwapRateHelperSpread($W51))</f>
@@ -7396,14 +7398,14 @@
       </c>
       <c r="AA51" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W51,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB51" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W51,Trigger),"")</f>
-        <v>52854</v>
+        <v>56933</v>
       </c>
       <c r="AC51" s="68">
-        <v>2.7639779770366753E-2</v>
+        <v>2.7587833697599717E-2</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7443,7 +7445,7 @@
       </c>
       <c r="M52" s="139" t="str">
         <f t="shared" si="16"/>
-        <v>obj_003ad#0002</v>
+        <v>obj_00396#0000</v>
       </c>
       <c r="N52" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M52,Trigger),"--")</f>
@@ -7464,26 +7466,26 @@
       </c>
       <c r="S52" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M52,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T52" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M52,Trigger),"--")</f>
-        <v>44453</v>
+        <v>44515</v>
       </c>
       <c r="V52" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W52" s="3" t="str">
-        <v>obj_003b9</v>
+        <v>obj_003a1</v>
       </c>
       <c r="X52" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W52,Trigger),"")</f>
-        <v>USD_CURVE_3M_30Y_Quote</v>
+        <v>USD_CURVE_3M_50Y_Quote</v>
       </c>
       <c r="Y52" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W52,Trigger),"")</f>
-        <v>2.6790000000000001E-2</v>
+        <v>2.682E-2</v>
       </c>
       <c r="Z52" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W52)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W52)),_xll.qlSwapRateHelperSpread($W52))</f>
@@ -7491,14 +7493,14 @@
       </c>
       <c r="AA52" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W52,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB52" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W52,Trigger),"")</f>
-        <v>53219</v>
+        <v>60584</v>
       </c>
       <c r="AC52" s="68">
-        <v>2.7687255564946008E-2</v>
+        <v>2.7148782950409837E-2</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7538,7 +7540,7 @@
       </c>
       <c r="M53" s="139" t="str">
         <f t="shared" si="16"/>
-        <v>obj_003a2#0002</v>
+        <v>obj_0039c#0000</v>
       </c>
       <c r="N53" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M53,Trigger),"--")</f>
@@ -7559,26 +7561,26 @@
       </c>
       <c r="S53" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M53,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T53" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M53,Trigger),"--")</f>
-        <v>44818</v>
+        <v>44879</v>
       </c>
       <c r="V53" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W53" s="3" t="str">
-        <v>obj_003a0</v>
+        <v>obj_003b3</v>
       </c>
       <c r="X53" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W53,Trigger),"")</f>
-        <v>USD_CURVE_3M_40Y_Quote</v>
+        <v>USD_CURVE_3M_60Y_Quote</v>
       </c>
       <c r="Y53" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W53,Trigger),"")</f>
-        <v>2.6950000000000002E-2</v>
+        <v>2.6693453260000003E-2</v>
       </c>
       <c r="Z53" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W53)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W53)),_xll.qlSwapRateHelperSpread($W53))</f>
@@ -7586,14 +7588,14 @@
       </c>
       <c r="AA53" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W53,Trigger),"")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="AB53" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W53,Trigger),"")</f>
-        <v>56871</v>
+        <v>64236</v>
       </c>
       <c r="AC53" s="68">
-        <v>2.7723938517549174E-2</v>
+        <v>2.6761255973754526E-2</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7633,7 +7635,7 @@
       </c>
       <c r="M54" s="139" t="str">
         <f t="shared" si="16"/>
-        <v>obj_003a1#0002</v>
+        <v>obj_00397#0000</v>
       </c>
       <c r="N54" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M54,Trigger),"--")</f>
@@ -7654,41 +7656,41 @@
       </c>
       <c r="S54" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M54,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T54" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M54,Trigger),"--")</f>
-        <v>45183</v>
+        <v>45243</v>
       </c>
       <c r="V54" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>Sw</v>
-      </c>
-      <c r="W54" s="3" t="str">
-        <v>obj_003b0</v>
+        <v/>
+      </c>
+      <c r="W54" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="X54" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W54,Trigger),"")</f>
-        <v>USD_CURVE_3M_50Y_Quote</v>
-      </c>
-      <c r="Y54" s="68">
+        <v/>
+      </c>
+      <c r="Y54" s="68" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W54,Trigger),"")</f>
-        <v>2.681E-2</v>
-      </c>
-      <c r="Z54" s="103">
+        <v/>
+      </c>
+      <c r="Z54" s="103" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W54)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W54)),_xll.qlSwapRateHelperSpread($W54))</f>
-        <v>0</v>
-      </c>
-      <c r="AA54" s="4">
+        <v/>
+      </c>
+      <c r="AA54" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W54,Trigger),"")</f>
-        <v>42261</v>
-      </c>
-      <c r="AB54" s="4">
+        <v/>
+      </c>
+      <c r="AB54" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W54,Trigger),"")</f>
-        <v>60524</v>
-      </c>
-      <c r="AC54" s="68">
-        <v>2.7303078926940665E-2</v>
+        <v/>
+      </c>
+      <c r="AC54" s="68" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7728,7 +7730,7 @@
       </c>
       <c r="M55" s="139" t="str">
         <f t="shared" si="16"/>
-        <v>obj_003ae#0002</v>
+        <v>obj_00399#0000</v>
       </c>
       <c r="N55" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M55,Trigger),"--")</f>
@@ -7749,41 +7751,41 @@
       </c>
       <c r="S55" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M55,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T55" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M55,Trigger),"--")</f>
-        <v>45551</v>
+        <v>45609</v>
       </c>
       <c r="V55" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>Sw</v>
-      </c>
-      <c r="W55" s="3" t="str">
-        <v>obj_003c4</v>
+        <v/>
+      </c>
+      <c r="W55" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="X55" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W55,Trigger),"")</f>
-        <v>USD_CURVE_3M_60Y_Quote</v>
-      </c>
-      <c r="Y55" s="68">
+        <v/>
+      </c>
+      <c r="Y55" s="68" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W55,Trigger),"")</f>
-        <v>2.668520165E-2</v>
-      </c>
-      <c r="Z55" s="103">
+        <v/>
+      </c>
+      <c r="Z55" s="103" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W55)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W55)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W55)),_xll.qlSwapRateHelperSpread($W55))</f>
-        <v>0</v>
-      </c>
-      <c r="AA55" s="4">
+        <v/>
+      </c>
+      <c r="AA55" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W55,Trigger),"")</f>
-        <v>42261</v>
-      </c>
-      <c r="AB55" s="4">
+        <v/>
+      </c>
+      <c r="AB55" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W55,Trigger),"")</f>
-        <v>64178</v>
-      </c>
-      <c r="AC55" s="68">
-        <v>2.6946517692719416E-2</v>
+        <v/>
+      </c>
+      <c r="AC55" s="68" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7818,7 +7820,7 @@
       </c>
       <c r="J56" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H56,,B56,JoinCalendar,USDSTD!D56,USDSTD!E56,USDSTD!F56,USDSTD!G56,USDSTD!I56,USDSTD!C56,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b6#0002</v>
+        <v>obj_0039f#0000</v>
       </c>
       <c r="L56" s="9" t="str">
         <f t="shared" si="15"/>
@@ -7826,7 +7828,7 @@
       </c>
       <c r="M56" s="139" t="str">
         <f t="shared" si="16"/>
-        <v>obj_003a6#0002</v>
+        <v>obj_00391#0000</v>
       </c>
       <c r="N56" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M56,Trigger),"--")</f>
@@ -7847,11 +7849,11 @@
       </c>
       <c r="S56" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M56,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T56" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M56,Trigger),"--")</f>
-        <v>45915</v>
+        <v>45974</v>
       </c>
       <c r="V56" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7916,7 +7918,7 @@
       </c>
       <c r="J57" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H57,,B57,JoinCalendar,USDSTD!D57,USDSTD!E57,USDSTD!F57,USDSTD!G57,USDSTD!I57,USDSTD!C57,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a4#0002</v>
+        <v>obj_003a7#0000</v>
       </c>
       <c r="L57" s="9" t="str">
         <f t="shared" si="15"/>
@@ -7924,7 +7926,7 @@
       </c>
       <c r="M57" s="139" t="str">
         <f t="shared" si="16"/>
-        <v>obj_003ba#0002</v>
+        <v>obj_003af#0000</v>
       </c>
       <c r="N57" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M57,Trigger),"--")</f>
@@ -7932,7 +7934,7 @@
       </c>
       <c r="O57" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M57,Trigger),"--")</f>
-        <v>2.2889750189999999E-2</v>
+        <v>2.2889748619999997E-2</v>
       </c>
       <c r="P57" s="140" t="b">
         <v>1</v>
@@ -7945,11 +7947,11 @@
       </c>
       <c r="S57" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M57,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T57" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M57,Trigger),"--")</f>
-        <v>46279</v>
+        <v>46339</v>
       </c>
       <c r="V57" s="3" t="str">
         <f t="shared" si="14"/>
@@ -8014,7 +8016,7 @@
       </c>
       <c r="J58" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H58,,B58,JoinCalendar,USDSTD!D58,USDSTD!E58,USDSTD!F58,USDSTD!G58,USDSTD!I58,USDSTD!C58,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a3#0002</v>
+        <v>obj_003a4#0000</v>
       </c>
       <c r="L58" s="9" t="str">
         <f t="shared" si="15"/>
@@ -8022,7 +8024,7 @@
       </c>
       <c r="M58" s="139" t="str">
         <f t="shared" si="16"/>
-        <v>obj_003af#0002</v>
+        <v>obj_0039e#0000</v>
       </c>
       <c r="N58" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M58,Trigger),"--")</f>
@@ -8043,11 +8045,11 @@
       </c>
       <c r="S58" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M58,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T58" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M58,Trigger),"--")</f>
-        <v>46644</v>
+        <v>46706</v>
       </c>
       <c r="V58" s="3" t="str">
         <f t="shared" si="14"/>
@@ -8112,7 +8114,7 @@
       </c>
       <c r="J59" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H59,,B59,JoinCalendar,USDSTD!D59,USDSTD!E59,USDSTD!F59,USDSTD!G59,USDSTD!I59,USDSTD!C59,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ad#0002</v>
+        <v>obj_00396#0000</v>
       </c>
       <c r="L59" s="9" t="str">
         <f t="shared" si="15"/>
@@ -8120,7 +8122,7 @@
       </c>
       <c r="M59" s="139" t="str">
         <f t="shared" si="16"/>
-        <v>obj_003ac#0002</v>
+        <v>obj_00392#0000</v>
       </c>
       <c r="N59" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M59,Trigger),"--")</f>
@@ -8128,7 +8130,7 @@
       </c>
       <c r="O59" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M59,Trigger),"--")</f>
-        <v>2.398862823E-2</v>
+        <v>2.3988634840000002E-2</v>
       </c>
       <c r="P59" s="140" t="b">
         <v>1</v>
@@ -8141,11 +8143,11 @@
       </c>
       <c r="S59" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M59,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T59" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M59,Trigger),"--")</f>
-        <v>47010</v>
+        <v>47070</v>
       </c>
       <c r="V59" s="3" t="str">
         <f t="shared" si="14"/>
@@ -8210,7 +8212,7 @@
       </c>
       <c r="J60" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H60,,B60,JoinCalendar,USDSTD!D60,USDSTD!E60,USDSTD!F60,USDSTD!G60,USDSTD!I60,USDSTD!C60,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a2#0002</v>
+        <v>obj_0039c#0000</v>
       </c>
       <c r="L60" s="9" t="str">
         <f t="shared" si="15"/>
@@ -8218,7 +8220,7 @@
       </c>
       <c r="M60" s="139" t="str">
         <f t="shared" si="16"/>
-        <v>obj_003aa#0002</v>
+        <v>obj_003ab#0000</v>
       </c>
       <c r="N60" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M60,Trigger),"--")</f>
@@ -8226,7 +8228,7 @@
       </c>
       <c r="O60" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M60,Trigger),"--")</f>
-        <v>2.4404396179999999E-2</v>
+        <v>2.4404405640000001E-2</v>
       </c>
       <c r="P60" s="140" t="b">
         <v>1</v>
@@ -8239,11 +8241,11 @@
       </c>
       <c r="S60" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M60,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T60" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M60,Trigger),"--")</f>
-        <v>47375</v>
+        <v>47435</v>
       </c>
       <c r="V60" s="3" t="str">
         <f t="shared" si="14"/>
@@ -8308,7 +8310,7 @@
       </c>
       <c r="J61" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H61,,B61,JoinCalendar,USDSTD!D61,USDSTD!E61,USDSTD!F61,USDSTD!G61,USDSTD!I61,USDSTD!C61,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a1#0002</v>
+        <v>obj_00397#0000</v>
       </c>
       <c r="L61" s="9" t="str">
         <f t="shared" si="15"/>
@@ -8316,7 +8318,7 @@
       </c>
       <c r="M61" s="139" t="str">
         <f t="shared" si="16"/>
-        <v>obj_003ab#0002</v>
+        <v>obj_003ac#0000</v>
       </c>
       <c r="N61" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M61,Trigger),"--")</f>
@@ -8337,11 +8339,11 @@
       </c>
       <c r="S61" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M61,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T61" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M61,Trigger),"--")</f>
-        <v>47742</v>
+        <v>47800</v>
       </c>
       <c r="V61" s="3" t="str">
         <f t="shared" si="14"/>
@@ -8406,7 +8408,7 @@
       </c>
       <c r="J62" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H62,,B62,JoinCalendar,USDSTD!D62,USDSTD!E62,USDSTD!F62,USDSTD!G62,USDSTD!I62,USDSTD!C62,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ae#0002</v>
+        <v>obj_00399#0000</v>
       </c>
       <c r="L62" s="9" t="str">
         <f t="shared" si="15"/>
@@ -8414,7 +8416,7 @@
       </c>
       <c r="M62" s="139" t="str">
         <f t="shared" si="16"/>
-        <v>obj_003b2#0002</v>
+        <v>obj_003a8#0000</v>
       </c>
       <c r="N62" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M62,Trigger),"--")</f>
@@ -8422,7 +8424,7 @@
       </c>
       <c r="O62" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M62,Trigger),"--")</f>
-        <v>2.50641261E-2</v>
+        <v>2.5064102479999999E-2</v>
       </c>
       <c r="P62" s="140" t="b">
         <v>1</v>
@@ -8435,11 +8437,11 @@
       </c>
       <c r="S62" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M62,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T62" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M62,Trigger),"--")</f>
-        <v>48106</v>
+        <v>48165</v>
       </c>
       <c r="V62" s="3" t="str">
         <f t="shared" si="14"/>
@@ -8504,7 +8506,7 @@
       </c>
       <c r="J63" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H63,,B63,JoinCalendar,USDSTD!D63,USDSTD!E63,USDSTD!F63,USDSTD!G63,USDSTD!I63,USDSTD!C63,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a6#0002</v>
+        <v>obj_00391#0000</v>
       </c>
       <c r="L63" s="9" t="str">
         <f t="shared" si="15"/>
@@ -8512,7 +8514,7 @@
       </c>
       <c r="M63" s="139" t="str">
         <f t="shared" si="16"/>
-        <v>obj_003be#0002</v>
+        <v>obj_003a6#0000</v>
       </c>
       <c r="N63" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M63,Trigger),"--")</f>
@@ -8520,7 +8522,7 @@
       </c>
       <c r="O63" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M63,Trigger),"--")</f>
-        <v>2.5328148800000002E-2</v>
+        <v>2.532810101E-2</v>
       </c>
       <c r="P63" s="140" t="b">
         <v>1</v>
@@ -8533,11 +8535,11 @@
       </c>
       <c r="S63" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M63,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T63" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M63,Trigger),"--")</f>
-        <v>48471</v>
+        <v>48533</v>
       </c>
       <c r="V63" s="3" t="str">
         <f t="shared" si="14"/>
@@ -8602,7 +8604,7 @@
       </c>
       <c r="J64" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H64,,B64,JoinCalendar,USDSTD!D64,USDSTD!E64,USDSTD!F64,USDSTD!G64,USDSTD!I64,USDSTD!C64,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ba#0002</v>
+        <v>obj_003af#0000</v>
       </c>
       <c r="L64" s="9" t="str">
         <f t="shared" ref="L64:L80" si="19">A71</f>
@@ -8610,7 +8612,7 @@
       </c>
       <c r="M64" s="139" t="str">
         <f t="shared" ref="M64:M80" si="20">IF(ISBLANK(J71),"--",J71)</f>
-        <v>obj_003bb#0002</v>
+        <v>obj_00394#0000</v>
       </c>
       <c r="N64" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M64,Trigger),"--")</f>
@@ -8618,7 +8620,7 @@
       </c>
       <c r="O64" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M64,Trigger),"--")</f>
-        <v>2.5556219979999999E-2</v>
+        <v>2.555616145E-2</v>
       </c>
       <c r="P64" s="140" t="b">
         <v>1</v>
@@ -8631,11 +8633,11 @@
       </c>
       <c r="S64" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M64,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T64" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M64,Trigger),"--")</f>
-        <v>48836</v>
+        <v>48897</v>
       </c>
       <c r="V64" s="3" t="str">
         <f t="shared" si="14"/>
@@ -8700,7 +8702,7 @@
       </c>
       <c r="J65" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H65,,B65,JoinCalendar,USDSTD!D65,USDSTD!E65,USDSTD!F65,USDSTD!G65,USDSTD!I65,USDSTD!C65,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003af#0002</v>
+        <v>obj_0039e#0000</v>
       </c>
       <c r="L65" s="9" t="str">
         <f t="shared" si="19"/>
@@ -8708,7 +8710,7 @@
       </c>
       <c r="M65" s="139" t="str">
         <f t="shared" si="20"/>
-        <v>obj_003a8#0002</v>
+        <v>obj_0039d#0000</v>
       </c>
       <c r="N65" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M65,Trigger),"--")</f>
@@ -8716,7 +8718,7 @@
       </c>
       <c r="O65" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M65,Trigger),"--")</f>
-        <v>2.5752405989999998E-2</v>
+        <v>2.5752360709999998E-2</v>
       </c>
       <c r="P65" s="140" t="b">
         <v>1</v>
@@ -8729,11 +8731,11 @@
       </c>
       <c r="S65" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M65,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T65" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M65,Trigger),"--")</f>
-        <v>49201</v>
+        <v>49261</v>
       </c>
       <c r="V65" s="3" t="str">
         <f t="shared" si="14"/>
@@ -8798,7 +8800,7 @@
       </c>
       <c r="J66" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H66,,B66,JoinCalendar,USDSTD!D66,USDSTD!E66,USDSTD!F66,USDSTD!G66,USDSTD!I66,USDSTD!C66,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ac#0002</v>
+        <v>obj_00392#0000</v>
       </c>
       <c r="L66" s="9" t="str">
         <f t="shared" si="19"/>
@@ -8806,7 +8808,7 @@
       </c>
       <c r="M66" s="139" t="str">
         <f t="shared" si="20"/>
-        <v>obj_003b4#0002</v>
+        <v>obj_00393#0000</v>
       </c>
       <c r="N66" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M66,Trigger),"--")</f>
@@ -8827,11 +8829,11 @@
       </c>
       <c r="S66" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M66,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T66" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M66,Trigger),"--")</f>
-        <v>49566</v>
+        <v>49626</v>
       </c>
       <c r="V66" s="3" t="str">
         <f t="shared" si="14"/>
@@ -8896,7 +8898,7 @@
       </c>
       <c r="J67" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H67,,B67,JoinCalendar,USDSTD!D67,USDSTD!E67,USDSTD!F67,USDSTD!G67,USDSTD!I67,USDSTD!C67,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003aa#0002</v>
+        <v>obj_003ab#0000</v>
       </c>
       <c r="L67" s="9" t="str">
         <f t="shared" si="19"/>
@@ -8904,7 +8906,7 @@
       </c>
       <c r="M67" s="139" t="str">
         <f t="shared" si="20"/>
-        <v>obj_003b8#0002</v>
+        <v>obj_003a2#0000</v>
       </c>
       <c r="N67" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M67,Trigger),"--")</f>
@@ -8912,7 +8914,7 @@
       </c>
       <c r="O67" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M67,Trigger),"--")</f>
-        <v>2.606308475E-2</v>
+        <v>2.6063160009999996E-2</v>
       </c>
       <c r="P67" s="140" t="b">
         <v>1</v>
@@ -8925,11 +8927,11 @@
       </c>
       <c r="S67" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M67,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T67" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M67,Trigger),"--")</f>
-        <v>49933</v>
+        <v>49992</v>
       </c>
       <c r="V67" s="3" t="str">
         <f t="shared" si="14"/>
@@ -8994,7 +8996,7 @@
       </c>
       <c r="J68" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H68,,B68,JoinCalendar,USDSTD!D68,USDSTD!E68,USDSTD!F68,USDSTD!G68,USDSTD!I68,USDSTD!C68,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ab#0002</v>
+        <v>obj_003ac#0000</v>
       </c>
       <c r="L68" s="9" t="str">
         <f t="shared" si="19"/>
@@ -9002,7 +9004,7 @@
       </c>
       <c r="M68" s="139" t="str">
         <f t="shared" si="20"/>
-        <v>obj_003b5#0002</v>
+        <v>obj_0039a#0000</v>
       </c>
       <c r="N68" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M68,Trigger),"--")</f>
@@ -9010,7 +9012,7 @@
       </c>
       <c r="O68" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M68,Trigger),"--")</f>
-        <v>2.6184567200000002E-2</v>
+        <v>2.6184711790000002E-2</v>
       </c>
       <c r="P68" s="140" t="b">
         <v>1</v>
@@ -9023,11 +9025,11 @@
       </c>
       <c r="S68" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M68,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T68" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M68,Trigger),"--")</f>
-        <v>50297</v>
+        <v>50357</v>
       </c>
       <c r="V68" s="3" t="str">
         <f t="shared" si="14"/>
@@ -9092,7 +9094,7 @@
       </c>
       <c r="J69" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H69,,B69,JoinCalendar,USDSTD!D69,USDSTD!E69,USDSTD!F69,USDSTD!G69,USDSTD!I69,USDSTD!C69,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b2#0002</v>
+        <v>obj_003a8#0000</v>
       </c>
       <c r="L69" s="9" t="str">
         <f t="shared" si="19"/>
@@ -9100,7 +9102,7 @@
       </c>
       <c r="M69" s="139" t="str">
         <f t="shared" si="20"/>
-        <v>obj_003a7#0002</v>
+        <v>obj_00398#0000</v>
       </c>
       <c r="N69" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M69,Trigger),"--")</f>
@@ -9108,7 +9110,7 @@
       </c>
       <c r="O69" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M69,Trigger),"--")</f>
-        <v>2.6290650679999999E-2</v>
+        <v>2.6290824040000001E-2</v>
       </c>
       <c r="P69" s="140" t="b">
         <v>1</v>
@@ -9121,11 +9123,11 @@
       </c>
       <c r="S69" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M69,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T69" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M69,Trigger),"--")</f>
-        <v>50662</v>
+        <v>50724</v>
       </c>
       <c r="V69" s="3" t="str">
         <f t="shared" si="14"/>
@@ -9190,7 +9192,7 @@
       </c>
       <c r="J70" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H70,,B70,JoinCalendar,USDSTD!D70,USDSTD!E70,USDSTD!F70,USDSTD!G70,USDSTD!I70,USDSTD!C70,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003be#0002</v>
+        <v>obj_003a6#0000</v>
       </c>
       <c r="L70" s="9" t="str">
         <f t="shared" si="19"/>
@@ -9198,7 +9200,7 @@
       </c>
       <c r="M70" s="139" t="str">
         <f t="shared" si="20"/>
-        <v>obj_003bd#0002</v>
+        <v>obj_003a3#0000</v>
       </c>
       <c r="N70" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M70,Trigger),"--")</f>
@@ -9206,7 +9208,7 @@
       </c>
       <c r="O70" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M70,Trigger),"--")</f>
-        <v>2.638468159E-2</v>
+        <v>2.6384814519999997E-2</v>
       </c>
       <c r="P70" s="140" t="b">
         <v>1</v>
@@ -9219,11 +9221,11 @@
       </c>
       <c r="S70" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M70,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T70" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M70,Trigger),"--")</f>
-        <v>51027</v>
+        <v>51088</v>
       </c>
       <c r="V70" s="3" t="str">
         <f t="shared" si="14"/>
@@ -9288,7 +9290,7 @@
       </c>
       <c r="J71" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H71,,B71,JoinCalendar,USDSTD!D71,USDSTD!E71,USDSTD!F71,USDSTD!G71,USDSTD!I71,USDSTD!C71,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003bb#0002</v>
+        <v>obj_00394#0000</v>
       </c>
       <c r="L71" s="9" t="str">
         <f t="shared" si="19"/>
@@ -9296,7 +9298,7 @@
       </c>
       <c r="M71" s="139" t="str">
         <f t="shared" si="20"/>
-        <v>obj_003b3#0002</v>
+        <v>obj_003aa#0000</v>
       </c>
       <c r="N71" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M71,Trigger),"--")</f>
@@ -9317,11 +9319,11 @@
       </c>
       <c r="S71" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M71,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T71" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M71,Trigger),"--")</f>
-        <v>51393</v>
+        <v>51453</v>
       </c>
       <c r="V71" s="5" t="str">
         <f t="shared" si="14"/>
@@ -9386,7 +9388,7 @@
       </c>
       <c r="J72" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H72,,B72,JoinCalendar,USDSTD!D72,USDSTD!E72,USDSTD!F72,USDSTD!G72,USDSTD!I72,USDSTD!C72,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a8#0002</v>
+        <v>obj_0039d#0000</v>
       </c>
       <c r="L72" s="9" t="str">
         <f t="shared" si="19"/>
@@ -9394,7 +9396,7 @@
       </c>
       <c r="M72" s="139" t="str">
         <f t="shared" si="20"/>
-        <v>obj_003b1#0002</v>
+        <v>obj_003a5#0000</v>
       </c>
       <c r="N72" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M72,Trigger),"--")</f>
@@ -9402,7 +9404,7 @@
       </c>
       <c r="O72" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M72,Trigger),"--")</f>
-        <v>2.654866421E-2</v>
+        <v>2.654844437E-2</v>
       </c>
       <c r="P72" s="140" t="b">
         <v>1</v>
@@ -9415,11 +9417,11 @@
       </c>
       <c r="S72" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M72,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T72" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M72,Trigger),"--")</f>
-        <v>51760</v>
+        <v>51818</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9454,7 +9456,7 @@
       </c>
       <c r="J73" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H73,,B73,JoinCalendar,USDSTD!D73,USDSTD!E73,USDSTD!F73,USDSTD!G73,USDSTD!I73,USDSTD!C73,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b4#0002</v>
+        <v>obj_00393#0000</v>
       </c>
       <c r="L73" s="9" t="str">
         <f t="shared" si="19"/>
@@ -9462,7 +9464,7 @@
       </c>
       <c r="M73" s="139" t="str">
         <f t="shared" si="20"/>
-        <v>obj_003a9#0002</v>
+        <v>obj_003a0#0000</v>
       </c>
       <c r="N73" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M73,Trigger),"--")</f>
@@ -9470,7 +9472,7 @@
       </c>
       <c r="O73" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M73,Trigger),"--")</f>
-        <v>2.6619811870000003E-2</v>
+        <v>2.6619387420000001E-2</v>
       </c>
       <c r="P73" s="140" t="b">
         <v>1</v>
@@ -9483,11 +9485,11 @@
       </c>
       <c r="S73" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M73,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T73" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M73,Trigger),"--")</f>
-        <v>52124</v>
+        <v>52183</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9522,7 +9524,7 @@
       </c>
       <c r="J74" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H74,,B74,JoinCalendar,USDSTD!D74,USDSTD!E74,USDSTD!F74,USDSTD!G74,USDSTD!I74,USDSTD!C74,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b8#0002</v>
+        <v>obj_003a2#0000</v>
       </c>
       <c r="L74" s="9" t="str">
         <f t="shared" si="19"/>
@@ -9530,7 +9532,7 @@
       </c>
       <c r="M74" s="139" t="str">
         <f t="shared" si="20"/>
-        <v>obj_003a5#0002</v>
+        <v>obj_003ae#0000</v>
       </c>
       <c r="N74" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M74,Trigger),"--")</f>
@@ -9538,7 +9540,7 @@
       </c>
       <c r="O74" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M74,Trigger),"--")</f>
-        <v>2.6683845669999998E-2</v>
+        <v>2.6683333860000002E-2</v>
       </c>
       <c r="P74" s="140" t="b">
         <v>1</v>
@@ -9551,11 +9553,11 @@
       </c>
       <c r="S74" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M74,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T74" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M74,Trigger),"--")</f>
-        <v>52488</v>
+        <v>52548</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9590,7 +9592,7 @@
       </c>
       <c r="J75" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H75,,B75,JoinCalendar,USDSTD!D75,USDSTD!E75,USDSTD!F75,USDSTD!G75,USDSTD!I75,USDSTD!C75,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b5#0002</v>
+        <v>obj_0039a#0000</v>
       </c>
       <c r="L75" s="9" t="str">
         <f t="shared" si="19"/>
@@ -9598,7 +9600,7 @@
       </c>
       <c r="M75" s="139" t="str">
         <f t="shared" si="20"/>
-        <v>obj_003bc#0002</v>
+        <v>obj_0039b#0000</v>
       </c>
       <c r="N75" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M75,Trigger),"--")</f>
@@ -9606,7 +9608,7 @@
       </c>
       <c r="O75" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M75,Trigger),"--")</f>
-        <v>2.6740832809999997E-2</v>
+        <v>2.6740438389999999E-2</v>
       </c>
       <c r="P75" s="140" t="b">
         <v>1</v>
@@ -9619,11 +9621,11 @@
       </c>
       <c r="S75" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M75,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T75" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M75,Trigger),"--")</f>
-        <v>52854</v>
+        <v>52915</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9658,7 +9660,7 @@
       </c>
       <c r="J76" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H76,,B76,JoinCalendar,USDSTD!D76,USDSTD!E76,USDSTD!F76,USDSTD!G76,USDSTD!I76,USDSTD!C76,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a7#0002</v>
+        <v>obj_00398#0000</v>
       </c>
       <c r="L76" s="9" t="str">
         <f t="shared" si="19"/>
@@ -9666,7 +9668,7 @@
       </c>
       <c r="M76" s="139" t="str">
         <f t="shared" si="20"/>
-        <v>obj_003b9#0002</v>
+        <v>obj_003ad#0000</v>
       </c>
       <c r="N76" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M76,Trigger),"--")</f>
@@ -9687,11 +9689,11 @@
       </c>
       <c r="S76" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M76,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T76" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M76,Trigger),"--")</f>
-        <v>53219</v>
+        <v>53279</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9726,7 +9728,7 @@
       </c>
       <c r="J77" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H77,,B77,JoinCalendar,USDSTD!D77,USDSTD!E77,USDSTD!F77,USDSTD!G77,USDSTD!I77,USDSTD!C77,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003bd#0002</v>
+        <v>obj_003a3#0000</v>
       </c>
       <c r="L77" s="9" t="str">
         <f t="shared" si="19"/>
@@ -9794,7 +9796,7 @@
       </c>
       <c r="J78" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H78,,B78,JoinCalendar,USDSTD!D78,USDSTD!E78,USDSTD!F78,USDSTD!G78,USDSTD!I78,USDSTD!C78,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b3#0002</v>
+        <v>obj_003aa#0000</v>
       </c>
       <c r="L78" s="9" t="str">
         <f t="shared" si="19"/>
@@ -9802,7 +9804,7 @@
       </c>
       <c r="M78" s="139" t="str">
         <f t="shared" si="20"/>
-        <v>obj_003a0#0002</v>
+        <v>obj_00395#0000</v>
       </c>
       <c r="N78" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M78,Trigger),"--")</f>
@@ -9810,7 +9812,7 @@
       </c>
       <c r="O78" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M78,Trigger),"--")</f>
-        <v>2.6950000000000002E-2</v>
+        <v>2.6959999999999998E-2</v>
       </c>
       <c r="P78" s="140" t="b">
         <v>1</v>
@@ -9823,11 +9825,11 @@
       </c>
       <c r="S78" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M78,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T78" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M78,Trigger),"--")</f>
-        <v>56871</v>
+        <v>56933</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9862,7 +9864,7 @@
       </c>
       <c r="J79" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H79,,B79,JoinCalendar,USDSTD!D79,USDSTD!E79,USDSTD!F79,USDSTD!G79,USDSTD!I79,USDSTD!C79,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b1#0002</v>
+        <v>obj_003a5#0000</v>
       </c>
       <c r="L79" s="9" t="str">
         <f t="shared" si="19"/>
@@ -9870,7 +9872,7 @@
       </c>
       <c r="M79" s="139" t="str">
         <f t="shared" si="20"/>
-        <v>obj_003b0#0002</v>
+        <v>obj_003a1#0000</v>
       </c>
       <c r="N79" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M79,Trigger),"--")</f>
@@ -9878,7 +9880,7 @@
       </c>
       <c r="O79" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M79,Trigger),"--")</f>
-        <v>2.681E-2</v>
+        <v>2.682E-2</v>
       </c>
       <c r="P79" s="140" t="b">
         <v>1</v>
@@ -9891,11 +9893,11 @@
       </c>
       <c r="S79" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M79,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T79" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M79,Trigger),"--")</f>
-        <v>60524</v>
+        <v>60584</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9930,7 +9932,7 @@
       </c>
       <c r="J80" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H80,,B80,JoinCalendar,USDSTD!D80,USDSTD!E80,USDSTD!F80,USDSTD!G80,USDSTD!I80,USDSTD!C80,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a9#0002</v>
+        <v>obj_003a0#0000</v>
       </c>
       <c r="L80" s="10" t="str">
         <f t="shared" si="19"/>
@@ -9938,7 +9940,7 @@
       </c>
       <c r="M80" s="277" t="str">
         <f t="shared" si="20"/>
-        <v>obj_003c4#0002</v>
+        <v>obj_003b3#0000</v>
       </c>
       <c r="N80" s="152" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M80,Trigger),"--")</f>
@@ -9946,7 +9948,7 @@
       </c>
       <c r="O80" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M80,Trigger),"--")</f>
-        <v>2.668520165E-2</v>
+        <v>2.6693453260000003E-2</v>
       </c>
       <c r="P80" s="143" t="b">
         <v>1</v>
@@ -9959,11 +9961,11 @@
       </c>
       <c r="S80" s="151">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M80,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42321</v>
       </c>
       <c r="T80" s="151">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M80,Trigger),"--")</f>
-        <v>64178</v>
+        <v>64236</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -9998,7 +10000,7 @@
       </c>
       <c r="J81" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H81,,B81,JoinCalendar,USDSTD!D81,USDSTD!E81,USDSTD!F81,USDSTD!G81,USDSTD!I81,USDSTD!C81,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a5#0002</v>
+        <v>obj_003ae#0000</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -10033,7 +10035,7 @@
       </c>
       <c r="J82" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H82,,B82,JoinCalendar,USDSTD!D82,USDSTD!E82,USDSTD!F82,USDSTD!G82,USDSTD!I82,USDSTD!C82,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003bc#0002</v>
+        <v>obj_0039b#0000</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -10068,7 +10070,7 @@
       </c>
       <c r="J83" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H83,,B83,JoinCalendar,USDSTD!D83,USDSTD!E83,USDSTD!F83,USDSTD!G83,USDSTD!I83,USDSTD!C83,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b9#0002</v>
+        <v>obj_003ad#0000</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -10135,7 +10137,7 @@
       </c>
       <c r="J85" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H85,,B85,JoinCalendar,USDSTD!D85,USDSTD!E85,USDSTD!F85,USDSTD!G85,USDSTD!I85,USDSTD!C85,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a0#0002</v>
+        <v>obj_00395#0000</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -10170,7 +10172,7 @@
       </c>
       <c r="J86" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H86,,B86,JoinCalendar,USDSTD!D86,USDSTD!E86,USDSTD!F86,USDSTD!G86,USDSTD!I86,USDSTD!C86,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b0#0002</v>
+        <v>obj_003a1#0000</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -10205,7 +10207,7 @@
       </c>
       <c r="J87" s="2" t="str">
         <f>_xll.qlSwapRateHelper2(,H87,,B87,JoinCalendar,USDSTD!D87,USDSTD!E87,USDSTD!F87,USDSTD!G87,USDSTD!I87,USDSTD!C87,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c4#0002</v>
+        <v>obj_003b3#0000</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -10285,7 +10287,7 @@
       <c r="Q1" s="165"/>
       <c r="R1" s="166">
         <f>_xll.ohTrigger(R4:R22)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S1" s="167"/>
     </row>
@@ -10328,7 +10330,7 @@
       <c r="I3" s="177"/>
       <c r="J3" s="178" t="str">
         <f>_xll.RData(J4:J22,K3:L3,"RTFEED:DTSIMI1","FRQ:1S",,K4)</f>
-        <v>Updated at 11:30:51</v>
+        <v>Updated at 10:00:46</v>
       </c>
       <c r="K3" s="179" t="s">
         <v>117</v>
@@ -10363,7 +10365,7 @@
       </c>
       <c r="D4" s="181" t="str">
         <f>_xll.qlSimpleQuote(C4,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USDOND_Mx_Quote#0002</v>
+        <v>USDOND_Mx_Quote#0000</v>
       </c>
       <c r="E4" s="182" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -10380,14 +10382,14 @@
         <v>USDXOND=</v>
       </c>
       <c r="K4" s="185">
-        <v>0.27999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L4" s="185">
-        <v>0.27999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M4" s="185">
         <f>AVERAGE(K4:L4)</f>
-        <v>0.27999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N4" s="172"/>
       <c r="O4" s="186">
@@ -10396,11 +10398,11 @@
       <c r="P4" s="172"/>
       <c r="Q4" s="187">
         <f t="array" ref="Q4:Q22">QuoteLive</f>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="R4" s="189" t="e">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R4" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D4,Q4/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.0000000000000026E-4</v>
       </c>
       <c r="S4" s="16"/>
     </row>
@@ -10415,7 +10417,7 @@
       </c>
       <c r="D5" s="191" t="str">
         <f>_xll.qlSimpleQuote(C5,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USDTND_Mx_Quote#0002</v>
+        <v>USDTND_Mx_Quote#0000</v>
       </c>
       <c r="E5" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -10432,14 +10434,14 @@
         <v>USDXTND=</v>
       </c>
       <c r="K5" s="187">
-        <v>0.27999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L5" s="187">
-        <v>0.27999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M5" s="187">
         <f t="shared" ref="M5:M22" si="4">AVERAGE(K5:L5)</f>
-        <v>0.27999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N5" s="172"/>
       <c r="O5" s="194">
@@ -10447,11 +10449,11 @@
       </c>
       <c r="P5" s="172"/>
       <c r="Q5" s="187">
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="R5" s="189" t="e">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R5" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D5,Q5/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.0000000000000026E-4</v>
       </c>
       <c r="S5" s="16"/>
     </row>
@@ -10466,7 +10468,7 @@
       </c>
       <c r="D6" s="191" t="str">
         <f>_xll.qlSimpleQuote(C6,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USDSND_Mx_Quote#0002</v>
+        <v>USDSND_Mx_Quote#0000</v>
       </c>
       <c r="E6" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -10483,14 +10485,14 @@
         <v>USDXSND=</v>
       </c>
       <c r="K6" s="188">
-        <v>0.27999999999999997</v>
+        <v>0.3</v>
       </c>
       <c r="L6" s="188">
-        <v>0.27999999999999997</v>
+        <v>0.3</v>
       </c>
       <c r="M6" s="188">
         <f t="shared" si="4"/>
-        <v>0.27999999999999997</v>
+        <v>0.3</v>
       </c>
       <c r="N6" s="172"/>
       <c r="O6" s="197">
@@ -10498,11 +10500,11 @@
       </c>
       <c r="P6" s="172"/>
       <c r="Q6" s="187">
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="R6" s="189" t="e">
+        <v>0.3</v>
+      </c>
+      <c r="R6" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D6,Q6/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>2.0000000000000052E-4</v>
       </c>
       <c r="S6" s="16"/>
     </row>
@@ -10517,7 +10519,7 @@
       </c>
       <c r="D7" s="191" t="str">
         <f>_xll.qlSimpleQuote(C7,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USDSWD_Mx_Quote#0002</v>
+        <v>USDSWD_Mx_Quote#0000</v>
       </c>
       <c r="E7" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -10534,14 +10536,14 @@
         <v>USDXSWD=</v>
       </c>
       <c r="K7" s="187">
-        <v>0.15009999999999998</v>
+        <v>0.15060000000000001</v>
       </c>
       <c r="L7" s="187">
-        <v>0.16009999999999999</v>
+        <v>0.16059999999999999</v>
       </c>
       <c r="M7" s="187">
         <f t="shared" si="4"/>
-        <v>0.15509999999999999</v>
+        <v>0.15560000000000002</v>
       </c>
       <c r="N7" s="172"/>
       <c r="O7" s="194">
@@ -10549,11 +10551,11 @@
       </c>
       <c r="P7" s="172"/>
       <c r="Q7" s="185">
-        <v>0.15509999999999999</v>
-      </c>
-      <c r="R7" s="198" t="e">
+        <v>0.15560000000000002</v>
+      </c>
+      <c r="R7" s="198">
         <f>_xll.qlSimpleQuoteSetValue(D7,Q7/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>5.00000000000023E-6</v>
       </c>
       <c r="S7" s="16"/>
     </row>
@@ -10568,7 +10570,7 @@
       </c>
       <c r="D8" s="191" t="str">
         <f>_xll.qlSimpleQuote(C8,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD2WD_Mx_Quote#0002</v>
+        <v>USD2WD_Mx_Quote#0000</v>
       </c>
       <c r="E8" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -10585,14 +10587,14 @@
         <v>USDX2WD=</v>
       </c>
       <c r="K8" s="187">
-        <v>0.164982609</v>
+        <v>0.16267499999999999</v>
       </c>
       <c r="L8" s="187">
-        <v>0.17498260900000001</v>
+        <v>0.172675</v>
       </c>
       <c r="M8" s="187">
         <f t="shared" si="4"/>
-        <v>0.16998260900000001</v>
+        <v>0.16767499999999999</v>
       </c>
       <c r="N8" s="172"/>
       <c r="O8" s="194">
@@ -10600,11 +10602,11 @@
       </c>
       <c r="P8" s="172"/>
       <c r="Q8" s="187">
-        <v>0.16998260900000001</v>
-      </c>
-      <c r="R8" s="189" t="e">
+        <v>0.16767499999999999</v>
+      </c>
+      <c r="R8" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D8,Q8/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-2.3076090000000203E-5</v>
       </c>
       <c r="S8" s="16"/>
     </row>
@@ -10619,7 +10621,7 @@
       </c>
       <c r="D9" s="191" t="str">
         <f>_xll.qlSimpleQuote(C9,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3WD_Mx_Quote#0002</v>
+        <v>USD3WD_Mx_Quote#0000</v>
       </c>
       <c r="E9" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -10636,14 +10638,14 @@
         <v>USDX3WD=</v>
       </c>
       <c r="K9" s="187">
-        <v>0.17986521699999999</v>
+        <v>0.17475000000000002</v>
       </c>
       <c r="L9" s="187">
-        <v>0.189865217</v>
+        <v>0.18475</v>
       </c>
       <c r="M9" s="187">
         <f t="shared" si="4"/>
-        <v>0.184865217</v>
+        <v>0.17975000000000002</v>
       </c>
       <c r="N9" s="172"/>
       <c r="O9" s="194">
@@ -10651,11 +10653,11 @@
       </c>
       <c r="P9" s="172"/>
       <c r="Q9" s="187">
-        <v>0.184865217</v>
-      </c>
-      <c r="R9" s="189" t="e">
+        <v>0.17975000000000002</v>
+      </c>
+      <c r="R9" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D9,Q9/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-5.1152169999999809E-5</v>
       </c>
       <c r="S9" s="16"/>
     </row>
@@ -10670,7 +10672,7 @@
       </c>
       <c r="D10" s="191" t="str">
         <f>_xll.qlSimpleQuote(C10,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD1MD_Mx_Quote#0002</v>
+        <v>USD1MD_Mx_Quote#0000</v>
       </c>
       <c r="E10" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -10687,14 +10689,14 @@
         <v>USDX1MD=</v>
       </c>
       <c r="K10" s="187">
-        <v>0.19900000000000001</v>
+        <v>0.192</v>
       </c>
       <c r="L10" s="187">
-        <v>0.20899999999999999</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="M10" s="187">
         <f t="shared" si="4"/>
-        <v>0.20400000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="N10" s="172"/>
       <c r="O10" s="194">
@@ -10702,11 +10704,11 @@
       </c>
       <c r="P10" s="172"/>
       <c r="Q10" s="187">
-        <v>0.20400000000000001</v>
-      </c>
-      <c r="R10" s="189" t="e">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="R10" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D10,Q10/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-7.0000000000000184E-5</v>
       </c>
       <c r="S10" s="16"/>
     </row>
@@ -10721,7 +10723,7 @@
       </c>
       <c r="D11" s="191" t="str">
         <f>_xll.qlSimpleQuote(C11,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD2MD_Mx_Quote#0002</v>
+        <v>USD2MD_Mx_Quote#0000</v>
       </c>
       <c r="E11" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -10738,14 +10740,14 @@
         <v>USDX2MD=</v>
       </c>
       <c r="K11" s="187">
-        <v>0.26355000000000001</v>
+        <v>0.26749999999999996</v>
       </c>
       <c r="L11" s="187">
-        <v>0.27355000000000002</v>
+        <v>0.27749999999999997</v>
       </c>
       <c r="M11" s="187">
         <f t="shared" si="4"/>
-        <v>0.26855000000000001</v>
+        <v>0.27249999999999996</v>
       </c>
       <c r="N11" s="172"/>
       <c r="O11" s="194">
@@ -10753,11 +10755,11 @@
       </c>
       <c r="P11" s="172"/>
       <c r="Q11" s="187">
-        <v>0.26855000000000001</v>
-      </c>
-      <c r="R11" s="189" t="e">
+        <v>0.27249999999999996</v>
+      </c>
+      <c r="R11" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D11,Q11/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>3.9499999999999605E-5</v>
       </c>
       <c r="S11" s="16"/>
     </row>
@@ -10772,7 +10774,7 @@
       </c>
       <c r="D12" s="191" t="str">
         <f>_xll.qlSimpleQuote(C12,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3MD_Mx_Quote#0002</v>
+        <v>USD3MD_Mx_Quote#0000</v>
       </c>
       <c r="E12" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -10789,14 +10791,14 @@
         <v>USDX3MD=</v>
       </c>
       <c r="K12" s="187">
-        <v>0.32799999999999996</v>
+        <v>0.35060000000000002</v>
       </c>
       <c r="L12" s="187">
-        <v>0.33799999999999997</v>
+        <v>0.36059999999999998</v>
       </c>
       <c r="M12" s="187">
         <f t="shared" si="4"/>
-        <v>0.33299999999999996</v>
+        <v>0.35560000000000003</v>
       </c>
       <c r="N12" s="172"/>
       <c r="O12" s="194">
@@ -10804,11 +10806,11 @@
       </c>
       <c r="P12" s="172"/>
       <c r="Q12" s="187">
-        <v>0.33299999999999996</v>
-      </c>
-      <c r="R12" s="189" t="e">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="R12" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D12,Q12/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>2.2600000000000051E-4</v>
       </c>
       <c r="S12" s="16"/>
     </row>
@@ -10823,7 +10825,7 @@
       </c>
       <c r="D13" s="191" t="str">
         <f>_xll.qlSimpleQuote(C13,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD4MD_Mx_Quote#0002</v>
+        <v>USD4MD_Mx_Quote#0000</v>
       </c>
       <c r="E13" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -10840,14 +10842,14 @@
         <v>USDX4MD=</v>
       </c>
       <c r="K13" s="187">
-        <v>0.39817582400000001</v>
+        <v>0.42489655199999998</v>
       </c>
       <c r="L13" s="187">
-        <v>0.40817582400000002</v>
+        <v>0.43489655199999999</v>
       </c>
       <c r="M13" s="187">
         <f t="shared" si="4"/>
-        <v>0.40317582400000002</v>
+        <v>0.42989655199999999</v>
       </c>
       <c r="N13" s="172"/>
       <c r="O13" s="194">
@@ -10855,11 +10857,11 @@
       </c>
       <c r="P13" s="172"/>
       <c r="Q13" s="187">
-        <v>0.40317582400000002</v>
-      </c>
-      <c r="R13" s="189" t="e">
+        <v>0.42989655199999999</v>
+      </c>
+      <c r="R13" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D13,Q13/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>2.6720727999999996E-4</v>
       </c>
       <c r="S13" s="16"/>
     </row>
@@ -10874,7 +10876,7 @@
       </c>
       <c r="D14" s="191" t="str">
         <f>_xll.qlSimpleQuote(C14,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD5MD_Mx_Quote#0002</v>
+        <v>USD5MD_Mx_Quote#0000</v>
       </c>
       <c r="E14" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -10891,14 +10893,14 @@
         <v>USDX5MD=</v>
       </c>
       <c r="K14" s="187">
-        <v>0.47287912099999996</v>
+        <v>0.50744827600000009</v>
       </c>
       <c r="L14" s="187">
-        <v>0.48287912100000002</v>
+        <v>0.51744827599999998</v>
       </c>
       <c r="M14" s="187">
         <f t="shared" si="4"/>
-        <v>0.47787912099999996</v>
+        <v>0.51244827599999998</v>
       </c>
       <c r="N14" s="172"/>
       <c r="O14" s="194">
@@ -10906,11 +10908,11 @@
       </c>
       <c r="P14" s="172"/>
       <c r="Q14" s="187">
-        <v>0.47787912099999996</v>
-      </c>
-      <c r="R14" s="189" t="e">
+        <v>0.51244827599999998</v>
+      </c>
+      <c r="R14" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D14,Q14/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>3.4569155000000081E-4</v>
       </c>
       <c r="S14" s="16"/>
     </row>
@@ -10925,7 +10927,7 @@
       </c>
       <c r="D15" s="191" t="str">
         <f>_xll.qlSimpleQuote(C15,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD6MD_Mx_Quote#0002</v>
+        <v>USD6MD_Mx_Quote#0000</v>
       </c>
       <c r="E15" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -10942,14 +10944,14 @@
         <v>USDX6MD=</v>
       </c>
       <c r="K15" s="187">
-        <v>0.53400000000000003</v>
+        <v>0.59000000000000008</v>
       </c>
       <c r="L15" s="187">
-        <v>0.54400000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="M15" s="187">
         <f t="shared" si="4"/>
-        <v>0.53900000000000003</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="N15" s="172"/>
       <c r="O15" s="194">
@@ -10957,11 +10959,11 @@
       </c>
       <c r="P15" s="172"/>
       <c r="Q15" s="187">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="R15" s="189" t="e">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="R15" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D15,Q15/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>5.5999999999999887E-4</v>
       </c>
       <c r="S15" s="16"/>
     </row>
@@ -10976,7 +10978,7 @@
       </c>
       <c r="D16" s="191" t="str">
         <f>_xll.qlSimpleQuote(C16,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD7MD_Mx_Quote#0002</v>
+        <v>USD7MD_Mx_Quote#0000</v>
       </c>
       <c r="E16" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -10993,14 +10995,14 @@
         <v>USDX7MD=</v>
       </c>
       <c r="K16" s="187">
-        <v>0.58716331499999996</v>
+        <v>0.64678027000000005</v>
       </c>
       <c r="L16" s="187">
-        <v>0.59716331499999997</v>
+        <v>0.65678026999999994</v>
       </c>
       <c r="M16" s="187">
         <f t="shared" si="4"/>
-        <v>0.59216331499999997</v>
+        <v>0.65178026999999994</v>
       </c>
       <c r="N16" s="172"/>
       <c r="O16" s="194">
@@ -11008,11 +11010,11 @@
       </c>
       <c r="P16" s="172"/>
       <c r="Q16" s="187">
-        <v>0.59216331499999997</v>
-      </c>
-      <c r="R16" s="189" t="e">
+        <v>0.65178026999999994</v>
+      </c>
+      <c r="R16" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D16,Q16/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>5.961695500000001E-4</v>
       </c>
       <c r="S16" s="16"/>
     </row>
@@ -11027,7 +11029,7 @@
       </c>
       <c r="D17" s="191" t="str">
         <f>_xll.qlSimpleQuote(C17,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD8MD_Mx_Quote#0002</v>
+        <v>USD8MD_Mx_Quote#0000</v>
       </c>
       <c r="E17" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -11044,14 +11046,14 @@
         <v>USDX8MD=</v>
       </c>
       <c r="K17" s="187">
-        <v>0.642041576</v>
+        <v>0.70172891900000001</v>
       </c>
       <c r="L17" s="187">
-        <v>0.65204157600000001</v>
+        <v>0.71172891900000002</v>
       </c>
       <c r="M17" s="187">
         <f t="shared" si="4"/>
-        <v>0.64704157600000001</v>
+        <v>0.70672891900000001</v>
       </c>
       <c r="N17" s="172"/>
       <c r="O17" s="194">
@@ -11059,11 +11061,11 @@
       </c>
       <c r="P17" s="172"/>
       <c r="Q17" s="187">
-        <v>0.64704157600000001</v>
-      </c>
-      <c r="R17" s="189" t="e">
+        <v>0.70672891900000001</v>
+      </c>
+      <c r="R17" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D17,Q17/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>5.9687343000000039E-4</v>
       </c>
       <c r="S17" s="16"/>
     </row>
@@ -11078,7 +11080,7 @@
       </c>
       <c r="D18" s="191" t="str">
         <f>_xll.qlSimpleQuote(C18,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD9MD_Mx_Quote#0002</v>
+        <v>USD9MD_Mx_Quote#0000</v>
       </c>
       <c r="E18" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -11095,14 +11097,14 @@
         <v>USDX9MD=</v>
       </c>
       <c r="K18" s="187">
-        <v>0.69177500000000003</v>
+        <v>0.76217243200000007</v>
       </c>
       <c r="L18" s="187">
-        <v>0.70177500000000004</v>
+        <v>0.77217243199999996</v>
       </c>
       <c r="M18" s="187">
         <f t="shared" si="4"/>
-        <v>0.69677500000000003</v>
+        <v>0.76717243199999996</v>
       </c>
       <c r="N18" s="172"/>
       <c r="O18" s="194">
@@ -11110,11 +11112,11 @@
       </c>
       <c r="P18" s="172"/>
       <c r="Q18" s="187">
-        <v>0.69677500000000003</v>
-      </c>
-      <c r="R18" s="189" t="e">
+        <v>0.76717243199999996</v>
+      </c>
+      <c r="R18" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D18,Q18/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>7.0397432000000003E-4</v>
       </c>
       <c r="S18" s="16"/>
     </row>
@@ -11129,7 +11131,7 @@
       </c>
       <c r="D19" s="191" t="str">
         <f>_xll.qlSimpleQuote(C19,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD10MD_Mx_Quote#0002</v>
+        <v>USD10MD_Mx_Quote#0000</v>
       </c>
       <c r="E19" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -11146,14 +11148,14 @@
         <v>USDX10MD=</v>
       </c>
       <c r="K19" s="187">
-        <v>0.74322337000000005</v>
+        <v>0.81528945900000005</v>
       </c>
       <c r="L19" s="187">
-        <v>0.75322336999999995</v>
+        <v>0.82528945900000006</v>
       </c>
       <c r="M19" s="187">
         <f t="shared" si="4"/>
-        <v>0.74822337000000005</v>
+        <v>0.82028945900000005</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="194">
@@ -11161,11 +11163,11 @@
       </c>
       <c r="P19" s="172"/>
       <c r="Q19" s="187">
-        <v>0.74822337000000005</v>
-      </c>
-      <c r="R19" s="189" t="e">
+        <v>0.82028945900000005</v>
+      </c>
+      <c r="R19" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D19,Q19/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>7.2066089000000048E-4</v>
       </c>
       <c r="S19" s="16"/>
     </row>
@@ -11180,7 +11182,7 @@
       </c>
       <c r="D20" s="191" t="str">
         <f>_xll.qlSimpleQuote(C20,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD11MD_Mx_Quote#0002</v>
+        <v>USD11MD_Mx_Quote#0000</v>
       </c>
       <c r="E20" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -11197,14 +11199,14 @@
         <v>USDX11MD=</v>
       </c>
       <c r="K20" s="187">
-        <v>0.79810163000000001</v>
+        <v>0.87023810800000001</v>
       </c>
       <c r="L20" s="187">
-        <v>0.80810163000000002</v>
+        <v>0.88023810800000002</v>
       </c>
       <c r="M20" s="187">
         <f t="shared" si="4"/>
-        <v>0.80310163000000001</v>
+        <v>0.87523810800000001</v>
       </c>
       <c r="N20" s="172"/>
       <c r="O20" s="194">
@@ -11212,11 +11214,11 @@
       </c>
       <c r="P20" s="172"/>
       <c r="Q20" s="187">
-        <v>0.80310163000000001</v>
-      </c>
-      <c r="R20" s="189" t="e">
+        <v>0.87523810800000001</v>
+      </c>
+      <c r="R20" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D20,Q20/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>7.21364779999999E-4</v>
       </c>
       <c r="S20" s="16"/>
     </row>
@@ -11231,7 +11233,7 @@
       </c>
       <c r="D21" s="191" t="str">
         <f>_xll.qlSimpleQuote(C21,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD1YD_Mx_Quote#0002</v>
+        <v>USD1YD_Mx_Quote#0000</v>
       </c>
       <c r="E21" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -11248,14 +11250,14 @@
         <v>USDX1YD=</v>
       </c>
       <c r="K21" s="188">
-        <v>0.84955000000000003</v>
+        <v>0.92884999999999995</v>
       </c>
       <c r="L21" s="188">
-        <v>0.85954999999999993</v>
+        <v>0.93885000000000007</v>
       </c>
       <c r="M21" s="188">
         <f t="shared" si="4"/>
-        <v>0.85454999999999992</v>
+        <v>0.93385000000000007</v>
       </c>
       <c r="N21" s="172"/>
       <c r="O21" s="194">
@@ -11263,11 +11265,11 @@
       </c>
       <c r="P21" s="172"/>
       <c r="Q21" s="188">
-        <v>0.85454999999999992</v>
-      </c>
-      <c r="R21" s="199" t="e">
+        <v>0.93385000000000007</v>
+      </c>
+      <c r="R21" s="199">
         <f>_xll.qlSimpleQuoteSetValue(D21,Q21/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>7.9300000000000204E-4</v>
       </c>
       <c r="S21" s="16"/>
     </row>
@@ -11280,7 +11282,7 @@
       </c>
       <c r="D22" s="201" t="str">
         <f>_xll.qlSimpleQuote(C22,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_STUB_Quote#0002</v>
+        <v>USD_STUB_Quote#0000</v>
       </c>
       <c r="E22" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -11294,14 +11296,14 @@
         <v>150</v>
       </c>
       <c r="K22" s="188">
-        <v>0.68848994600000002</v>
+        <v>0.645443514</v>
       </c>
       <c r="L22" s="188">
-        <v>0.70848994600000004</v>
+        <v>0.66544351400000001</v>
       </c>
       <c r="M22" s="188">
         <f t="shared" si="4"/>
-        <v>0.69848994600000003</v>
+        <v>0.655443514</v>
       </c>
       <c r="N22" s="172"/>
       <c r="O22" s="205">
@@ -11309,11 +11311,11 @@
       </c>
       <c r="P22" s="172"/>
       <c r="Q22" s="188">
-        <v>0.69848994600000003</v>
-      </c>
-      <c r="R22" s="199" t="e">
+        <v>0.655443514</v>
+      </c>
+      <c r="R22" s="199">
         <f>_xll.qlSimpleQuoteSetValue(D22,Q22/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-4.3046431999999978E-4</v>
       </c>
       <c r="S22" s="16"/>
     </row>
@@ -11399,7 +11401,7 @@
       <c r="Q1" s="212"/>
       <c r="R1" s="166">
         <f>_xll.ohTrigger(R4:R41)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="S1" s="75"/>
     </row>
@@ -11441,7 +11443,7 @@
       <c r="I3" s="217"/>
       <c r="J3" s="178" t="str">
         <f>_xll.RData(Instruments,K3:L3,"RTFEED:DTSIMI1","FRQ:1S",,K4)</f>
-        <v>Updated at 11:38:14</v>
+        <v>Updated at 10:01:31</v>
       </c>
       <c r="K3" s="179" t="s">
         <v>117</v>
@@ -11477,7 +11479,7 @@
       </c>
       <c r="D4" s="57" t="str">
         <f>_xll.qlSimpleQuote(C4,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_1Y_Quote#0002</v>
+        <v>USD_CURVE_3M_1Y_Quote#0000</v>
       </c>
       <c r="E4" s="220" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -11493,14 +11495,14 @@
         <v>USD_CURVE_3M_1Y</v>
       </c>
       <c r="K4" s="187">
-        <v>0.54622977400000006</v>
+        <v>0.61737013600000001</v>
       </c>
       <c r="L4" s="187">
-        <v>0.54622977400000006</v>
+        <v>0.61737013600000001</v>
       </c>
       <c r="M4" s="187">
         <f>IF(ISERROR(AVERAGE(K4,L4)),#NUM!,AVERAGE(K4,L4))</f>
-        <v>0.54622977400000006</v>
+        <v>0.61737013600000001</v>
       </c>
       <c r="N4" s="222"/>
       <c r="O4" s="223">
@@ -11509,7 +11511,7 @@
       <c r="P4" s="222"/>
       <c r="Q4" s="187">
         <f t="array" ref="Q4:Q40">QuoteLive</f>
-        <v>0.54622977400000006</v>
+        <v>0.61737013600000001</v>
       </c>
       <c r="R4" s="198">
         <f>_xll.qlSimpleQuoteSetValue(D4,Q4/100,Trigger)</f>
@@ -11529,7 +11531,7 @@
       </c>
       <c r="D5" s="62" t="str">
         <f>_xll.qlSimpleQuote(C5,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_15M_Quote#0002</v>
+        <v>USD_CURVE_3M_15M_Quote#0000</v>
       </c>
       <c r="E5" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -11580,7 +11582,7 @@
       </c>
       <c r="D6" s="62" t="str">
         <f>_xll.qlSimpleQuote(C6,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_18M_Quote#0002</v>
+        <v>USD_CURVE_3M_18M_Quote#0000</v>
       </c>
       <c r="E6" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -11631,7 +11633,7 @@
       </c>
       <c r="D7" s="62" t="str">
         <f>_xll.qlSimpleQuote(C7,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_21M_Quote#0002</v>
+        <v>USD_CURVE_3M_21M_Quote#0000</v>
       </c>
       <c r="E7" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -11682,7 +11684,7 @@
       </c>
       <c r="D8" s="62" t="str">
         <f>_xll.qlSimpleQuote(C8,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_2Y_Quote#0002</v>
+        <v>USD_CURVE_3M_2Y_Quote#0000</v>
       </c>
       <c r="E8" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -11698,14 +11700,14 @@
         <v>USD_CURVE_3M_2Y</v>
       </c>
       <c r="K8" s="187">
-        <v>0.86304651999999993</v>
+        <v>0.94879578600000003</v>
       </c>
       <c r="L8" s="187">
-        <v>0.86304651999999993</v>
+        <v>0.94879578600000003</v>
       </c>
       <c r="M8" s="187">
         <f t="shared" si="4"/>
-        <v>0.86304651999999993</v>
+        <v>0.94879578600000003</v>
       </c>
       <c r="N8" s="222"/>
       <c r="O8" s="223">
@@ -11713,7 +11715,7 @@
       </c>
       <c r="P8" s="222"/>
       <c r="Q8" s="187">
-        <v>0.86304651999999993</v>
+        <v>0.94879578600000003</v>
       </c>
       <c r="R8" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D8,Q8/100,Trigger)</f>
@@ -11733,7 +11735,7 @@
       </c>
       <c r="D9" s="62" t="str">
         <f>_xll.qlSimpleQuote(C9,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_3Y_Quote#0002</v>
+        <v>USD_CURVE_3M_3Y_Quote#0000</v>
       </c>
       <c r="E9" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -11749,14 +11751,14 @@
         <v>USD_CURVE_3M_3Y</v>
       </c>
       <c r="K9" s="187">
-        <v>1.1379999999999999</v>
+        <v>1.23433978</v>
       </c>
       <c r="L9" s="187">
-        <v>1.1379999999999999</v>
+        <v>1.23433978</v>
       </c>
       <c r="M9" s="187">
         <f t="shared" si="4"/>
-        <v>1.1379999999999999</v>
+        <v>1.23433978</v>
       </c>
       <c r="N9" s="222"/>
       <c r="O9" s="223">
@@ -11764,7 +11766,7 @@
       </c>
       <c r="P9" s="222"/>
       <c r="Q9" s="187">
-        <v>1.1379999999999999</v>
+        <v>1.23433978</v>
       </c>
       <c r="R9" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D9,Q9/100,Trigger)</f>
@@ -11784,7 +11786,7 @@
       </c>
       <c r="D10" s="62" t="str">
         <f>_xll.qlSimpleQuote(C10,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_4Y_Quote#0002</v>
+        <v>USD_CURVE_3M_4Y_Quote#0000</v>
       </c>
       <c r="E10" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -11800,14 +11802,14 @@
         <v>USD_CURVE_3M_4Y</v>
       </c>
       <c r="K10" s="187">
-        <v>1.38</v>
+        <v>1.4635547660000001</v>
       </c>
       <c r="L10" s="187">
-        <v>1.38</v>
+        <v>1.4635547660000001</v>
       </c>
       <c r="M10" s="187">
         <f t="shared" si="4"/>
-        <v>1.38</v>
+        <v>1.4635547660000001</v>
       </c>
       <c r="N10" s="222"/>
       <c r="O10" s="223">
@@ -11815,11 +11817,11 @@
       </c>
       <c r="P10" s="222"/>
       <c r="Q10" s="187">
-        <v>1.38</v>
+        <v>1.4635547660000001</v>
       </c>
       <c r="R10" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D10,Q10/100,Trigger)</f>
-        <v>0</v>
+        <v>4.1000000096380607E-10</v>
       </c>
       <c r="S10" s="16"/>
       <c r="Y10" s="218"/>
@@ -11835,7 +11837,7 @@
       </c>
       <c r="D11" s="62" t="str">
         <f>_xll.qlSimpleQuote(C11,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_5Y_Quote#0002</v>
+        <v>USD_CURVE_3M_5Y_Quote#0000</v>
       </c>
       <c r="E11" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -11851,14 +11853,14 @@
         <v>USD_CURVE_3M_5Y</v>
       </c>
       <c r="K11" s="187">
-        <v>1.585</v>
+        <v>1.6477186610000001</v>
       </c>
       <c r="L11" s="187">
-        <v>1.585</v>
+        <v>1.6477186610000001</v>
       </c>
       <c r="M11" s="187">
         <f t="shared" si="4"/>
-        <v>1.585</v>
+        <v>1.6477186610000001</v>
       </c>
       <c r="N11" s="222"/>
       <c r="O11" s="223">
@@ -11866,7 +11868,7 @@
       </c>
       <c r="P11" s="222"/>
       <c r="Q11" s="187">
-        <v>1.585</v>
+        <v>1.6477186610000001</v>
       </c>
       <c r="R11" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D11,Q11/100,Trigger)</f>
@@ -11886,7 +11888,7 @@
       </c>
       <c r="D12" s="62" t="str">
         <f>_xll.qlSimpleQuote(C12,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_6Y_Quote#0002</v>
+        <v>USD_CURVE_3M_6Y_Quote#0000</v>
       </c>
       <c r="E12" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -11902,14 +11904,14 @@
         <v>USD_CURVE_3M_6Y</v>
       </c>
       <c r="K12" s="187">
-        <v>1.7629999999999999</v>
+        <v>1.803047565</v>
       </c>
       <c r="L12" s="187">
-        <v>1.7629999999999999</v>
+        <v>1.803047565</v>
       </c>
       <c r="M12" s="187">
         <f t="shared" si="4"/>
-        <v>1.7629999999999999</v>
+        <v>1.803047565</v>
       </c>
       <c r="N12" s="222"/>
       <c r="O12" s="223">
@@ -11917,7 +11919,7 @@
       </c>
       <c r="P12" s="222"/>
       <c r="Q12" s="187">
-        <v>1.7629999999999999</v>
+        <v>1.803047565</v>
       </c>
       <c r="R12" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D12,Q12/100,Trigger)</f>
@@ -11937,7 +11939,7 @@
       </c>
       <c r="D13" s="62" t="str">
         <f>_xll.qlSimpleQuote(C13,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_7Y_Quote#0002</v>
+        <v>USD_CURVE_3M_7Y_Quote#0000</v>
       </c>
       <c r="E13" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -11953,14 +11955,14 @@
         <v>USD_CURVE_3M_7Y</v>
       </c>
       <c r="K13" s="187">
-        <v>1.9119999999999999</v>
+        <v>1.9332942020000001</v>
       </c>
       <c r="L13" s="187">
-        <v>1.9119999999999999</v>
+        <v>1.9332942020000001</v>
       </c>
       <c r="M13" s="187">
         <f t="shared" si="4"/>
-        <v>1.9119999999999999</v>
+        <v>1.9332942020000001</v>
       </c>
       <c r="N13" s="222"/>
       <c r="O13" s="223">
@@ -11968,7 +11970,7 @@
       </c>
       <c r="P13" s="222"/>
       <c r="Q13" s="187">
-        <v>1.9119999999999999</v>
+        <v>1.9332942020000001</v>
       </c>
       <c r="R13" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D13,Q13/100,Trigger)</f>
@@ -11988,7 +11990,7 @@
       </c>
       <c r="D14" s="62" t="str">
         <f>_xll.qlSimpleQuote(C14,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_8Y_Quote#0002</v>
+        <v>USD_CURVE_3M_8Y_Quote#0000</v>
       </c>
       <c r="E14" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -12004,14 +12006,14 @@
         <v>USD_CURVE_3M_8Y</v>
       </c>
       <c r="K14" s="187">
-        <v>2.0350000000000001</v>
+        <v>2.0403366100000002</v>
       </c>
       <c r="L14" s="187">
-        <v>2.0350000000000001</v>
+        <v>2.0403366100000002</v>
       </c>
       <c r="M14" s="187">
         <f t="shared" si="4"/>
-        <v>2.0350000000000001</v>
+        <v>2.0403366100000002</v>
       </c>
       <c r="N14" s="222"/>
       <c r="O14" s="223">
@@ -12019,11 +12021,11 @@
       </c>
       <c r="P14" s="222"/>
       <c r="Q14" s="187">
-        <v>2.0350000000000001</v>
+        <v>2.0403366100000002</v>
       </c>
       <c r="R14" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D14,Q14/100,Trigger)</f>
-        <v>0</v>
+        <v>2.2999999821360362E-10</v>
       </c>
       <c r="S14" s="16"/>
       <c r="Y14" s="218"/>
@@ -12039,7 +12041,7 @@
       </c>
       <c r="D15" s="62" t="str">
         <f>_xll.qlSimpleQuote(C15,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_9Y_Quote#0002</v>
+        <v>USD_CURVE_3M_9Y_Quote#0000</v>
       </c>
       <c r="E15" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -12055,14 +12057,14 @@
         <v>USD_CURVE_3M_9Y</v>
       </c>
       <c r="K15" s="187">
-        <v>2.1349999999999998</v>
+        <v>2.1281468889999999</v>
       </c>
       <c r="L15" s="187">
-        <v>2.1349999999999998</v>
+        <v>2.1281468889999999</v>
       </c>
       <c r="M15" s="187">
         <f t="shared" si="4"/>
-        <v>2.1349999999999998</v>
+        <v>2.1281468889999999</v>
       </c>
       <c r="N15" s="222"/>
       <c r="O15" s="223">
@@ -12070,7 +12072,7 @@
       </c>
       <c r="P15" s="222"/>
       <c r="Q15" s="187">
-        <v>2.1349999999999998</v>
+        <v>2.1281468889999999</v>
       </c>
       <c r="R15" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D15,Q15/100,Trigger)</f>
@@ -12090,7 +12092,7 @@
       </c>
       <c r="D16" s="62" t="str">
         <f>_xll.qlSimpleQuote(C16,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_10Y_Quote#0002</v>
+        <v>USD_CURVE_3M_10Y_Quote#0000</v>
       </c>
       <c r="E16" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -12106,14 +12108,14 @@
         <v>USD_CURVE_3M_10Y</v>
       </c>
       <c r="K16" s="187">
-        <v>2.218</v>
+        <v>2.2032069930000002</v>
       </c>
       <c r="L16" s="187">
-        <v>2.218</v>
+        <v>2.2032069930000002</v>
       </c>
       <c r="M16" s="187">
         <f t="shared" si="4"/>
-        <v>2.218</v>
+        <v>2.2032069930000002</v>
       </c>
       <c r="N16" s="222"/>
       <c r="O16" s="223">
@@ -12121,7 +12123,7 @@
       </c>
       <c r="P16" s="222"/>
       <c r="Q16" s="187">
-        <v>2.218</v>
+        <v>2.2032069930000002</v>
       </c>
       <c r="R16" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D16,Q16/100,Trigger)</f>
@@ -12141,7 +12143,7 @@
       </c>
       <c r="D17" s="62" t="str">
         <f>_xll.qlSimpleQuote(C17,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_11Y_Quote#0002</v>
+        <v>USD_CURVE_3M_11Y_Quote#0000</v>
       </c>
       <c r="E17" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -12157,14 +12159,14 @@
         <v>USD_CURVE_3M_11Y</v>
       </c>
       <c r="K17" s="187">
-        <v>2.2889748619999999</v>
+        <v>2.2701030599999998</v>
       </c>
       <c r="L17" s="187">
-        <v>2.2889748619999999</v>
+        <v>2.2701030599999998</v>
       </c>
       <c r="M17" s="187">
         <f t="shared" si="4"/>
-        <v>2.2889748619999999</v>
+        <v>2.2701030599999998</v>
       </c>
       <c r="N17" s="222"/>
       <c r="O17" s="223">
@@ -12172,11 +12174,11 @@
       </c>
       <c r="P17" s="222"/>
       <c r="Q17" s="187">
-        <v>2.2889748619999999</v>
+        <v>2.2701030599999998</v>
       </c>
       <c r="R17" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D17,Q17/100,Trigger)</f>
-        <v>-1.5700000015328452E-9</v>
+        <v>0</v>
       </c>
       <c r="S17" s="16"/>
       <c r="Y17" s="218"/>
@@ -12192,7 +12194,7 @@
       </c>
       <c r="D18" s="62" t="str">
         <f>_xll.qlSimpleQuote(C18,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_12Y_Quote#0002</v>
+        <v>USD_CURVE_3M_12Y_Quote#0000</v>
       </c>
       <c r="E18" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -12208,14 +12210,14 @@
         <v>USD_CURVE_3M_12Y</v>
       </c>
       <c r="K18" s="187">
-        <v>2.3490000000000002</v>
+        <v>2.3280086600000001</v>
       </c>
       <c r="L18" s="187">
-        <v>2.3490000000000002</v>
+        <v>2.3280086600000001</v>
       </c>
       <c r="M18" s="187">
         <f t="shared" si="4"/>
-        <v>2.3490000000000002</v>
+        <v>2.3280086600000001</v>
       </c>
       <c r="N18" s="222"/>
       <c r="O18" s="223">
@@ -12223,7 +12225,7 @@
       </c>
       <c r="P18" s="222"/>
       <c r="Q18" s="187">
-        <v>2.3490000000000002</v>
+        <v>2.3280086600000001</v>
       </c>
       <c r="R18" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D18,Q18/100,Trigger)</f>
@@ -12243,7 +12245,7 @@
       </c>
       <c r="D19" s="62" t="str">
         <f>_xll.qlSimpleQuote(C19,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_13Y_Quote#0002</v>
+        <v>USD_CURVE_3M_13Y_Quote#0000</v>
       </c>
       <c r="E19" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -12259,14 +12261,14 @@
         <v>USD_CURVE_3M_13Y</v>
       </c>
       <c r="K19" s="187">
-        <v>2.398863484</v>
+        <v>2.3765037219999998</v>
       </c>
       <c r="L19" s="187">
-        <v>2.398863484</v>
+        <v>2.3765037219999998</v>
       </c>
       <c r="M19" s="187">
         <f t="shared" si="4"/>
-        <v>2.398863484</v>
+        <v>2.3765037219999998</v>
       </c>
       <c r="N19" s="222"/>
       <c r="O19" s="223">
@@ -12274,11 +12276,11 @@
       </c>
       <c r="P19" s="222"/>
       <c r="Q19" s="187">
-        <v>2.398863484</v>
+        <v>2.3765037219999998</v>
       </c>
       <c r="R19" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D19,Q19/100,Trigger)</f>
-        <v>6.6100000022106808E-9</v>
+        <v>1.5999999936067155E-10</v>
       </c>
       <c r="S19" s="16"/>
       <c r="Y19" s="218"/>
@@ -12294,7 +12296,7 @@
       </c>
       <c r="D20" s="62" t="str">
         <f>_xll.qlSimpleQuote(C20,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_14Y_Quote#0002</v>
+        <v>USD_CURVE_3M_14Y_Quote#0000</v>
       </c>
       <c r="E20" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -12310,14 +12312,14 @@
         <v>USD_CURVE_3M_14Y</v>
       </c>
       <c r="K20" s="187">
-        <v>2.4404405640000002</v>
+        <v>2.4170805689999999</v>
       </c>
       <c r="L20" s="187">
-        <v>2.4404405640000002</v>
+        <v>2.4170805689999999</v>
       </c>
       <c r="M20" s="187">
         <f t="shared" si="4"/>
-        <v>2.4404405640000002</v>
+        <v>2.4170805689999999</v>
       </c>
       <c r="N20" s="222"/>
       <c r="O20" s="223">
@@ -12325,11 +12327,11 @@
       </c>
       <c r="P20" s="222"/>
       <c r="Q20" s="187">
-        <v>2.4404405640000002</v>
+        <v>2.4170805689999999</v>
       </c>
       <c r="R20" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D20,Q20/100,Trigger)</f>
-        <v>9.4600000020983455E-9</v>
+        <v>0</v>
       </c>
       <c r="S20" s="16"/>
       <c r="Y20" s="218"/>
@@ -12345,7 +12347,7 @@
       </c>
       <c r="D21" s="62" t="str">
         <f>_xll.qlSimpleQuote(C21,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_15Y_Quote#0002</v>
+        <v>USD_CURVE_3M_15Y_Quote#0000</v>
       </c>
       <c r="E21" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -12361,14 +12363,14 @@
         <v>USD_CURVE_3M_15Y</v>
       </c>
       <c r="K21" s="187">
-        <v>2.476</v>
+        <v>2.4524312610000001</v>
       </c>
       <c r="L21" s="187">
-        <v>2.476</v>
+        <v>2.4524312610000001</v>
       </c>
       <c r="M21" s="187">
         <f t="shared" si="4"/>
-        <v>2.476</v>
+        <v>2.4524312610000001</v>
       </c>
       <c r="N21" s="222"/>
       <c r="O21" s="223">
@@ -12376,7 +12378,7 @@
       </c>
       <c r="P21" s="222"/>
       <c r="Q21" s="187">
-        <v>2.476</v>
+        <v>2.4524312610000001</v>
       </c>
       <c r="R21" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D21,Q21/100,Trigger)</f>
@@ -12396,7 +12398,7 @@
       </c>
       <c r="D22" s="62" t="str">
         <f>_xll.qlSimpleQuote(C22,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_16Y_Quote#0002</v>
+        <v>USD_CURVE_3M_16Y_Quote#0000</v>
       </c>
       <c r="E22" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -12412,14 +12414,14 @@
         <v>USD_CURVE_3M_16Y</v>
       </c>
       <c r="K22" s="187">
-        <v>2.5064102479999999</v>
+        <v>2.4838327320000002</v>
       </c>
       <c r="L22" s="187">
-        <v>2.5064102479999999</v>
+        <v>2.4838327320000002</v>
       </c>
       <c r="M22" s="187">
         <f t="shared" si="4"/>
-        <v>2.5064102479999999</v>
+        <v>2.4838327320000002</v>
       </c>
       <c r="N22" s="222"/>
       <c r="O22" s="223">
@@ -12427,11 +12429,11 @@
       </c>
       <c r="P22" s="222"/>
       <c r="Q22" s="187">
-        <v>2.5064102479999999</v>
+        <v>2.4838327320000002</v>
       </c>
       <c r="R22" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D22,Q22/100,Trigger)</f>
-        <v>-2.3620000001028929E-8</v>
+        <v>0</v>
       </c>
       <c r="S22" s="16"/>
       <c r="Y22" s="218"/>
@@ -12447,7 +12449,7 @@
       </c>
       <c r="D23" s="62" t="str">
         <f>_xll.qlSimpleQuote(C23,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_17Y_Quote#0002</v>
+        <v>USD_CURVE_3M_17Y_Quote#0000</v>
       </c>
       <c r="E23" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D23)</f>
@@ -12463,14 +12465,14 @@
         <v>USD_CURVE_3M_17Y</v>
       </c>
       <c r="K23" s="187">
-        <v>2.5328101009999999</v>
+        <v>2.5117060369999997</v>
       </c>
       <c r="L23" s="187">
-        <v>2.5328101009999999</v>
+        <v>2.5117060369999997</v>
       </c>
       <c r="M23" s="187">
         <f t="shared" si="4"/>
-        <v>2.5328101009999999</v>
+        <v>2.5117060369999997</v>
       </c>
       <c r="N23" s="222"/>
       <c r="O23" s="223">
@@ -12478,11 +12480,11 @@
       </c>
       <c r="P23" s="222"/>
       <c r="Q23" s="187">
-        <v>2.5328101009999999</v>
+        <v>2.5117060369999997</v>
       </c>
       <c r="R23" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D23,Q23/100,Trigger)</f>
-        <v>-4.7790000002462252E-8</v>
+        <v>0</v>
       </c>
       <c r="S23" s="16"/>
       <c r="Y23" s="218"/>
@@ -12498,7 +12500,7 @@
       </c>
       <c r="D24" s="62" t="str">
         <f>_xll.qlSimpleQuote(C24,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_18Y_Quote#0002</v>
+        <v>USD_CURVE_3M_18Y_Quote#0000</v>
       </c>
       <c r="E24" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D24)</f>
@@ -12514,14 +12516,14 @@
         <v>USD_CURVE_3M_18Y</v>
       </c>
       <c r="K24" s="187">
-        <v>2.5556161450000001</v>
+        <v>2.5361362700000001</v>
       </c>
       <c r="L24" s="187">
-        <v>2.5556161450000001</v>
+        <v>2.5361362700000001</v>
       </c>
       <c r="M24" s="187">
         <f t="shared" si="4"/>
-        <v>2.5556161450000001</v>
+        <v>2.5361362700000001</v>
       </c>
       <c r="N24" s="222"/>
       <c r="O24" s="223">
@@ -12529,11 +12531,11 @@
       </c>
       <c r="P24" s="222"/>
       <c r="Q24" s="187">
-        <v>2.5556161450000001</v>
+        <v>2.5361362700000001</v>
       </c>
       <c r="R24" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D24,Q24/100,Trigger)</f>
-        <v>-5.852999999944597E-8</v>
+        <v>0</v>
       </c>
       <c r="S24" s="16"/>
       <c r="Y24" s="218"/>
@@ -12549,7 +12551,7 @@
       </c>
       <c r="D25" s="62" t="str">
         <f>_xll.qlSimpleQuote(C25,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_19Y_Quote#0002</v>
+        <v>USD_CURVE_3M_19Y_Quote#0000</v>
       </c>
       <c r="E25" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D25)</f>
@@ -12565,14 +12567,14 @@
         <v>USD_CURVE_3M_19Y</v>
       </c>
       <c r="K25" s="187">
-        <v>2.575236071</v>
+        <v>2.556976331</v>
       </c>
       <c r="L25" s="187">
-        <v>2.575236071</v>
+        <v>2.556976331</v>
       </c>
       <c r="M25" s="187">
         <f t="shared" si="4"/>
-        <v>2.575236071</v>
+        <v>2.556976331</v>
       </c>
       <c r="N25" s="222"/>
       <c r="O25" s="223">
@@ -12580,11 +12582,11 @@
       </c>
       <c r="P25" s="222"/>
       <c r="Q25" s="187">
-        <v>2.575236071</v>
+        <v>2.556976331</v>
       </c>
       <c r="R25" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D25,Q25/100,Trigger)</f>
-        <v>-4.5279999999481291E-8</v>
+        <v>1.2999999687846042E-10</v>
       </c>
       <c r="S25" s="16"/>
       <c r="Y25" s="218"/>
@@ -12600,7 +12602,7 @@
       </c>
       <c r="D26" s="62" t="str">
         <f>_xll.qlSimpleQuote(C26,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_20Y_Quote#0002</v>
+        <v>USD_CURVE_3M_20Y_Quote#0000</v>
       </c>
       <c r="E26" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D26)</f>
@@ -12616,14 +12618,14 @@
         <v>USD_CURVE_3M_20Y</v>
       </c>
       <c r="K26" s="187">
-        <v>2.5920000000000001</v>
+        <v>2.5745542669999999</v>
       </c>
       <c r="L26" s="187">
-        <v>2.5920000000000001</v>
+        <v>2.5745542669999999</v>
       </c>
       <c r="M26" s="187">
         <f t="shared" si="4"/>
-        <v>2.5920000000000001</v>
+        <v>2.5745542669999999</v>
       </c>
       <c r="N26" s="222"/>
       <c r="O26" s="223">
@@ -12631,7 +12633,7 @@
       </c>
       <c r="P26" s="222"/>
       <c r="Q26" s="187">
-        <v>2.5920000000000001</v>
+        <v>2.5745542669999999</v>
       </c>
       <c r="R26" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D26,Q26/100,Trigger)</f>
@@ -12651,7 +12653,7 @@
       </c>
       <c r="D27" s="62" t="str">
         <f>_xll.qlSimpleQuote(C27,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_21Y_Quote#0002</v>
+        <v>USD_CURVE_3M_21Y_Quote#0000</v>
       </c>
       <c r="E27" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D27)</f>
@@ -12667,14 +12669,14 @@
         <v>USD_CURVE_3M_21Y</v>
       </c>
       <c r="K27" s="187">
-        <v>2.6063160009999997</v>
+        <v>2.5891609330000001</v>
       </c>
       <c r="L27" s="187">
-        <v>2.6063160009999997</v>
+        <v>2.5891609330000001</v>
       </c>
       <c r="M27" s="187">
         <f t="shared" si="4"/>
-        <v>2.6063160009999997</v>
+        <v>2.5891609330000001</v>
       </c>
       <c r="N27" s="222"/>
       <c r="O27" s="223">
@@ -12682,11 +12684,11 @@
       </c>
       <c r="P27" s="222"/>
       <c r="Q27" s="187">
-        <v>2.6063160009999997</v>
+        <v>2.5891609330000001</v>
       </c>
       <c r="R27" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D27,Q27/100,Trigger)</f>
-        <v>7.5259999995913596E-8</v>
+        <v>0</v>
       </c>
       <c r="S27" s="16"/>
       <c r="Y27" s="218"/>
@@ -12702,7 +12704,7 @@
       </c>
       <c r="D28" s="62" t="str">
         <f>_xll.qlSimpleQuote(C28,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_22Y_Quote#0002</v>
+        <v>USD_CURVE_3M_22Y_Quote#0000</v>
       </c>
       <c r="E28" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D28)</f>
@@ -12718,14 +12720,14 @@
         <v>USD_CURVE_3M_22Y</v>
       </c>
       <c r="K28" s="187">
-        <v>2.6184711790000001</v>
+        <v>2.6012806689999999</v>
       </c>
       <c r="L28" s="187">
-        <v>2.6184711790000001</v>
+        <v>2.6012806689999999</v>
       </c>
       <c r="M28" s="187">
         <f t="shared" si="4"/>
-        <v>2.6184711790000001</v>
+        <v>2.6012806689999999</v>
       </c>
       <c r="N28" s="222"/>
       <c r="O28" s="223">
@@ -12733,11 +12735,11 @@
       </c>
       <c r="P28" s="222"/>
       <c r="Q28" s="187">
-        <v>2.6184711790000001</v>
+        <v>2.6012806689999999</v>
       </c>
       <c r="R28" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D28,Q28/100,Trigger)</f>
-        <v>1.4459000000077715E-7</v>
+        <v>1.09999995223653E-10</v>
       </c>
       <c r="S28" s="16"/>
       <c r="Y28" s="218"/>
@@ -12753,7 +12755,7 @@
       </c>
       <c r="D29" s="62" t="str">
         <f>_xll.qlSimpleQuote(C29,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_23Y_Quote#0002</v>
+        <v>USD_CURVE_3M_23Y_Quote#0000</v>
       </c>
       <c r="E29" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D29)</f>
@@ -12769,14 +12771,14 @@
         <v>USD_CURVE_3M_23Y</v>
       </c>
       <c r="K29" s="187">
-        <v>2.629082404</v>
+        <v>2.6115752419999998</v>
       </c>
       <c r="L29" s="187">
-        <v>2.629082404</v>
+        <v>2.6115752419999998</v>
       </c>
       <c r="M29" s="187">
         <f t="shared" si="4"/>
-        <v>2.629082404</v>
+        <v>2.6115752419999998</v>
       </c>
       <c r="N29" s="222"/>
       <c r="O29" s="223">
@@ -12784,11 +12786,11 @@
       </c>
       <c r="P29" s="222"/>
       <c r="Q29" s="187">
-        <v>2.629082404</v>
+        <v>2.6115752419999998</v>
       </c>
       <c r="R29" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D29,Q29/100,Trigger)</f>
-        <v>1.7336000000117702E-7</v>
+        <v>0</v>
       </c>
       <c r="S29" s="16"/>
       <c r="Y29" s="218"/>
@@ -12804,7 +12806,7 @@
       </c>
       <c r="D30" s="62" t="str">
         <f>_xll.qlSimpleQuote(C30,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_24Y_Quote#0002</v>
+        <v>USD_CURVE_3M_24Y_Quote#0000</v>
       </c>
       <c r="E30" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D30)</f>
@@ -12820,14 +12822,14 @@
         <v>USD_CURVE_3M_24Y</v>
       </c>
       <c r="K30" s="187">
-        <v>2.6384814519999997</v>
+        <v>2.6205983320000001</v>
       </c>
       <c r="L30" s="187">
-        <v>2.6384814519999997</v>
+        <v>2.6205983320000001</v>
       </c>
       <c r="M30" s="187">
         <f t="shared" si="4"/>
-        <v>2.6384814519999997</v>
+        <v>2.6205983320000001</v>
       </c>
       <c r="N30" s="222"/>
       <c r="O30" s="223">
@@ -12835,11 +12837,11 @@
       </c>
       <c r="P30" s="222"/>
       <c r="Q30" s="187">
-        <v>2.6384814519999997</v>
+        <v>2.6205983320000001</v>
       </c>
       <c r="R30" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D30,Q30/100,Trigger)</f>
-        <v>1.3292999999706123E-7</v>
+        <v>1.0999999869309995E-10</v>
       </c>
       <c r="S30" s="16"/>
       <c r="Y30" s="218"/>
@@ -12855,7 +12857,7 @@
       </c>
       <c r="D31" s="62" t="str">
         <f>_xll.qlSimpleQuote(C31,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_25Y_Quote#0002</v>
+        <v>USD_CURVE_3M_25Y_Quote#0000</v>
       </c>
       <c r="E31" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D31)</f>
@@ -12871,14 +12873,14 @@
         <v>USD_CURVE_3M_25Y</v>
       </c>
       <c r="K31" s="187">
-        <v>2.6470000000000002</v>
+        <v>2.6286293299999999</v>
       </c>
       <c r="L31" s="187">
-        <v>2.6470000000000002</v>
+        <v>2.6286293299999999</v>
       </c>
       <c r="M31" s="187">
         <f t="shared" si="4"/>
-        <v>2.6470000000000002</v>
+        <v>2.6286293299999999</v>
       </c>
       <c r="N31" s="222"/>
       <c r="O31" s="223">
@@ -12886,7 +12888,7 @@
       </c>
       <c r="P31" s="222"/>
       <c r="Q31" s="187">
-        <v>2.6470000000000002</v>
+        <v>2.6286293299999999</v>
       </c>
       <c r="R31" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D31,Q31/100,Trigger)</f>
@@ -12906,7 +12908,7 @@
       </c>
       <c r="D32" s="62" t="str">
         <f>_xll.qlSimpleQuote(C32,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_26Y_Quote#0002</v>
+        <v>USD_CURVE_3M_26Y_Quote#0000</v>
       </c>
       <c r="E32" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D32)</f>
@@ -12922,14 +12924,14 @@
         <v>USD_CURVE_3M_26Y</v>
       </c>
       <c r="K32" s="187">
-        <v>2.6548444369999999</v>
+        <v>2.6360611110000001</v>
       </c>
       <c r="L32" s="187">
-        <v>2.6548444369999999</v>
+        <v>2.6360611110000001</v>
       </c>
       <c r="M32" s="187">
         <f t="shared" si="4"/>
-        <v>2.6548444369999999</v>
+        <v>2.6360611110000001</v>
       </c>
       <c r="N32" s="222"/>
       <c r="O32" s="223">
@@ -12937,11 +12939,11 @@
       </c>
       <c r="P32" s="222"/>
       <c r="Q32" s="187">
-        <v>2.6548444369999999</v>
+        <v>2.6360611110000001</v>
       </c>
       <c r="R32" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D32,Q32/100,Trigger)</f>
-        <v>-2.1983999999933279E-7</v>
+        <v>0</v>
       </c>
       <c r="S32" s="16"/>
       <c r="Y32" s="218"/>
@@ -12957,7 +12959,7 @@
       </c>
       <c r="D33" s="62" t="str">
         <f>_xll.qlSimpleQuote(C33,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_27Y_Quote#0002</v>
+        <v>USD_CURVE_3M_27Y_Quote#0000</v>
       </c>
       <c r="E33" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D33)</f>
@@ -12973,14 +12975,14 @@
         <v>USD_CURVE_3M_27Y</v>
       </c>
       <c r="K33" s="187">
-        <v>2.6619387420000002</v>
+        <v>2.6428980209999997</v>
       </c>
       <c r="L33" s="187">
-        <v>2.6619387420000002</v>
+        <v>2.6428980209999997</v>
       </c>
       <c r="M33" s="187">
         <f t="shared" si="4"/>
-        <v>2.6619387420000002</v>
+        <v>2.6428980209999997</v>
       </c>
       <c r="N33" s="222"/>
       <c r="O33" s="223">
@@ -12988,11 +12990,11 @@
       </c>
       <c r="P33" s="222"/>
       <c r="Q33" s="187">
-        <v>2.6619387420000002</v>
+        <v>2.6428980209999997</v>
       </c>
       <c r="R33" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D33,Q33/100,Trigger)</f>
-        <v>-4.2445000000140842E-7</v>
+        <v>0</v>
       </c>
       <c r="S33" s="16"/>
       <c r="Y33" s="218"/>
@@ -13008,7 +13010,7 @@
       </c>
       <c r="D34" s="62" t="str">
         <f>_xll.qlSimpleQuote(C34,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_28Y_Quote#0002</v>
+        <v>USD_CURVE_3M_28Y_Quote#0000</v>
       </c>
       <c r="E34" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D34)</f>
@@ -13024,14 +13026,14 @@
         <v>USD_CURVE_3M_28Y</v>
       </c>
       <c r="K34" s="187">
-        <v>2.668333386</v>
+        <v>2.6491189630000003</v>
       </c>
       <c r="L34" s="187">
-        <v>2.668333386</v>
+        <v>2.6491189630000003</v>
       </c>
       <c r="M34" s="187">
         <f t="shared" si="4"/>
-        <v>2.668333386</v>
+        <v>2.6491189630000003</v>
       </c>
       <c r="N34" s="222"/>
       <c r="O34" s="223">
@@ -13039,11 +13041,11 @@
       </c>
       <c r="P34" s="222"/>
       <c r="Q34" s="187">
-        <v>2.668333386</v>
+        <v>2.6491189630000003</v>
       </c>
       <c r="R34" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D34,Q34/100,Trigger)</f>
-        <v>-5.1180999999581034E-7</v>
+        <v>0</v>
       </c>
       <c r="S34" s="16"/>
       <c r="Y34" s="218"/>
@@ -13059,7 +13061,7 @@
       </c>
       <c r="D35" s="62" t="str">
         <f>_xll.qlSimpleQuote(C35,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_29Y_Quote#0002</v>
+        <v>USD_CURVE_3M_29Y_Quote#0000</v>
       </c>
       <c r="E35" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D35)</f>
@@ -13075,14 +13077,14 @@
         <v>USD_CURVE_3M_29Y</v>
       </c>
       <c r="K35" s="187">
-        <v>2.6740438389999999</v>
+        <v>2.6547595030000002</v>
       </c>
       <c r="L35" s="187">
-        <v>2.6740438389999999</v>
+        <v>2.6547595030000002</v>
       </c>
       <c r="M35" s="187">
         <f t="shared" si="4"/>
-        <v>2.6740438389999999</v>
+        <v>2.6547595030000002</v>
       </c>
       <c r="N35" s="222"/>
       <c r="O35" s="223">
@@ -13090,11 +13092,11 @@
       </c>
       <c r="P35" s="222"/>
       <c r="Q35" s="187">
-        <v>2.6740438389999999</v>
+        <v>2.6547595030000002</v>
       </c>
       <c r="R35" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D35,Q35/100,Trigger)</f>
-        <v>-3.9441999999736965E-7</v>
+        <v>0</v>
       </c>
       <c r="S35" s="16"/>
       <c r="Y35" s="218"/>
@@ -13110,7 +13112,7 @@
       </c>
       <c r="D36" s="62" t="str">
         <f>_xll.qlSimpleQuote(C36,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_30Y_Quote#0002</v>
+        <v>USD_CURVE_3M_30Y_Quote#0000</v>
       </c>
       <c r="E36" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D36)</f>
@@ -13126,14 +13128,14 @@
         <v>USD_CURVE_3M_30Y</v>
       </c>
       <c r="K36" s="187">
-        <v>2.6790000000000003</v>
+        <v>2.6596892780000001</v>
       </c>
       <c r="L36" s="187">
-        <v>2.6790000000000003</v>
+        <v>2.6596892780000001</v>
       </c>
       <c r="M36" s="187">
         <f t="shared" si="4"/>
-        <v>2.6790000000000003</v>
+        <v>2.6596892780000001</v>
       </c>
       <c r="N36" s="222"/>
       <c r="O36" s="223">
@@ -13141,7 +13143,7 @@
       </c>
       <c r="P36" s="222"/>
       <c r="Q36" s="187">
-        <v>2.6790000000000003</v>
+        <v>2.6596892780000001</v>
       </c>
       <c r="R36" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D36,Q36/100,Trigger)</f>
@@ -13161,7 +13163,7 @@
       </c>
       <c r="D37" s="62" t="str">
         <f>_xll.qlSimpleQuote(C37,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_35Y_Quote#0002</v>
+        <v>USD_CURVE_3M_35Y_Quote#0000</v>
       </c>
       <c r="E37" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D37)</f>
@@ -13212,7 +13214,7 @@
       </c>
       <c r="D38" s="62" t="str">
         <f>_xll.qlSimpleQuote(C38,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_40Y_Quote#0002</v>
+        <v>USD_CURVE_3M_40Y_Quote#0000</v>
       </c>
       <c r="E38" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D38)</f>
@@ -13228,14 +13230,14 @@
         <v>USD_CURVE_3M_40Y</v>
       </c>
       <c r="K38" s="187">
-        <v>2.6959999999999997</v>
+        <v>2.6787361089999999</v>
       </c>
       <c r="L38" s="187">
-        <v>2.6959999999999997</v>
+        <v>2.6787361089999999</v>
       </c>
       <c r="M38" s="187">
         <f t="shared" si="4"/>
-        <v>2.6959999999999997</v>
+        <v>2.6787361089999999</v>
       </c>
       <c r="N38" s="222"/>
       <c r="O38" s="223">
@@ -13243,11 +13245,11 @@
       </c>
       <c r="P38" s="222"/>
       <c r="Q38" s="187">
-        <v>2.6959999999999997</v>
+        <v>2.6787361089999999</v>
       </c>
       <c r="R38" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D38,Q38/100,Trigger)</f>
-        <v>9.9999999999961231E-6</v>
+        <v>0</v>
       </c>
       <c r="S38" s="16"/>
       <c r="Y38" s="218"/>
@@ -13263,7 +13265,7 @@
       </c>
       <c r="D39" s="62" t="str">
         <f>_xll.qlSimpleQuote(C39,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_50Y_Quote#0002</v>
+        <v>USD_CURVE_3M_50Y_Quote#0000</v>
       </c>
       <c r="E39" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D39)</f>
@@ -13279,14 +13281,14 @@
         <v>USD_CURVE_3M_50Y</v>
       </c>
       <c r="K39" s="187">
-        <v>2.6819999999999999</v>
+        <v>2.66477034</v>
       </c>
       <c r="L39" s="187">
-        <v>2.6819999999999999</v>
+        <v>2.66477034</v>
       </c>
       <c r="M39" s="187">
         <f t="shared" si="4"/>
-        <v>2.6819999999999999</v>
+        <v>2.66477034</v>
       </c>
       <c r="N39" s="222"/>
       <c r="O39" s="223">
@@ -13294,11 +13296,11 @@
       </c>
       <c r="P39" s="222"/>
       <c r="Q39" s="187">
-        <v>2.6819999999999999</v>
+        <v>2.66477034</v>
       </c>
       <c r="R39" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D39,Q39/100,Trigger)</f>
-        <v>9.9999999999995925E-6</v>
+        <v>0</v>
       </c>
       <c r="S39" s="16"/>
       <c r="Y39" s="218"/>
@@ -13314,7 +13316,7 @@
       </c>
       <c r="D40" s="2" t="str">
         <f>_xll.qlSimpleQuote(C40,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_60Y_Quote#0002</v>
+        <v>USD_CURVE_3M_60Y_Quote#0000</v>
       </c>
       <c r="E40" s="227" t="str">
         <f>_xll.ohRangeRetrieveError(D40)</f>
@@ -13330,14 +13332,14 @@
         <v>USD_CURVE_3M_60Y</v>
       </c>
       <c r="K40" s="188">
-        <v>2.6693453260000002</v>
+        <v>2.6518026109999999</v>
       </c>
       <c r="L40" s="188">
-        <v>2.6693453260000002</v>
+        <v>2.6518026109999999</v>
       </c>
       <c r="M40" s="188">
         <f t="shared" si="4"/>
-        <v>2.6693453260000002</v>
+        <v>2.6518026109999999</v>
       </c>
       <c r="N40" s="222"/>
       <c r="O40" s="223">
@@ -13345,11 +13347,11 @@
       </c>
       <c r="P40" s="222"/>
       <c r="Q40" s="188">
-        <v>2.6693453260000002</v>
+        <v>2.6518026109999999</v>
       </c>
       <c r="R40" s="199">
         <f>_xll.qlSimpleQuoteSetValue(D40,Q40/100,Trigger)</f>
-        <v>8.2516100000026849E-6</v>
+        <v>6.0000001494975308E-11</v>
       </c>
       <c r="S40" s="16"/>
       <c r="Y40" s="218"/>
